--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Local\NetAgentOrderProcessing\NAOrderProcessing\NetAgent\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Local\NetAgent\NetAgent\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8070" tabRatio="748" activeTab="1"/>
+    <workbookView tabRatio="748" windowHeight="5895" windowWidth="10230" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="RTE" sheetId="8" r:id="rId2"/>
-    <sheet name="TaskLog" sheetId="2" r:id="rId3"/>
-    <sheet name="OrderProcessing" sheetId="3" r:id="rId4"/>
-    <sheet name="OrderSearch" sheetId="4" r:id="rId5"/>
-    <sheet name="AgentConsole" sheetId="5" r:id="rId6"/>
-    <sheet name="OrderCreation" sheetId="6" r:id="rId7"/>
-    <sheet name="TC_OrderProcess" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="TaskLog" r:id="rId2" sheetId="2"/>
+    <sheet name="OrderProcessing" r:id="rId3" sheetId="3"/>
+    <sheet name="OrderSearch" r:id="rId4" sheetId="4"/>
+    <sheet name="AgentConsole" r:id="rId5" sheetId="5"/>
+    <sheet name="RTE" r:id="rId6" sheetId="8"/>
+    <sheet name="OrderCreation" r:id="rId7" sheetId="6"/>
+    <sheet name="TC_OrderProcess" r:id="rId8" sheetId="7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="569">
   <si>
     <t>PUId</t>
   </si>
@@ -689,9 +689,6 @@
     <t>SDC</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>FRA</t>
   </si>
   <si>
@@ -763,6 +760,9 @@
   </si>
   <si>
     <t>1581</t>
+  </si>
+  <si>
+    <t>779</t>
   </si>
   <si>
     <t>selenium.automation</t>
@@ -1220,106 +1220,625 @@
     <t>2622</t>
   </si>
   <si>
-    <t>778</t>
-  </si>
-  <si>
-    <t>1744563</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>02:40</t>
+  </si>
+  <si>
+    <t>10091686</t>
+  </si>
+  <si>
+    <t>RT00002143</t>
+  </si>
+  <si>
+    <t>RouteWorkID</t>
+  </si>
+  <si>
+    <t>RW TrackingNO</t>
+  </si>
+  <si>
+    <t>RWID</t>
+  </si>
+  <si>
+    <t>RTrackingNo</t>
+  </si>
+  <si>
+    <t>PUID</t>
+  </si>
+  <si>
+    <t>BOLNo</t>
+  </si>
+  <si>
+    <t>03:50</t>
+  </si>
+  <si>
+    <t>10101158</t>
+  </si>
+  <si>
+    <t>05:07</t>
+  </si>
+  <si>
+    <t>10101223</t>
+  </si>
+  <si>
+    <t>05:31</t>
+  </si>
+  <si>
+    <t>10101311</t>
+  </si>
+  <si>
+    <t>05:54</t>
+  </si>
+  <si>
+    <t>10101322</t>
+  </si>
+  <si>
+    <t>06:12</t>
+  </si>
+  <si>
+    <t>10101361</t>
+  </si>
+  <si>
+    <t>03:28</t>
+  </si>
+  <si>
+    <t>10101370</t>
+  </si>
+  <si>
+    <t>10101415</t>
+  </si>
+  <si>
+    <t>07:14</t>
+  </si>
+  <si>
+    <t>07:17</t>
+  </si>
+  <si>
+    <t>10101459</t>
+  </si>
+  <si>
+    <t>10101506</t>
+  </si>
+  <si>
+    <t>10101583</t>
+  </si>
+  <si>
+    <t>10101639</t>
+  </si>
+  <si>
+    <t>RT00004875</t>
+  </si>
+  <si>
+    <t>134958161</t>
+  </si>
+  <si>
+    <t>33276260</t>
+  </si>
+  <si>
+    <t>10094236</t>
+  </si>
+  <si>
+    <t>134958172</t>
+  </si>
+  <si>
+    <t>10094615</t>
+  </si>
+  <si>
+    <t>1746554</t>
+  </si>
+  <si>
+    <t>1746570</t>
+  </si>
+  <si>
+    <t>134967604</t>
+  </si>
+  <si>
+    <t>33277015</t>
+  </si>
+  <si>
+    <t>10094982</t>
+  </si>
+  <si>
+    <t>134967615</t>
+  </si>
+  <si>
+    <t>10095056</t>
+  </si>
+  <si>
+    <t>1746574</t>
+  </si>
+  <si>
+    <t>1746575</t>
+  </si>
+  <si>
+    <t>1746576</t>
+  </si>
+  <si>
+    <t>1746577</t>
+  </si>
+  <si>
+    <t>1746620</t>
+  </si>
+  <si>
+    <t>134994282</t>
+  </si>
+  <si>
+    <t>33279444</t>
+  </si>
+  <si>
+    <t>10097411</t>
+  </si>
+  <si>
+    <t>134994293</t>
+  </si>
+  <si>
+    <t>10097619</t>
+  </si>
+  <si>
+    <t>1746622</t>
+  </si>
+  <si>
+    <t>1746623</t>
+  </si>
+  <si>
+    <t>1746624</t>
+  </si>
+  <si>
+    <t>1746625</t>
+  </si>
+  <si>
+    <t>1746626</t>
+  </si>
+  <si>
+    <t>1746628</t>
+  </si>
+  <si>
+    <t>10097677</t>
+  </si>
+  <si>
+    <t>1746631</t>
+  </si>
+  <si>
+    <t>1746632</t>
+  </si>
+  <si>
+    <t>1746633</t>
+  </si>
+  <si>
+    <t>1746634</t>
+  </si>
+  <si>
+    <t>1746635</t>
+  </si>
+  <si>
+    <t>1746672</t>
+  </si>
+  <si>
+    <t>135014114</t>
+  </si>
+  <si>
+    <t>33281155</t>
+  </si>
+  <si>
+    <t>10099122</t>
+  </si>
+  <si>
+    <t>135014125</t>
+  </si>
+  <si>
+    <t>10099277</t>
+  </si>
+  <si>
+    <t>1746675</t>
+  </si>
+  <si>
+    <t>1746676</t>
+  </si>
+  <si>
+    <t>1746677</t>
+  </si>
+  <si>
+    <t>1746678</t>
+  </si>
+  <si>
+    <t>1746679</t>
+  </si>
+  <si>
+    <t>1746704</t>
+  </si>
+  <si>
+    <t>135022926</t>
+  </si>
+  <si>
+    <t>33281848</t>
+  </si>
+  <si>
+    <t>10099815</t>
+  </si>
+  <si>
+    <t>135022937</t>
+  </si>
+  <si>
+    <t>10099893</t>
+  </si>
+  <si>
+    <t>1746709</t>
+  </si>
+  <si>
+    <t>1746710</t>
+  </si>
+  <si>
+    <t>1746711</t>
+  </si>
+  <si>
+    <t>1746712</t>
+  </si>
+  <si>
+    <t>1746713</t>
+  </si>
+  <si>
+    <t>1746766</t>
+  </si>
+  <si>
+    <t>135058150</t>
+  </si>
+  <si>
+    <t>33284785</t>
+  </si>
+  <si>
+    <t>10102752</t>
+  </si>
+  <si>
+    <t>135058161</t>
+  </si>
+  <si>
+    <t>10103298</t>
+  </si>
+  <si>
+    <t>1746769</t>
+  </si>
+  <si>
+    <t>1746770</t>
+  </si>
+  <si>
+    <t>1746771</t>
+  </si>
+  <si>
+    <t>1746772</t>
+  </si>
+  <si>
+    <t>1746773</t>
+  </si>
+  <si>
+    <t>1746798</t>
+  </si>
+  <si>
+    <t>135069723</t>
+  </si>
+  <si>
+    <t>33285942</t>
+  </si>
+  <si>
+    <t>10103897</t>
+  </si>
+  <si>
+    <t>135069734</t>
+  </si>
+  <si>
+    <t>10104242</t>
+  </si>
+  <si>
+    <t>1746801</t>
+  </si>
+  <si>
+    <t>1746807</t>
+  </si>
+  <si>
+    <t>1746808</t>
+  </si>
+  <si>
+    <t>1746809</t>
+  </si>
+  <si>
+    <t>1746810</t>
+  </si>
+  <si>
+    <t>1746811</t>
+  </si>
+  <si>
+    <t>1746828</t>
+  </si>
+  <si>
+    <t>135080940</t>
+  </si>
+  <si>
+    <t>33286924</t>
+  </si>
+  <si>
+    <t>10104879</t>
+  </si>
+  <si>
+    <t>135080951</t>
+  </si>
+  <si>
+    <t>10105077</t>
+  </si>
+  <si>
+    <t>1746838</t>
+  </si>
+  <si>
+    <t>1746839</t>
+  </si>
+  <si>
+    <t>1746840</t>
+  </si>
+  <si>
+    <t>1746841</t>
+  </si>
+  <si>
+    <t>1746842</t>
+  </si>
+  <si>
+    <t>1746909</t>
+  </si>
+  <si>
+    <t>135099357</t>
+  </si>
+  <si>
+    <t>33288374</t>
+  </si>
+  <si>
+    <t>10106317</t>
+  </si>
+  <si>
+    <t>135099368</t>
+  </si>
+  <si>
+    <t>10106538</t>
+  </si>
+  <si>
+    <t>1746913</t>
+  </si>
+  <si>
+    <t>1746914</t>
+  </si>
+  <si>
+    <t>1746915</t>
+  </si>
+  <si>
+    <t>1746916</t>
+  </si>
+  <si>
+    <t>1746917</t>
+  </si>
+  <si>
+    <t>1746965</t>
+  </si>
+  <si>
+    <t>135126710</t>
+  </si>
+  <si>
+    <t>33290879</t>
+  </si>
+  <si>
+    <t>10108816</t>
+  </si>
+  <si>
+    <t>135126721</t>
+  </si>
+  <si>
+    <t>10109130</t>
+  </si>
+  <si>
+    <t>1746968</t>
+  </si>
+  <si>
+    <t>07:09</t>
+  </si>
+  <si>
+    <t>10115200</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>11:24</t>
+  </si>
+  <si>
+    <t>10115540</t>
+  </si>
+  <si>
+    <t>10116109</t>
+  </si>
+  <si>
+    <t>07:29</t>
+  </si>
+  <si>
+    <t>10116142</t>
+  </si>
+  <si>
+    <t>07:40</t>
+  </si>
+  <si>
+    <t>10116372</t>
+  </si>
+  <si>
+    <t>08:45</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>10116375</t>
+  </si>
+  <si>
+    <t>08:54</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>785</t>
+  </si>
+  <si>
+    <t>10116378</t>
+  </si>
+  <si>
+    <t>10116422</t>
+  </si>
+  <si>
+    <t>10116430</t>
+  </si>
+  <si>
+    <t>07:30</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>10056580</t>
-  </si>
-  <si>
-    <t>04:07</t>
-  </si>
-  <si>
-    <t>10060236</t>
-  </si>
-  <si>
-    <t>06:43</t>
-  </si>
-  <si>
-    <t>10060327</t>
-  </si>
-  <si>
-    <t>07:12</t>
-  </si>
-  <si>
-    <t>10060371</t>
-  </si>
-  <si>
-    <t>06:35</t>
-  </si>
-  <si>
-    <t>10060676</t>
-  </si>
-  <si>
-    <t>10060682</t>
-  </si>
-  <si>
-    <t>10060687</t>
-  </si>
-  <si>
-    <t>10060694</t>
-  </si>
-  <si>
-    <t>10066672</t>
-  </si>
-  <si>
-    <t>RouteWorkID</t>
-  </si>
-  <si>
-    <t>RW TrackingNO</t>
-  </si>
-  <si>
-    <t>RWID</t>
-  </si>
-  <si>
-    <t>RTrackingNo</t>
-  </si>
-  <si>
-    <t>PUID</t>
-  </si>
-  <si>
-    <t>BOLNo</t>
-  </si>
-  <si>
-    <t>RT00004875</t>
-  </si>
-  <si>
-    <t>07:07</t>
-  </si>
-  <si>
-    <t>10068344</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>00:34</t>
-  </si>
-  <si>
-    <t>10071126</t>
-  </si>
-  <si>
-    <t>01:12</t>
-  </si>
-  <si>
-    <t>01:13</t>
-  </si>
-  <si>
-    <t>10071155</t>
-  </si>
-  <si>
-    <t>22:46</t>
-  </si>
-  <si>
-    <t>10071188</t>
-  </si>
-  <si>
-    <t>RT00004915</t>
+    <t>10116435</t>
+  </si>
+  <si>
+    <t>10:41</t>
+  </si>
+  <si>
+    <t>10116438</t>
+  </si>
+  <si>
+    <t>10:51</t>
+  </si>
+  <si>
+    <t>10116442</t>
+  </si>
+  <si>
+    <t>10:57</t>
+  </si>
+  <si>
+    <t>10116446</t>
+  </si>
+  <si>
+    <t>08:07</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>10116448</t>
+  </si>
+  <si>
+    <t>10116449</t>
+  </si>
+  <si>
+    <t>10116451</t>
+  </si>
+  <si>
+    <t>1578</t>
+  </si>
+  <si>
+    <t>10116453</t>
+  </si>
+  <si>
+    <t>10116454</t>
+  </si>
+  <si>
+    <t>02:21</t>
+  </si>
+  <si>
+    <t>10116856</t>
+  </si>
+  <si>
+    <t>02:34</t>
+  </si>
+  <si>
+    <t>10116867</t>
+  </si>
+  <si>
+    <t>03:41</t>
+  </si>
+  <si>
+    <t>10116871</t>
+  </si>
+  <si>
+    <t>03:52</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>10116878</t>
+  </si>
+  <si>
+    <t>04:16</t>
+  </si>
+  <si>
+    <t>10116895</t>
+  </si>
+  <si>
+    <t>01:27</t>
+  </si>
+  <si>
+    <t>10116904</t>
+  </si>
+  <si>
+    <t>04:37</t>
+  </si>
+  <si>
+    <t>10116905</t>
+  </si>
+  <si>
+    <t>04:47</t>
+  </si>
+  <si>
+    <t>10116908</t>
+  </si>
+  <si>
+    <t>04:55</t>
+  </si>
+  <si>
+    <t>10116924</t>
+  </si>
+  <si>
+    <t>02:06</t>
+  </si>
+  <si>
+    <t>10116929</t>
+  </si>
+  <si>
+    <t>10116932</t>
+  </si>
+  <si>
+    <t>10116939</t>
+  </si>
+  <si>
+    <t>10116945</t>
+  </si>
+  <si>
+    <t>10116952</t>
+  </si>
+  <si>
+    <t>135215449</t>
+  </si>
+  <si>
+    <t>33298649</t>
+  </si>
+  <si>
+    <t>10116570</t>
+  </si>
+  <si>
+    <t>135215450</t>
+  </si>
+  <si>
+    <t>06:51</t>
+  </si>
+  <si>
+    <t>10116993</t>
   </si>
 </sst>
 </file>
@@ -1430,12 +1949,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1454,12 +1967,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1556,51 +2075,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1617,192 +2091,213 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFDDDDDD"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FFDDDDDD"/>
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
   </cellStyleXfs>
-  <cellXfs count="63">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="62">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="11" numFmtId="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="13" numFmtId="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="44" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="7" numFmtId="49" quotePrefix="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="7" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="7" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="7" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="4" fontId="4" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="4" fontId="4" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="7" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="3" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="7" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="4" fontId="6" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="7" fillId="4" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="14" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="8" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="9" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="9" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="10" fillId="3" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="4" name="Currency" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
@@ -1946,7 +2441,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1963,10 +2458,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2124,7 +2619,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -2133,13 +2628,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2149,7 +2644,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2158,7 +2653,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2167,7 +2662,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2177,12 +2672,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2213,7 +2708,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -2232,7 +2727,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -2250,27 +2745,27 @@
           <a:gdLst/>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:rect b="0" l="0" r="0" t="0"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" a14:legacySpreadsheetColorIndex="9" mc:Ignorable="a14" val="090000"/>
         </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" a14:legacySpreadsheetColorIndex="64" mc:Ignorable="a14" val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
+          <a:headEnd len="med" type="none" w="med"/>
+          <a:tailEnd len="med" type="none" w="med"/>
         </a:ln>
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
             <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                <a:outerShdw algn="ctr" dir="2700000" dist="35921" rotWithShape="0">
                   <a:srgbClr val="808080"/>
                 </a:outerShdw>
               </a:effectLst>
@@ -2278,7 +2773,7 @@
           </a:ext>
         </a:extLst>
       </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:bodyPr bIns="0" lIns="18288" rIns="0" tIns="0" upright="1" vertOverflow="clip" wrap="square"/>
       <a:lstStyle/>
     </a:spDef>
     <a:lnDef>
@@ -2292,27 +2787,27 @@
           <a:gdLst/>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:rect b="0" l="0" r="0" t="0"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" a14:legacySpreadsheetColorIndex="9" mc:Ignorable="a14" val="090000"/>
         </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" a14:legacySpreadsheetColorIndex="64" mc:Ignorable="a14" val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
+          <a:headEnd len="med" type="none" w="med"/>
+          <a:tailEnd len="med" type="none" w="med"/>
         </a:ln>
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
             <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                <a:outerShdw algn="ctr" dir="2700000" dist="35921" rotWithShape="0">
                   <a:srgbClr val="808080"/>
                 </a:outerShdw>
               </a:effectLst>
@@ -2320,7 +2815,7 @@
           </a:ext>
         </a:extLst>
       </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:bodyPr bIns="0" lIns="18288" rIns="0" tIns="0" upright="1" vertOverflow="clip" wrap="square"/>
       <a:lstStyle/>
     </a:lnDef>
   </a:objectDefaults>
@@ -2329,510 +2824,519 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IJ4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AM9" sqref="AM9"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="12" width="18.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="7.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="7" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.5703125" style="3" collapsed="1"/>
-    <col min="21" max="21" width="7.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="6.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="27" width="17" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="17" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="34" width="18.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="5" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="11.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="22.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="22.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="21.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="36.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="16.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="42" max="244" width="11.5703125" style="3" collapsed="1"/>
-    <col min="245" max="16384" width="11.5703125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="35.7109375" collapsed="true"/>
+    <col min="5" max="12" bestFit="true" customWidth="true" style="1" width="18.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="16.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="18.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="20" max="20" style="1" width="11.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="23" max="27" bestFit="true" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="16.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
+    <col min="32" max="34" bestFit="true" customWidth="true" style="1" width="18.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="5.0" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="1" width="21.5703125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="36.42578125" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="42" max="244" style="1" width="11.5703125" collapsed="true"/>
+    <col min="245" max="16384" style="2" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="3" customFormat="1">
-      <c r="A1" s="1">
+    <row customFormat="1" r="1" s="1" spans="1:42">
+      <c r="A1" s="49">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="49">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="49">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="49">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="49">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="49">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="49">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="49">
         <v>7</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="49">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="49">
         <v>9</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="49">
         <v>10</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="49">
         <v>11</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="49">
         <v>12</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="49">
         <v>13</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="49">
         <v>14</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="49">
         <v>15</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="49">
         <v>16</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="49">
         <v>17</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="49">
         <v>18</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="50">
         <v>19</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="50">
         <v>20</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1" s="50">
         <v>21</v>
       </c>
-      <c r="W1" s="2">
+      <c r="W1" s="50">
         <v>22</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1" s="50">
         <v>23</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Y1" s="50">
         <v>24</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="Z1" s="50">
         <v>25</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AA1" s="50">
         <v>26</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AB1" s="50">
         <v>27</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AC1" s="50">
         <v>28</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AD1" s="50">
         <v>29</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AE1" s="50">
         <v>30</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AF1" s="50">
         <v>31</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AG1" s="50">
         <v>32</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AH1" s="50">
         <v>33</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AI1" s="50">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AJ1" s="50">
         <v>35</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AK1" s="50">
         <v>36</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AL1" s="50">
         <v>37</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AM1" s="50">
         <v>38</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AN1" s="50">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" ht="39" thickBot="1">
-      <c r="A2" s="1" t="s">
+      <c r="AO1" s="51">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="51">
+        <v>41</v>
+      </c>
+    </row>
+    <row ht="38.25" r="2" spans="1:42">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AI2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AK2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AL2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AM2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AN2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="AO2" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="AP2" s="62" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" ht="39" thickBot="1">
-      <c r="A3" s="3" t="s">
+      <c r="AO2" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="AP2" s="51" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row ht="38.25" r="3" spans="1:42">
+      <c r="A3" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="51">
         <v>32363690</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3" s="3">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="51">
         <v>95002505</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="51">
         <v>1</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="51">
         <v>1</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="51">
         <v>1</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="51">
         <v>95002504</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="51">
         <v>34769</v>
       </c>
-      <c r="T3" s="27">
+      <c r="T3" s="52">
         <v>121246406</v>
       </c>
-      <c r="U3" s="3">
-        <v>257844</v>
-      </c>
-      <c r="V3" s="3">
+      <c r="U3" s="51">
+        <v>200001</v>
+      </c>
+      <c r="V3" s="51">
         <v>87</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="29" t="s">
+      <c r="X3" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="Y3" s="30" t="s">
+      <c r="Y3" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="Z3"/>
-      <c r="AA3" s="3" t="s">
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AB3" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AD3" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AE3" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AF3" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AG3" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="AH3"/>
-      <c r="AI3" s="3">
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="51">
         <v>5</v>
       </c>
-      <c r="AJ3" s="28" t="s">
+      <c r="AJ3" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AK3" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AL3" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AM3" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AN3" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="AO3" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="AP3" s="60"/>
-    </row>
-    <row r="4" spans="1:42" ht="38.25">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4" s="3" t="s">
+      <c r="AO3" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="AP3" s="51"/>
+    </row>
+    <row ht="38.25" r="4" spans="1:42">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4" s="3">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="51">
         <v>1</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="51">
         <v>1</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="51">
         <v>1</v>
       </c>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4" s="3">
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="51">
         <v>34750</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="51">
         <v>243898</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="51">
         <v>19</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="X4" s="28" t="s">
+      <c r="X4" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="51">
         <v>6</v>
       </c>
-      <c r="AB4"/>
-      <c r="AC4" s="3" t="s">
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AH4" s="3">
+      <c r="AH4" s="51">
         <v>6.5</v>
       </c>
-      <c r="AI4" s="3">
+      <c r="AI4" s="51">
         <v>1</v>
       </c>
-      <c r="AJ4" s="27" t="s">
+      <c r="AJ4" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AK4" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AL4" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AM4" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AN4" s="51" t="s">
         <v>37</v>
       </c>
+      <c r="AO4" s="51"/>
+      <c r="AP4" s="51"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="1.0527777777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" useFirstPageNumber="1" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2841,120 +3345,204 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="61" t="s">
-        <v>380</v>
-      </c>
-      <c r="B1" s="61" t="s">
-        <v>381</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>382</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row ht="14.25" r="2" spans="1:8">
+      <c r="A2" s="8">
+        <v>3368926</v>
+      </c>
+      <c r="B2" s="8">
+        <v>3368928</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1685519</v>
+      </c>
+      <c r="D2" s="4">
+        <v>950656</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3368</v>
+      </c>
+      <c r="F2" s="9">
+        <v>257844</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="11">
+        <v>25689294</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins bottom="1.0527777777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="19" width="23.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="10">
-        <v>3368926</v>
-      </c>
-      <c r="B2" s="10">
-        <v>3368928</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1685519</v>
-      </c>
-      <c r="D2" s="6">
-        <v>950656</v>
-      </c>
-      <c r="E2" s="6">
-        <v>3368</v>
-      </c>
-      <c r="F2" s="11">
-        <v>257844</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="13">
-        <v>25689294</v>
-      </c>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="13"/>
+    </row>
+    <row ht="15" r="2" spans="1:6">
+      <c r="A2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="12">
+        <v>9775654</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row ht="15" r="3" spans="1:6">
+      <c r="A3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="12">
+        <v>9775070</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row ht="15" r="4" spans="1:6">
+      <c r="A4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="12">
+        <v>9773125</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row ht="15" r="5" spans="1:6">
+      <c r="A5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="12">
+        <v>9775066</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="F5" s="23"/>
+    </row>
+    <row ht="15" r="6" spans="1:6">
+      <c r="A6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="12">
+        <v>9775655</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row ht="15" r="7" spans="1:6">
+      <c r="A7" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="12">
+        <v>9775067</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row ht="15" r="8" spans="1:6">
+      <c r="A8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="17">
+        <v>9773127</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row ht="15" r="9" spans="1:6">
+      <c r="A9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="17">
+        <v>3562792</v>
+      </c>
+      <c r="C9" s="14"/>
+    </row>
+    <row ht="15" r="10" spans="1:6">
+      <c r="A10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="20">
+        <v>131620368</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row ht="15" r="11" spans="1:6">
+      <c r="A11" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="22">
+        <v>285730</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="18" spans="8:8">
+      <c r="H18" s="24"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="1.0527777777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2963,136 +3551,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.7109375" style="21" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="14">
-        <v>9775654</v>
-      </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="14">
-        <v>9775070</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="14">
-        <v>9773125</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="14">
-        <v>9775066</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="1:6" ht="15">
-      <c r="A6" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="14">
-        <v>9775655</v>
-      </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="14">
-        <v>9775067</v>
-      </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" ht="15">
-      <c r="A8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="19">
-        <v>9773127</v>
-      </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="19">
-        <v>3562792</v>
-      </c>
-      <c r="C9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="22">
-        <v>131620368</v>
-      </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="15">
-      <c r="A11" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="24">
-        <v>285730</v>
-      </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="18" spans="8:8">
-      <c r="H18" s="26"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
@@ -3100,115 +3560,115 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.25">
-      <c r="A2" s="18">
+    <row ht="14.25" r="2" spans="1:14">
+      <c r="A2" s="16">
         <v>3375023</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="16">
         <v>32369785</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="16">
         <v>3368938</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>32363700</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <v>3368926</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>32363690</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="8">
         <v>3368928</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>32284566</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <v>1685519</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4">
         <v>950656</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="4">
         <v>3357395</v>
       </c>
-      <c r="M2" s="6"/>
+      <c r="M2" s="4"/>
       <c r="N2" t="s">
-        <v>363</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
@@ -3217,2248 +3677,2305 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>2653</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="56" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="56" collapsed="1"/>
-    <col min="3" max="3" width="13" style="56" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="56" collapsed="1"/>
-    <col min="5" max="5" width="12" style="56" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" style="56" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="9.140625" style="56" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" style="56" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.140625" style="56" collapsed="1"/>
-    <col min="11" max="11" width="13.140625" style="56" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="56" collapsed="1"/>
-    <col min="13" max="13" width="14.7109375" style="56" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19.85546875" style="56" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.140625" style="56" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="9.140625" style="56" collapsed="1"/>
-    <col min="17" max="17" width="15.28515625" style="56" customWidth="1" collapsed="1"/>
-    <col min="18" max="23" width="9.140625" style="56" collapsed="1"/>
-    <col min="24" max="24" width="13.85546875" style="56" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.5703125" style="56" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.28515625" style="56" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="16.5703125" style="56" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="15" style="56" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="14.85546875" style="56" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="15.7109375" style="56" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="18.140625" style="56" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="15.85546875" style="56" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.140625" style="56" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="9.140625" style="56" collapsed="1"/>
-    <col min="35" max="35" width="12.7109375" style="56" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13" style="56" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="9.140625" style="56" collapsed="1"/>
-    <col min="38" max="38" width="12.7109375" style="56" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="11.85546875" style="56" customWidth="1" collapsed="1"/>
-    <col min="40" max="16384" width="9.140625" style="56" collapsed="1"/>
+    <col min="1" max="2" style="45" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="45" width="13.0" collapsed="true"/>
+    <col min="4" max="4" style="45" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="45" width="12.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="45" width="17.140625" collapsed="true"/>
+    <col min="7" max="8" style="45" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="45" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" style="45" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="45" width="13.140625" collapsed="true"/>
+    <col min="12" max="12" style="45" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="45" width="14.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="45" width="19.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="45" width="15.140625" collapsed="true"/>
+    <col min="16" max="16" style="45" width="9.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="45" width="15.28515625" collapsed="true"/>
+    <col min="18" max="23" style="45" width="9.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="45" width="13.85546875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="45" width="15.5703125" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="45" width="13.28515625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="45" width="16.5703125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="45" width="15.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="45" width="14.85546875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="45" width="15.7109375" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="45" width="18.140625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="45" width="15.85546875" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="45" width="12.140625" collapsed="true"/>
+    <col min="34" max="34" style="45" width="9.140625" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="45" width="12.7109375" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="45" width="13.0" collapsed="true"/>
+    <col min="37" max="37" style="45" width="9.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="45" width="12.7109375" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="45" width="11.85546875" collapsed="true"/>
+    <col min="40" max="16384" style="45" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="31" customFormat="1" ht="25.5">
-      <c r="A1" s="43" t="s">
+    <row customFormat="1" ht="25.5" r="1" s="25" spans="1:40">
+      <c r="A1" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="R1" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="U1" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="V1" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="W1" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="X1" s="44" t="s">
+      <c r="X1" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="Y1" s="44" t="s">
+      <c r="Y1" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="Z1" s="44" t="s">
+      <c r="Z1" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="AA1" s="44" t="s">
+      <c r="AA1" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="AB1" s="44" t="s">
+      <c r="AB1" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="AC1" s="44" t="s">
+      <c r="AC1" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="AD1" s="44" t="s">
+      <c r="AD1" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="AE1" s="44" t="s">
+      <c r="AE1" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="AF1" s="44" t="s">
+      <c r="AF1" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="AG1" s="53" t="s">
+      <c r="AG1" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="53" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="AJ1" s="53" t="s">
+      <c r="AJ1" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="AK1" s="53" t="s">
+      <c r="AK1" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="AL1" s="53" t="s">
+      <c r="AL1" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="AM1" s="55" t="s">
+      <c r="AM1" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="AN1" s="41"/>
-    </row>
-    <row r="2" spans="1:40" s="31" customFormat="1" ht="63.75">
-      <c r="A2" s="45" t="s">
+      <c r="AN1" s="35"/>
+    </row>
+    <row customFormat="1" ht="63.75" r="2" s="25" spans="1:40">
+      <c r="A2" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="32" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32" t="s">
+      <c r="R2" s="26"/>
+      <c r="S2" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="T2" s="32" t="s">
+      <c r="T2" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="U2" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="W2" s="32" t="s">
+      <c r="W2" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="X2" s="32" t="s">
+      <c r="X2" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="26" t="s">
         <v>153</v>
       </c>
       <c r="Z2" t="s">
         <v>294</v>
       </c>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="26" t="s">
         <v>154</v>
       </c>
       <c r="AB2" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" s="32" t="s">
+      <c r="AC2" s="26" t="s">
         <v>155</v>
       </c>
       <c r="AD2" t="s">
         <v>156</v>
       </c>
-      <c r="AE2" s="32" t="s">
+      <c r="AE2" s="26" t="s">
         <v>157</v>
       </c>
       <c r="AF2" t="s">
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>386</v>
-      </c>
-      <c r="AH2" s="36"/>
+        <v>541</v>
+      </c>
+      <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>385</v>
+        <v>540</v>
       </c>
       <c r="AJ2" t="s">
-        <v>385</v>
+        <v>540</v>
       </c>
       <c r="AK2" t="s">
-        <v>385</v>
-      </c>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="46" t="s">
+        <v>540</v>
+      </c>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="AN2" s="41"/>
-    </row>
-    <row r="3" spans="1:40" s="31" customFormat="1" ht="76.5">
-      <c r="A3" s="45" t="s">
+      <c r="AN2" s="35"/>
+    </row>
+    <row customFormat="1" ht="76.5" r="3" s="25" spans="1:40">
+      <c r="A3" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="32" t="s">
+      <c r="K3" s="27"/>
+      <c r="L3" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32" t="s">
+      <c r="R3" s="26"/>
+      <c r="S3" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="T3" s="32" t="s">
+      <c r="T3" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="U3" s="32" t="s">
+      <c r="U3" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="V3" s="32" t="s">
+      <c r="V3" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="W3" s="32" t="s">
+      <c r="W3" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="X3" s="32" t="s">
+      <c r="X3" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="Y3" s="32" t="s">
+      <c r="Y3" s="26" t="s">
         <v>171</v>
       </c>
       <c r="Z3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA3" s="32" t="s">
+        <v>511</v>
+      </c>
+      <c r="AA3" s="26" t="s">
         <v>172</v>
       </c>
       <c r="AB3" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC3" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC3" s="26" t="s">
         <v>173</v>
       </c>
       <c r="AD3" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE3" s="32"/>
+        <v>512</v>
+      </c>
+      <c r="AE3" s="26"/>
       <c r="AF3" t="s">
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>389</v>
-      </c>
-      <c r="AH3" s="36"/>
+        <v>543</v>
+      </c>
+      <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>388</v>
+        <v>542</v>
       </c>
       <c r="AJ3" t="s">
-        <v>388</v>
+        <v>542</v>
       </c>
       <c r="AK3" t="s">
-        <v>388</v>
-      </c>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="AN3" s="41"/>
-    </row>
-    <row r="4" spans="1:40" s="31" customFormat="1" ht="63.75">
-      <c r="A4" s="45" t="s">
+      <c r="AN3" s="35"/>
+    </row>
+    <row customFormat="1" ht="63.75" r="4" s="25" spans="1:40">
+      <c r="A4" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33" t="s">
+      <c r="K4" s="27"/>
+      <c r="L4" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32" t="s">
+      <c r="O4" s="26"/>
+      <c r="P4" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="Q4" s="32" t="s">
+      <c r="Q4" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32" t="s">
+      <c r="R4" s="26"/>
+      <c r="S4" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="T4" s="32" t="s">
+      <c r="T4" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="U4" s="32" t="s">
+      <c r="U4" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="V4" s="32" t="s">
+      <c r="V4" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="W4" s="32" t="s">
+      <c r="W4" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="X4" s="32" t="s">
+      <c r="X4" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="Y4" s="32" t="s">
+      <c r="Y4" s="26" t="s">
         <v>181</v>
       </c>
       <c r="Z4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA4" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="AA4" s="26" t="s">
         <v>182</v>
       </c>
       <c r="AB4" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC4" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="AC4" s="26" t="s">
         <v>183</v>
       </c>
       <c r="AD4" t="s">
-        <v>362</v>
-      </c>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="56" t="s">
+        <v>516</v>
+      </c>
+      <c r="AE4" s="26"/>
+      <c r="AF4" t="s">
         <v>158</v>
       </c>
-      <c r="AG4" s="56" t="s">
-        <v>377</v>
-      </c>
-      <c r="AH4" s="36"/>
+      <c r="AG4" t="s">
+        <v>568</v>
+      </c>
+      <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>390</v>
+        <v>567</v>
       </c>
       <c r="AJ4" t="s">
-        <v>390</v>
+        <v>567</v>
       </c>
       <c r="AK4" t="s">
-        <v>390</v>
-      </c>
-      <c r="AL4" s="37"/>
-      <c r="AM4" s="46" t="s">
+        <v>567</v>
+      </c>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="AN4" s="41"/>
-    </row>
-    <row r="5" spans="1:40" s="31" customFormat="1" ht="76.5">
-      <c r="A5" s="45" t="s">
+      <c r="AN4" s="35"/>
+    </row>
+    <row customFormat="1" ht="76.5" r="5" s="25" spans="1:40">
+      <c r="A5" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="32" t="s">
+      <c r="K5" s="27"/>
+      <c r="L5" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="N5" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="O5" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="Q5" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32" t="s">
+      <c r="R5" s="26"/>
+      <c r="S5" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="T5" s="32" t="s">
+      <c r="T5" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="U5" s="32" t="s">
+      <c r="U5" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="V5" s="32" t="s">
+      <c r="V5" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="W5" s="32" t="s">
+      <c r="W5" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="X5" s="32" t="s">
+      <c r="X5" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="Y5" s="26" t="s">
         <v>171</v>
       </c>
       <c r="Z5" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA5" s="32" t="s">
+        <v>511</v>
+      </c>
+      <c r="AA5" s="26" t="s">
         <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC5" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC5" s="26" t="s">
         <v>173</v>
       </c>
       <c r="AD5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE5" s="32"/>
+        <v>512</v>
+      </c>
+      <c r="AE5" s="26"/>
       <c r="AF5" t="s">
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>392</v>
-      </c>
-      <c r="AH5" s="36"/>
+        <v>548</v>
+      </c>
+      <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>391</v>
+        <v>547</v>
       </c>
       <c r="AJ5" t="s">
-        <v>391</v>
+        <v>547</v>
       </c>
       <c r="AK5" t="s">
-        <v>391</v>
-      </c>
-      <c r="AL5" s="37"/>
-      <c r="AM5" s="46" t="s">
+        <v>547</v>
+      </c>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="AN5" s="41"/>
-    </row>
-    <row r="6" spans="1:40" s="31" customFormat="1" ht="63.75">
-      <c r="A6" s="45" t="s">
+      <c r="AN5" s="35"/>
+    </row>
+    <row customFormat="1" ht="63.75" r="6" s="25" spans="1:40">
+      <c r="A6" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="32" t="s">
+      <c r="K6" s="27"/>
+      <c r="L6" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="N6" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="O6" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="P6" s="32" t="s">
+      <c r="P6" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="Q6" s="32" t="s">
+      <c r="Q6" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32" t="s">
+      <c r="R6" s="26"/>
+      <c r="S6" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="T6" s="32" t="s">
+      <c r="T6" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="U6" s="32" t="s">
+      <c r="U6" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="V6" s="32" t="s">
+      <c r="V6" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="W6" s="32" t="s">
+      <c r="W6" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="X6" s="32" t="s">
+      <c r="X6" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="Y6" s="32" t="s">
+      <c r="Y6" s="26" t="s">
         <v>156</v>
       </c>
       <c r="Z6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA6" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>521</v>
+      </c>
+      <c r="AC6" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>522</v>
+      </c>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" t="s">
+        <v>550</v>
+      </c>
+      <c r="AH6" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>549</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>549</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>549</v>
+      </c>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN6" s="35"/>
+    </row>
+    <row customFormat="1" ht="63.75" r="7" s="25" spans="1:40">
+      <c r="A7" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="27"/>
+      <c r="L7" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="U7" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="AA6" s="32" t="s">
+      <c r="V7" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="W7" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="X7" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y7" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA7" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="AB6" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC6" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>364</v>
-      </c>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" t="s">
-        <v>394</v>
-      </c>
-      <c r="AH6" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>393</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>393</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>393</v>
-      </c>
-      <c r="AL6" s="37"/>
-      <c r="AM6" s="46" t="s">
+      <c r="AB7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC7" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" t="s">
+        <v>552</v>
+      </c>
+      <c r="AH7" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>551</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>551</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>551</v>
+      </c>
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="AN6" s="41"/>
-    </row>
-    <row r="7" spans="1:40" s="31" customFormat="1" ht="63.75">
-      <c r="A7" s="45" t="s">
+      <c r="AN7" s="35"/>
+    </row>
+    <row customFormat="1" ht="63.75" r="8" s="25" spans="1:40">
+      <c r="A8" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B8" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C8" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32" t="s">
+      <c r="D8" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="H8" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I8" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J8" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="O7" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="P7" s="32" t="s">
+      <c r="K8" s="27"/>
+      <c r="L8" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="P8" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="Q7" s="32" t="s">
+      <c r="Q8" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="T7" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="U7" s="32" t="s">
+      <c r="R8" s="28"/>
+      <c r="S8" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="U8" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="V8" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="W8" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="V7" s="32" t="s">
+      <c r="X8" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y8" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA8" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB8" t="s">
         <v>181</v>
       </c>
-      <c r="W7" s="32" t="s">
+      <c r="AC8" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="X7" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y7" s="32" t="s">
+      <c r="AD8" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE8" s="28"/>
+      <c r="AF8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>554</v>
+      </c>
+      <c r="AH8" s="30"/>
+      <c r="AI8" t="s">
+        <v>553</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>553</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>553</v>
+      </c>
+      <c r="AL8" s="31"/>
+      <c r="AM8" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN8" s="35"/>
+    </row>
+    <row customFormat="1" ht="76.5" r="9" s="25" spans="1:40">
+      <c r="A9" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="P9" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q9" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="T9" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="U9" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="V9" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="W9" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="X9" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y9" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>511</v>
+      </c>
+      <c r="AA9" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC9" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>512</v>
+      </c>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" t="s">
+        <v>556</v>
+      </c>
+      <c r="AH9" s="30"/>
+      <c r="AI9" t="s">
+        <v>555</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>555</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>555</v>
+      </c>
+      <c r="AL9" s="31"/>
+      <c r="AM9" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN9" s="35"/>
+    </row>
+    <row customFormat="1" ht="76.5" r="10" s="29" spans="1:40">
+      <c r="A10" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q10" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="T10" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="U10" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="V10" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="W10" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="X10" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y10" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA10" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC10" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" t="s">
+        <v>558</v>
+      </c>
+      <c r="AH10" s="33"/>
+      <c r="AI10" t="s">
+        <v>557</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>557</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>557</v>
+      </c>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN10" s="36"/>
+    </row>
+    <row customFormat="1" r="11" s="25" spans="1:40">
+      <c r="A11" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" t="s">
         <v>198</v>
       </c>
-      <c r="Z7" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA7" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB7" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC7" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD7" s="56" t="s">
-        <v>361</v>
-      </c>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="56" t="s">
-        <v>369</v>
-      </c>
-      <c r="AH7" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="AI7" s="56" t="s">
-        <v>368</v>
-      </c>
-      <c r="AJ7" s="56" t="s">
-        <v>368</v>
-      </c>
-      <c r="AK7" s="56" t="s">
-        <v>368</v>
-      </c>
-      <c r="AL7" s="37"/>
-      <c r="AM7" s="46" t="s">
+      <c r="AC11" s="28"/>
+      <c r="AD11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE11" s="28"/>
+      <c r="AF11" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>559</v>
+      </c>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM11" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="AN7" s="41"/>
-    </row>
-    <row r="8" spans="1:40" s="31" customFormat="1" ht="63.75">
-      <c r="A8" s="45" t="s">
+      <c r="AN11" s="35"/>
+    </row>
+    <row customFormat="1" r="12" s="25" spans="1:40">
+      <c r="A12" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B12" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="P8" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q8" s="32" t="s">
+      <c r="C12" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q12" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="T8" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="U8" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="V8" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="W8" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="X8" s="32" t="s">
+      <c r="R12" s="29"/>
+      <c r="S12" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="X12" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="Y8" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z8" s="56" t="s">
+      <c r="Z12" s="31"/>
+      <c r="AB12" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>560</v>
+      </c>
+      <c r="AH12" s="31"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="31"/>
+      <c r="AL12" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM12" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN12" s="35"/>
+    </row>
+    <row customFormat="1" r="13" s="25" spans="1:40">
+      <c r="A13" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="AA8" s="34" t="s">
+      <c r="L13" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="X13" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z13" s="31"/>
+      <c r="AB13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>561</v>
+      </c>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM13" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN13" s="35"/>
+    </row>
+    <row customFormat="1" r="14" s="25" spans="1:40">
+      <c r="A14" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="M14" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="N14" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q14" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC14" s="59"/>
+      <c r="AD14" t="s">
         <v>169</v>
       </c>
-      <c r="AB8" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC8" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD8" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="56" t="s">
+      <c r="AE14" s="59"/>
+      <c r="AF14" t="s">
         <v>158</v>
       </c>
-      <c r="AG8" s="56" t="s">
-        <v>367</v>
-      </c>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="56" t="s">
-        <v>366</v>
-      </c>
-      <c r="AJ8" s="56" t="s">
-        <v>366</v>
-      </c>
-      <c r="AK8" s="56" t="s">
-        <v>366</v>
-      </c>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="46" t="s">
+      <c r="AG14" t="s">
+        <v>562</v>
+      </c>
+      <c r="AH14" s="60"/>
+      <c r="AI14" s="60"/>
+      <c r="AJ14" s="60"/>
+      <c r="AK14" s="60"/>
+      <c r="AL14" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM14" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="AN8" s="41"/>
-    </row>
-    <row r="9" spans="1:40" s="31" customFormat="1" ht="76.5">
-      <c r="A9" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="M9" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="N9" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="O9" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="P9" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q9" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="T9" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="U9" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="V9" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="W9" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="X9" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y9" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z9" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA9" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB9" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC9" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD9" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="38"/>
-      <c r="AG9" s="56" t="s">
-        <v>371</v>
-      </c>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="56" t="s">
-        <v>370</v>
-      </c>
-      <c r="AJ9" s="56" t="s">
-        <v>370</v>
-      </c>
-      <c r="AK9" s="56" t="s">
-        <v>370</v>
-      </c>
-      <c r="AL9" s="37"/>
-      <c r="AM9" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN9" s="41"/>
-    </row>
-    <row r="10" spans="1:40" s="35" customFormat="1" ht="76.5">
-      <c r="A10" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="M10" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="N10" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="O10" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="T10" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="U10" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="V10" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="W10" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="X10" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y10" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z10" s="56" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA10" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB10" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC10" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD10" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE10" s="32"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="56" t="s">
-        <v>373</v>
-      </c>
-      <c r="AH10" s="39"/>
-      <c r="AI10" s="56" t="s">
-        <v>372</v>
-      </c>
-      <c r="AJ10" s="56" t="s">
-        <v>372</v>
-      </c>
-      <c r="AK10" s="56" t="s">
-        <v>372</v>
-      </c>
-      <c r="AL10" s="40"/>
-      <c r="AM10" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN10" s="42"/>
-    </row>
-    <row r="11" spans="1:40" s="31" customFormat="1">
-      <c r="A11" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="O11" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="P11" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q11" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG11" s="56" t="s">
-        <v>374</v>
-      </c>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="37"/>
-      <c r="AL11" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM11" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN11" s="41"/>
-    </row>
-    <row r="12" spans="1:40" s="31" customFormat="1">
-      <c r="A12" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="M12" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="N12" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="O12" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="P12" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q12" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="X12" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z12" s="37"/>
-      <c r="AB12" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD12" s="56" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF12" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG12" s="56" t="s">
-        <v>375</v>
-      </c>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="37"/>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM12" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN12" s="41"/>
-    </row>
-    <row r="13" spans="1:40" s="31" customFormat="1">
-      <c r="A13" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="M13" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="N13" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q13" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="X13" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z13" s="37"/>
-      <c r="AB13" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD13" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="AF13" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG13" s="56" t="s">
-        <v>376</v>
-      </c>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM13" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN13" s="41"/>
-    </row>
-    <row r="14" spans="1:40" s="31" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A14" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="M14" s="49" t="s">
-        <v>236</v>
-      </c>
-      <c r="N14" s="49" t="s">
-        <v>237</v>
-      </c>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q14" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE14" s="50"/>
-      <c r="AF14" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG14" s="56" t="s">
-        <v>365</v>
-      </c>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="51"/>
-      <c r="AL14" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM14" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN14" s="41"/>
+      <c r="AN14" s="35"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="57" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="59.85546875" style="57" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28" style="57" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.140625" style="57" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.140625" style="57" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="57" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="46" width="11.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="46" width="59.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="46" width="28.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="46" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="46" width="35.140625" collapsed="true"/>
+    <col min="6" max="6" style="46" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="47" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51">
-      <c r="A2" s="59" t="s">
+    <row ht="51" r="2" spans="1:6">
+      <c r="A2" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="48" t="s">
         <v>251</v>
       </c>
       <c r="D2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E2" s="59" t="s">
+        <v>541</v>
+      </c>
+      <c r="E2" s="48" t="s">
         <v>255</v>
       </c>
       <c r="F2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="89.25">
-      <c r="A3" s="59" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row ht="89.25" r="3" spans="1:6">
+      <c r="A3" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48" t="s">
         <v>258</v>
       </c>
       <c r="F3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="89.25">
-      <c r="A4" s="59" t="s">
+    <row ht="89.25" r="4" spans="1:6">
+      <c r="A4" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="48" t="s">
         <v>259</v>
       </c>
       <c r="F4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51">
-      <c r="A5" s="59" t="s">
+    <row ht="51" r="5" spans="1:6">
+      <c r="A5" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48" t="s">
         <v>260</v>
       </c>
       <c r="F5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="51">
-      <c r="A6" s="59" t="s">
+    <row ht="51" r="6" spans="1:6">
+      <c r="A6" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="48" t="s">
         <v>262</v>
       </c>
       <c r="F6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51">
-      <c r="A7" s="59" t="s">
+    <row ht="51" r="7" spans="1:6">
+      <c r="A7" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="48" t="s">
         <v>270</v>
       </c>
       <c r="F7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="63.75">
-      <c r="A8" s="59" t="s">
+    <row ht="63.75" r="8" spans="1:6">
+      <c r="A8" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="48" t="s">
         <v>271</v>
       </c>
       <c r="F8" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="51">
-      <c r="A9" s="59" t="s">
+    <row ht="51" r="9" spans="1:6">
+      <c r="A9" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59" t="s">
+      <c r="D9" s="48"/>
+      <c r="E9" s="48" t="s">
         <v>274</v>
       </c>
       <c r="F9" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="51">
-      <c r="A10" s="59" t="s">
+    <row ht="51" r="10" spans="1:6">
+      <c r="A10" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59" t="s">
+      <c r="D10" s="48"/>
+      <c r="E10" s="48" t="s">
         <v>273</v>
       </c>
       <c r="F10" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="63.75">
-      <c r="A11" s="59" t="s">
+    <row ht="63.75" r="11" spans="1:6">
+      <c r="A11" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59" t="s">
+      <c r="D11" s="48"/>
+      <c r="E11" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="F11" s="59"/>
-    </row>
-    <row r="12" spans="1:6" ht="51">
-      <c r="A12" s="59" t="s">
+      <c r="F11" s="48"/>
+    </row>
+    <row ht="51" r="12" spans="1:6">
+      <c r="A12" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59" t="s">
+      <c r="D12" s="48"/>
+      <c r="E12" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="51">
-      <c r="A13" s="59" t="s">
+    <row ht="51" r="13" spans="1:6">
+      <c r="A13" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="48" t="s">
         <v>299</v>
       </c>
       <c r="D13" t="s">
-        <v>389</v>
-      </c>
-      <c r="E13" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="E13" s="48" t="s">
         <v>300</v>
       </c>
       <c r="F13" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="102">
-      <c r="A14" s="59" t="s">
+    <row ht="102" r="14" spans="1:6">
+      <c r="A14" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="48" t="s">
         <v>325</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="48" t="s">
         <v>326</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59" t="s">
+      <c r="D14" s="48"/>
+      <c r="E14" s="48" t="s">
         <v>327</v>
       </c>
       <c r="F14" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="102">
-      <c r="A15" s="59" t="s">
+    <row ht="102" r="15" spans="1:6">
+      <c r="A15" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59" t="s">
+      <c r="D15" s="48"/>
+      <c r="E15" s="48" t="s">
         <v>330</v>
       </c>
       <c r="F15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="102">
-      <c r="A16" s="59" t="s">
+    <row ht="102" r="16" spans="1:6">
+      <c r="A16" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="48" t="s">
         <v>332</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59" t="s">
+      <c r="D16" s="48"/>
+      <c r="E16" s="48" t="s">
         <v>333</v>
       </c>
       <c r="F16" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="89.25">
-      <c r="A17" s="59" t="s">
+    <row ht="89.25" r="17" spans="1:6">
+      <c r="A17" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59" t="s">
+      <c r="D17" s="48"/>
+      <c r="E17" s="48" t="s">
         <v>304</v>
       </c>
       <c r="F17" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="89.25">
-      <c r="A18" s="59" t="s">
+    <row ht="89.25" r="18" spans="1:6">
+      <c r="A18" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="48" t="s">
         <v>307</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59" t="s">
+      <c r="D18" s="48"/>
+      <c r="E18" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="51">
-      <c r="A19" s="59" t="s">
+    <row ht="51" r="19" spans="1:6">
+      <c r="A19" s="48" t="s">
         <v>309</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="48" t="s">
         <v>310</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59" t="s">
+      <c r="D19" s="48"/>
+      <c r="E19" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="51">
-      <c r="A20" s="59" t="s">
+    <row ht="51" r="20" spans="1:6">
+      <c r="A20" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="48" t="s">
         <v>313</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59" t="s">
+      <c r="D20" s="48"/>
+      <c r="E20" s="48" t="s">
         <v>314</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="51">
-      <c r="A21" s="59" t="s">
+    <row ht="51" r="21" spans="1:6">
+      <c r="A21" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="48" t="s">
         <v>316</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59" t="s">
+      <c r="D21" s="48"/>
+      <c r="E21" s="48" t="s">
         <v>317</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="63.75">
-      <c r="A22" s="59" t="s">
+    <row ht="63.75" r="22" spans="1:6">
+      <c r="A22" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59" t="s">
+      <c r="D22" s="48"/>
+      <c r="E22" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="51">
-      <c r="A23" s="59" t="s">
+    <row ht="51" r="23" spans="1:6">
+      <c r="A23" s="48" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="48" t="s">
         <v>334</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="48" t="s">
         <v>335</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59" t="s">
+      <c r="D23" s="48"/>
+      <c r="E23" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="51">
-      <c r="A24" s="59" t="s">
+    <row ht="51" r="24" spans="1:6">
+      <c r="A24" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="48" t="s">
         <v>338</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59" t="s">
+      <c r="D24" s="48"/>
+      <c r="E24" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="F24" s="57" t="s">
+      <c r="F24" s="46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="63.75">
-      <c r="A25" s="59" t="s">
+    <row ht="63.75" r="25" spans="1:6">
+      <c r="A25" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59" t="s">
+      <c r="D25" s="48"/>
+      <c r="E25" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="F25" s="59"/>
-    </row>
-    <row r="26" spans="1:6" ht="51">
-      <c r="A26" s="59" t="s">
+      <c r="F25" s="48"/>
+    </row>
+    <row ht="51" r="26" spans="1:6">
+      <c r="A26" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="48" t="s">
         <v>340</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59" t="s">
+      <c r="D26" s="48"/>
+      <c r="E26" s="48" t="s">
         <v>341</v>
       </c>
-      <c r="F26" s="57" t="s">
+      <c r="F26" s="46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="63.75">
-      <c r="A27" s="59" t="s">
+    <row ht="63.75" r="27" spans="1:6">
+      <c r="A27" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="48" t="s">
         <v>342</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="48" t="s">
         <v>343</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59" t="s">
+      <c r="D27" s="48"/>
+      <c r="E27" s="48" t="s">
         <v>344</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="F27" s="46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="51">
-      <c r="A28" s="59" t="s">
+    <row ht="51" r="28" spans="1:6">
+      <c r="A28" s="48" t="s">
         <v>309</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59" t="s">
+      <c r="D28" s="48"/>
+      <c r="E28" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="51">
-      <c r="A29" s="59" t="s">
+    <row ht="51" r="29" spans="1:6">
+      <c r="A29" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="48" t="s">
         <v>347</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="48" t="s">
         <v>348</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59" t="s">
+      <c r="D29" s="48"/>
+      <c r="E29" s="48" t="s">
         <v>349</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="51">
-      <c r="A30" s="59" t="s">
+    <row ht="51" r="30" spans="1:6">
+      <c r="A30" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="48" t="s">
         <v>350</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59" t="s">
+      <c r="D30" s="48"/>
+      <c r="E30" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="F30" s="57" t="s">
+      <c r="F30" s="46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="63.75">
-      <c r="A31" s="59" t="s">
+    <row ht="63.75" r="31" spans="1:6">
+      <c r="A31" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="48" t="s">
         <v>353</v>
       </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59" t="s">
+      <c r="D31" s="48"/>
+      <c r="E31" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="F31" s="57" t="s">
+      <c r="F31" s="46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="76.5">
-      <c r="A32" s="59" t="s">
+    <row ht="76.5" r="32" spans="1:6">
+      <c r="A32" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59" t="s">
+      <c r="D32" s="48"/>
+      <c r="E32" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="F32" s="57" t="s">
+      <c r="F32" s="46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="76.5">
-      <c r="A33" s="59" t="s">
+    <row ht="76.5" r="33" spans="1:6">
+      <c r="A33" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59" t="s">
+      <c r="D33" s="48"/>
+      <c r="E33" s="48" t="s">
         <v>360</v>
       </c>
-      <c r="F33" s="57" t="s">
+      <c r="F33" s="46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="76.5">
-      <c r="A34" s="59" t="s">
+    <row ht="76.5" r="34" spans="1:6">
+      <c r="A34" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59" t="s">
+      <c r="D34" s="48"/>
+      <c r="E34" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="F34" s="57" t="s">
+      <c r="F34" s="46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="76.5">
-      <c r="A35" s="59" t="s">
+    <row ht="76.5" r="35" spans="1:6">
+      <c r="A35" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59" t="s">
+      <c r="D35" s="48"/>
+      <c r="E35" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="F35" s="57" t="s">
+      <c r="F35" s="46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="76.5">
-      <c r="A36" s="59" t="s">
+    <row ht="76.5" r="36" spans="1:6">
+      <c r="A36" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59" t="s">
+      <c r="D36" s="48"/>
+      <c r="E36" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="F36" s="57" t="s">
+      <c r="F36" s="46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="76.5">
-      <c r="A37" s="59" t="s">
+    <row ht="76.5" r="37" spans="1:6">
+      <c r="A37" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59" t="s">
+      <c r="D37" s="48"/>
+      <c r="E37" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="F37" s="57" t="s">
+      <c r="F37" s="46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="76.5">
-      <c r="A38" s="59" t="s">
+    <row ht="76.5" r="38" spans="1:6">
+      <c r="A38" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59" t="s">
+      <c r="D38" s="48"/>
+      <c r="E38" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="F38" s="57" t="s">
+      <c r="F38" s="46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="76.5">
-      <c r="A39" s="59" t="s">
+    <row ht="76.5" r="39" spans="1:6">
+      <c r="A39" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59" t="s">
+      <c r="D39" s="48"/>
+      <c r="E39" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="F39" s="57" t="s">
+      <c r="F39" s="46" t="s">
         <v>295</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F12 F40:F65536">
-    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="19" operator="equal" priority="19" stopIfTrue="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="18" operator="equal" priority="20" stopIfTrue="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17:F26">
-    <cfRule type="cellIs" dxfId="17" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="17" operator="equal" priority="17" stopIfTrue="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="16" operator="equal" priority="18" stopIfTrue="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F16">
-    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="15" operator="equal" priority="15" stopIfTrue="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="14" operator="equal" priority="16" stopIfTrue="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="13" operator="equal" priority="13" stopIfTrue="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="12" operator="equal" priority="14" stopIfTrue="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="11" operator="equal" priority="11" stopIfTrue="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="10" operator="equal" priority="12" stopIfTrue="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="9" operator="equal" priority="9" stopIfTrue="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="8" operator="equal" priority="10" stopIfTrue="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="7" operator="equal" priority="7" stopIfTrue="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="6" operator="equal" priority="8" stopIfTrue="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="5" operator="equal" priority="5" stopIfTrue="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="4" operator="equal" priority="6" stopIfTrue="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="3" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="2" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:F39">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="1" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="595">
   <si>
     <t>PUId</t>
   </si>
@@ -1839,6 +1839,84 @@
   </si>
   <si>
     <t>10116993</t>
+  </si>
+  <si>
+    <t>01:10</t>
+  </si>
+  <si>
+    <t>10117974</t>
+  </si>
+  <si>
+    <t>00:34</t>
+  </si>
+  <si>
+    <t>10118041</t>
+  </si>
+  <si>
+    <t>01:41</t>
+  </si>
+  <si>
+    <t>10118046</t>
+  </si>
+  <si>
+    <t>01:50</t>
+  </si>
+  <si>
+    <t>10118050</t>
+  </si>
+  <si>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t>10118059</t>
+  </si>
+  <si>
+    <t>02:10</t>
+  </si>
+  <si>
+    <t>10118070</t>
+  </si>
+  <si>
+    <t>02:20</t>
+  </si>
+  <si>
+    <t>10118077</t>
+  </si>
+  <si>
+    <t>02:27</t>
+  </si>
+  <si>
+    <t>10118081</t>
+  </si>
+  <si>
+    <t>23:41</t>
+  </si>
+  <si>
+    <t>10118088</t>
+  </si>
+  <si>
+    <t>10118108</t>
+  </si>
+  <si>
+    <t>10118129</t>
+  </si>
+  <si>
+    <t>10118152</t>
+  </si>
+  <si>
+    <t>135232141</t>
+  </si>
+  <si>
+    <t>33299948</t>
+  </si>
+  <si>
+    <t>10117869</t>
+  </si>
+  <si>
+    <t>135232152</t>
+  </si>
+  <si>
+    <t>10118173</t>
   </si>
 </sst>
 </file>
@@ -3742,16 +3820,16 @@
         <v>391</v>
       </c>
       <c r="B2" t="s">
-        <v>563</v>
+        <v>590</v>
       </c>
       <c r="C2" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="D2" t="s">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="E2" t="s">
-        <v>566</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -3998,7 +4076,7 @@
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -4013,17 +4091,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>541</v>
+        <v>572</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>540</v>
+        <v>571</v>
       </c>
       <c r="AJ2" t="s">
-        <v>540</v>
+        <v>571</v>
       </c>
       <c r="AK2" t="s">
-        <v>540</v>
+        <v>571</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -4110,7 +4188,7 @@
         <v>172</v>
       </c>
       <c r="AB3" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>173</v>
@@ -4123,17 +4201,17 @@
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>542</v>
+        <v>573</v>
       </c>
       <c r="AJ3" t="s">
-        <v>542</v>
+        <v>573</v>
       </c>
       <c r="AK3" t="s">
-        <v>542</v>
+        <v>573</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -4216,7 +4294,7 @@
         <v>182</v>
       </c>
       <c r="AB4" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="AC4" s="26" t="s">
         <v>183</v>
@@ -4229,17 +4307,17 @@
         <v>158</v>
       </c>
       <c r="AG4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AJ4" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AK4" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -4326,7 +4404,7 @@
         <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>173</v>
@@ -4339,17 +4417,17 @@
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="AJ5" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="AK5" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -4447,19 +4525,19 @@
       <c r="AE6" s="26"/>
       <c r="AF6" s="32"/>
       <c r="AG6" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="AH6" s="30" t="s">
         <v>203</v>
       </c>
       <c r="AI6" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="AJ6" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="AK6" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="AL6" s="31"/>
       <c r="AM6" s="40" t="s">
@@ -4544,7 +4622,7 @@
         <v>201</v>
       </c>
       <c r="AB7" t="s">
-        <v>201</v>
+        <v>521</v>
       </c>
       <c r="AC7" s="26" t="s">
         <v>209</v>
@@ -4555,19 +4633,19 @@
       <c r="AE7" s="26"/>
       <c r="AF7" s="32"/>
       <c r="AG7" t="s">
-        <v>552</v>
+        <v>580</v>
       </c>
       <c r="AH7" s="30" t="s">
         <v>210</v>
       </c>
       <c r="AI7" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="AJ7" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="AK7" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="AL7" s="31"/>
       <c r="AM7" s="40" t="s">
@@ -4667,17 +4745,17 @@
         <v>158</v>
       </c>
       <c r="AG8" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="AH8" s="30"/>
       <c r="AI8" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="AJ8" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="AK8" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="AL8" s="31"/>
       <c r="AM8" s="40" t="s">
@@ -4764,7 +4842,7 @@
         <v>172</v>
       </c>
       <c r="AB9" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AC9" s="28" t="s">
         <v>173</v>
@@ -4775,17 +4853,17 @@
       <c r="AE9" s="28"/>
       <c r="AF9" s="32"/>
       <c r="AG9" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="AH9" s="30"/>
       <c r="AI9" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="AJ9" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="AK9" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="AL9" s="31"/>
       <c r="AM9" s="40" t="s">
@@ -4881,17 +4959,17 @@
       <c r="AE10" s="26"/>
       <c r="AF10" s="33"/>
       <c r="AG10" t="s">
-        <v>558</v>
+        <v>586</v>
       </c>
       <c r="AH10" s="33"/>
       <c r="AI10" t="s">
-        <v>557</v>
+        <v>585</v>
       </c>
       <c r="AJ10" t="s">
-        <v>557</v>
+        <v>585</v>
       </c>
       <c r="AK10" t="s">
-        <v>557</v>
+        <v>585</v>
       </c>
       <c r="AL10" s="34"/>
       <c r="AM10" s="40" t="s">
@@ -4961,7 +5039,7 @@
         <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -5021,7 +5099,7 @@
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>560</v>
+        <v>588</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -5070,7 +5148,7 @@
       </c>
       <c r="Z13" s="31"/>
       <c r="AB13" t="s">
-        <v>153</v>
+        <v>294</v>
       </c>
       <c r="AD13" t="s">
         <v>535</v>
@@ -5079,7 +5157,7 @@
         <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>561</v>
+        <v>589</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -5153,7 +5231,7 @@
         <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -5221,7 +5299,7 @@
         <v>251</v>
       </c>
       <c r="D2" t="s">
-        <v>541</v>
+        <v>572</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>255</v>
@@ -5419,7 +5497,7 @@
         <v>299</v>
       </c>
       <c r="D13" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>300</v>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="773">
   <si>
     <t>PUId</t>
   </si>
@@ -1841,82 +1841,616 @@
     <t>10116993</t>
   </si>
   <si>
-    <t>01:10</t>
-  </si>
-  <si>
-    <t>10117974</t>
-  </si>
-  <si>
-    <t>00:34</t>
-  </si>
-  <si>
-    <t>10118041</t>
-  </si>
-  <si>
-    <t>01:41</t>
-  </si>
-  <si>
-    <t>10118046</t>
-  </si>
-  <si>
-    <t>01:50</t>
-  </si>
-  <si>
-    <t>10118050</t>
-  </si>
-  <si>
-    <t>23:00</t>
-  </si>
-  <si>
-    <t>10118059</t>
+    <t>01:51</t>
+  </si>
+  <si>
+    <t>10123623</t>
+  </si>
+  <si>
+    <t>02:57</t>
+  </si>
+  <si>
+    <t>10123641</t>
+  </si>
+  <si>
+    <t>03:08</t>
+  </si>
+  <si>
+    <t>10123659</t>
+  </si>
+  <si>
+    <t>03:15</t>
+  </si>
+  <si>
+    <t>10123660</t>
+  </si>
+  <si>
+    <t>00:26</t>
+  </si>
+  <si>
+    <t>10123662</t>
+  </si>
+  <si>
+    <t>03:37</t>
+  </si>
+  <si>
+    <t>04:31</t>
+  </si>
+  <si>
+    <t>06:19</t>
+  </si>
+  <si>
+    <t>10123765</t>
+  </si>
+  <si>
+    <t>06:33</t>
+  </si>
+  <si>
+    <t>10123772</t>
+  </si>
+  <si>
+    <t>06:40</t>
+  </si>
+  <si>
+    <t>10123774</t>
+  </si>
+  <si>
+    <t>03:51</t>
+  </si>
+  <si>
+    <t>10123780</t>
+  </si>
+  <si>
+    <t>10123794</t>
+  </si>
+  <si>
+    <t>10123803</t>
+  </si>
+  <si>
+    <t>23:59</t>
+  </si>
+  <si>
+    <t>01:03</t>
+  </si>
+  <si>
+    <t>10125831</t>
+  </si>
+  <si>
+    <t>01:12</t>
+  </si>
+  <si>
+    <t>10125833</t>
+  </si>
+  <si>
+    <t>00:32</t>
+  </si>
+  <si>
+    <t>10125902</t>
+  </si>
+  <si>
+    <t>01:38</t>
+  </si>
+  <si>
+    <t>10125904</t>
+  </si>
+  <si>
+    <t>01:55</t>
+  </si>
+  <si>
+    <t>10125915</t>
+  </si>
+  <si>
+    <t>03:25</t>
+  </si>
+  <si>
+    <t>10126069</t>
+  </si>
+  <si>
+    <t>04:33</t>
+  </si>
+  <si>
+    <t>10126070</t>
+  </si>
+  <si>
+    <t>05:04</t>
+  </si>
+  <si>
+    <t>10126106</t>
+  </si>
+  <si>
+    <t>05:20</t>
+  </si>
+  <si>
+    <t>10126116</t>
+  </si>
+  <si>
+    <t>02:41</t>
+  </si>
+  <si>
+    <t>10126128</t>
+  </si>
+  <si>
+    <t>05:51</t>
+  </si>
+  <si>
+    <t>10126129</t>
+  </si>
+  <si>
+    <t>02:59</t>
+  </si>
+  <si>
+    <t>10126133</t>
+  </si>
+  <si>
+    <t>10126144</t>
+  </si>
+  <si>
+    <t>10126150</t>
+  </si>
+  <si>
+    <t>10126155</t>
+  </si>
+  <si>
+    <t>10126161</t>
+  </si>
+  <si>
+    <t>135321216</t>
+  </si>
+  <si>
+    <t>33307814</t>
+  </si>
+  <si>
+    <t>10125718</t>
+  </si>
+  <si>
+    <t>135321227</t>
+  </si>
+  <si>
+    <t>03:33</t>
+  </si>
+  <si>
+    <t>10126975</t>
+  </si>
+  <si>
+    <t>04:40</t>
+  </si>
+  <si>
+    <t>10126981</t>
+  </si>
+  <si>
+    <t>04:24</t>
+  </si>
+  <si>
+    <t>10127012</t>
+  </si>
+  <si>
+    <t>10127021</t>
+  </si>
+  <si>
+    <t>05:43</t>
+  </si>
+  <si>
+    <t>10127028</t>
+  </si>
+  <si>
+    <t>10127029</t>
+  </si>
+  <si>
+    <t>03:03</t>
+  </si>
+  <si>
+    <t>10127039</t>
+  </si>
+  <si>
+    <t>06:14</t>
+  </si>
+  <si>
+    <t>10127053</t>
+  </si>
+  <si>
+    <t>03:22</t>
+  </si>
+  <si>
+    <t>10127059</t>
+  </si>
+  <si>
+    <t>135331686</t>
+  </si>
+  <si>
+    <t>33308743</t>
+  </si>
+  <si>
+    <t>10126641</t>
+  </si>
+  <si>
+    <t>135331697</t>
+  </si>
+  <si>
+    <t>10127126</t>
+  </si>
+  <si>
+    <t>10127135</t>
+  </si>
+  <si>
+    <t>10127145</t>
+  </si>
+  <si>
+    <t>10127183</t>
+  </si>
+  <si>
+    <t>$88.80</t>
+  </si>
+  <si>
+    <t>22:10</t>
+  </si>
+  <si>
+    <t>10127533</t>
+  </si>
+  <si>
+    <t>23:18</t>
+  </si>
+  <si>
+    <t>10127534</t>
+  </si>
+  <si>
+    <t>23:29</t>
+  </si>
+  <si>
+    <t>10127538</t>
+  </si>
+  <si>
+    <t>23:37</t>
+  </si>
+  <si>
+    <t>10127539</t>
+  </si>
+  <si>
+    <t>20:47</t>
+  </si>
+  <si>
+    <t>10127543</t>
+  </si>
+  <si>
+    <t>23:58</t>
+  </si>
+  <si>
+    <t>10127547</t>
+  </si>
+  <si>
+    <t>21:05</t>
+  </si>
+  <si>
+    <t>10127548</t>
+  </si>
+  <si>
+    <t>10127662</t>
+  </si>
+  <si>
+    <t>10127669</t>
+  </si>
+  <si>
+    <t>02:44</t>
+  </si>
+  <si>
+    <t>10129432</t>
+  </si>
+  <si>
+    <t>10129448</t>
+  </si>
+  <si>
+    <t>04:03</t>
+  </si>
+  <si>
+    <t>10129489</t>
+  </si>
+  <si>
+    <t>04:11</t>
+  </si>
+  <si>
+    <t>10129513</t>
+  </si>
+  <si>
+    <t>01:24</t>
+  </si>
+  <si>
+    <t>10129529</t>
+  </si>
+  <si>
+    <t>04:39</t>
+  </si>
+  <si>
+    <t>08:26</t>
+  </si>
+  <si>
+    <t>10130228</t>
+  </si>
+  <si>
+    <t>08:33</t>
+  </si>
+  <si>
+    <t>10130236</t>
+  </si>
+  <si>
+    <t>05:45</t>
+  </si>
+  <si>
+    <t>10130251</t>
+  </si>
+  <si>
+    <t>10130255</t>
+  </si>
+  <si>
+    <t>10131982</t>
+  </si>
+  <si>
+    <t>00:40</t>
+  </si>
+  <si>
+    <t>10131983</t>
+  </si>
+  <si>
+    <t>00:50</t>
+  </si>
+  <si>
+    <t>10131986</t>
+  </si>
+  <si>
+    <t>00:58</t>
+  </si>
+  <si>
+    <t>10131993</t>
+  </si>
+  <si>
+    <t>22:07</t>
+  </si>
+  <si>
+    <t>10132019</t>
+  </si>
+  <si>
+    <t>01:20</t>
+  </si>
+  <si>
+    <t>10132025</t>
+  </si>
+  <si>
+    <t>01:28</t>
+  </si>
+  <si>
+    <t>10132093</t>
+  </si>
+  <si>
+    <t>22:42</t>
+  </si>
+  <si>
+    <t>10132097</t>
+  </si>
+  <si>
+    <t>10132104</t>
+  </si>
+  <si>
+    <t>10132126</t>
+  </si>
+  <si>
+    <t>10132135</t>
+  </si>
+  <si>
+    <t>10132147</t>
+  </si>
+  <si>
+    <t>10132397</t>
+  </si>
+  <si>
+    <t>10132409</t>
+  </si>
+  <si>
+    <t>10132460</t>
+  </si>
+  <si>
+    <t>10132689</t>
+  </si>
+  <si>
+    <t>03:48</t>
+  </si>
+  <si>
+    <t>10133300</t>
+  </si>
+  <si>
+    <t>04:56</t>
+  </si>
+  <si>
+    <t>10133315</t>
+  </si>
+  <si>
+    <t>05:09</t>
+  </si>
+  <si>
+    <t>10133326</t>
+  </si>
+  <si>
+    <t>05:18</t>
+  </si>
+  <si>
+    <t>10133336</t>
+  </si>
+  <si>
+    <t>02:30</t>
+  </si>
+  <si>
+    <t>10133344</t>
+  </si>
+  <si>
+    <t>06:08</t>
+  </si>
+  <si>
+    <t>10133375</t>
+  </si>
+  <si>
+    <t>06:16</t>
+  </si>
+  <si>
+    <t>10133377</t>
+  </si>
+  <si>
+    <t>03:27</t>
+  </si>
+  <si>
+    <t>10133381</t>
+  </si>
+  <si>
+    <t>10133401</t>
+  </si>
+  <si>
+    <t>10133428</t>
+  </si>
+  <si>
+    <t>10133457</t>
+  </si>
+  <si>
+    <t>10133746</t>
+  </si>
+  <si>
+    <t>04:08</t>
+  </si>
+  <si>
+    <t>10134734</t>
+  </si>
+  <si>
+    <t>05:16</t>
+  </si>
+  <si>
+    <t>10134756</t>
+  </si>
+  <si>
+    <t>08:19</t>
+  </si>
+  <si>
+    <t>10135192</t>
+  </si>
+  <si>
+    <t>08:35</t>
+  </si>
+  <si>
+    <t>10135210</t>
+  </si>
+  <si>
+    <t>08:46</t>
+  </si>
+  <si>
+    <t>10135225</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>10135262</t>
+  </si>
+  <si>
+    <t>09:13</t>
+  </si>
+  <si>
+    <t>10135277</t>
+  </si>
+  <si>
+    <t>09:22</t>
+  </si>
+  <si>
+    <t>10135280</t>
+  </si>
+  <si>
+    <t>06:36</t>
+  </si>
+  <si>
+    <t>10135296</t>
+  </si>
+  <si>
+    <t>10135307</t>
+  </si>
+  <si>
+    <t>10135315</t>
+  </si>
+  <si>
+    <t>10135325</t>
+  </si>
+  <si>
+    <t>10135333</t>
+  </si>
+  <si>
+    <t>135415755</t>
+  </si>
+  <si>
+    <t>33316176</t>
+  </si>
+  <si>
+    <t>10134032</t>
+  </si>
+  <si>
+    <t>135415766</t>
+  </si>
+  <si>
+    <t>00:13</t>
+  </si>
+  <si>
+    <t>21:16</t>
+  </si>
+  <si>
+    <t>10137146</t>
+  </si>
+  <si>
+    <t>00:28</t>
+  </si>
+  <si>
+    <t>10137152</t>
+  </si>
+  <si>
+    <t>00:35</t>
+  </si>
+  <si>
+    <t>10137157</t>
+  </si>
+  <si>
+    <t>21:47</t>
+  </si>
+  <si>
+    <t>10137168</t>
+  </si>
+  <si>
+    <t>10137171</t>
+  </si>
+  <si>
+    <t>10137208</t>
+  </si>
+  <si>
+    <t>10137276</t>
+  </si>
+  <si>
+    <t>01:31</t>
+  </si>
+  <si>
+    <t>10137282</t>
+  </si>
+  <si>
+    <t>01:40</t>
+  </si>
+  <si>
+    <t>10137284</t>
+  </si>
+  <si>
+    <t>22:51</t>
+  </si>
+  <si>
+    <t>10137291</t>
+  </si>
+  <si>
+    <t>02:02</t>
+  </si>
+  <si>
+    <t>10137296</t>
   </si>
   <si>
     <t>02:10</t>
   </si>
   <si>
-    <t>10118070</t>
-  </si>
-  <si>
-    <t>02:20</t>
-  </si>
-  <si>
-    <t>10118077</t>
-  </si>
-  <si>
-    <t>02:27</t>
-  </si>
-  <si>
-    <t>10118081</t>
-  </si>
-  <si>
-    <t>23:41</t>
-  </si>
-  <si>
-    <t>10118088</t>
-  </si>
-  <si>
-    <t>10118108</t>
-  </si>
-  <si>
-    <t>10118129</t>
-  </si>
-  <si>
-    <t>10118152</t>
-  </si>
-  <si>
-    <t>135232141</t>
-  </si>
-  <si>
-    <t>33299948</t>
-  </si>
-  <si>
-    <t>10117869</t>
-  </si>
-  <si>
-    <t>135232152</t>
-  </si>
-  <si>
-    <t>10118173</t>
+    <t>10137314</t>
   </si>
 </sst>
 </file>
@@ -3820,16 +4354,16 @@
         <v>391</v>
       </c>
       <c r="B2" t="s">
-        <v>590</v>
+        <v>747</v>
       </c>
       <c r="C2" t="s">
-        <v>591</v>
+        <v>748</v>
       </c>
       <c r="D2" t="s">
-        <v>592</v>
+        <v>749</v>
       </c>
       <c r="E2" t="s">
-        <v>593</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -4076,7 +4610,7 @@
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -4091,17 +4625,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>572</v>
+        <v>761</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>571</v>
+        <v>751</v>
       </c>
       <c r="AJ2" t="s">
-        <v>571</v>
+        <v>751</v>
       </c>
       <c r="AK2" t="s">
-        <v>571</v>
+        <v>751</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -4201,17 +4735,17 @@
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>574</v>
+        <v>762</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>573</v>
+        <v>691</v>
       </c>
       <c r="AJ3" t="s">
-        <v>573</v>
+        <v>691</v>
       </c>
       <c r="AK3" t="s">
-        <v>573</v>
+        <v>691</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -4307,17 +4841,17 @@
         <v>158</v>
       </c>
       <c r="AG4" t="s">
-        <v>570</v>
+        <v>764</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>569</v>
+        <v>763</v>
       </c>
       <c r="AJ4" t="s">
-        <v>569</v>
+        <v>763</v>
       </c>
       <c r="AK4" t="s">
-        <v>569</v>
+        <v>763</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -4404,7 +4938,7 @@
         <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>173</v>
@@ -4417,17 +4951,17 @@
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>576</v>
+        <v>766</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>575</v>
+        <v>765</v>
       </c>
       <c r="AJ5" t="s">
-        <v>575</v>
+        <v>765</v>
       </c>
       <c r="AK5" t="s">
-        <v>575</v>
+        <v>765</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -4525,19 +5059,19 @@
       <c r="AE6" s="26"/>
       <c r="AF6" s="32"/>
       <c r="AG6" t="s">
-        <v>578</v>
+        <v>768</v>
       </c>
       <c r="AH6" s="30" t="s">
         <v>203</v>
       </c>
       <c r="AI6" t="s">
-        <v>577</v>
+        <v>767</v>
       </c>
       <c r="AJ6" t="s">
-        <v>577</v>
+        <v>767</v>
       </c>
       <c r="AK6" t="s">
-        <v>577</v>
+        <v>767</v>
       </c>
       <c r="AL6" s="31"/>
       <c r="AM6" s="40" t="s">
@@ -4622,7 +5156,7 @@
         <v>201</v>
       </c>
       <c r="AB7" t="s">
-        <v>521</v>
+        <v>201</v>
       </c>
       <c r="AC7" s="26" t="s">
         <v>209</v>
@@ -4633,19 +5167,19 @@
       <c r="AE7" s="26"/>
       <c r="AF7" s="32"/>
       <c r="AG7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="AH7" s="30" t="s">
         <v>210</v>
       </c>
       <c r="AI7" t="s">
-        <v>579</v>
+        <v>674</v>
       </c>
       <c r="AJ7" t="s">
-        <v>579</v>
+        <v>674</v>
       </c>
       <c r="AK7" t="s">
-        <v>579</v>
+        <v>674</v>
       </c>
       <c r="AL7" s="31"/>
       <c r="AM7" s="40" t="s">
@@ -4745,17 +5279,17 @@
         <v>158</v>
       </c>
       <c r="AG8" t="s">
-        <v>582</v>
+        <v>770</v>
       </c>
       <c r="AH8" s="30"/>
       <c r="AI8" t="s">
-        <v>581</v>
+        <v>769</v>
       </c>
       <c r="AJ8" t="s">
-        <v>581</v>
+        <v>769</v>
       </c>
       <c r="AK8" t="s">
-        <v>581</v>
+        <v>769</v>
       </c>
       <c r="AL8" s="31"/>
       <c r="AM8" s="40" t="s">
@@ -4853,17 +5387,17 @@
       <c r="AE9" s="28"/>
       <c r="AF9" s="32"/>
       <c r="AG9" t="s">
-        <v>584</v>
+        <v>772</v>
       </c>
       <c r="AH9" s="30"/>
       <c r="AI9" t="s">
-        <v>583</v>
+        <v>771</v>
       </c>
       <c r="AJ9" t="s">
-        <v>583</v>
+        <v>771</v>
       </c>
       <c r="AK9" t="s">
-        <v>583</v>
+        <v>771</v>
       </c>
       <c r="AL9" s="31"/>
       <c r="AM9" s="40" t="s">
@@ -4948,7 +5482,7 @@
         <v>169</v>
       </c>
       <c r="AB10" t="s">
-        <v>153</v>
+        <v>531</v>
       </c>
       <c r="AC10" s="26" t="s">
         <v>156</v>
@@ -4959,17 +5493,17 @@
       <c r="AE10" s="26"/>
       <c r="AF10" s="33"/>
       <c r="AG10" t="s">
-        <v>586</v>
+        <v>759</v>
       </c>
       <c r="AH10" s="33"/>
       <c r="AI10" t="s">
-        <v>585</v>
+        <v>758</v>
       </c>
       <c r="AJ10" t="s">
-        <v>585</v>
+        <v>758</v>
       </c>
       <c r="AK10" t="s">
-        <v>585</v>
+        <v>758</v>
       </c>
       <c r="AL10" s="34"/>
       <c r="AM10" s="40" t="s">
@@ -5039,7 +5573,7 @@
         <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>587</v>
+        <v>760</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -5099,7 +5633,7 @@
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>588</v>
+        <v>744</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -5148,7 +5682,7 @@
       </c>
       <c r="Z13" s="31"/>
       <c r="AB13" t="s">
-        <v>294</v>
+        <v>153</v>
       </c>
       <c r="AD13" t="s">
         <v>535</v>
@@ -5157,7 +5691,7 @@
         <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>589</v>
+        <v>745</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -5231,7 +5765,7 @@
         <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>594</v>
+        <v>746</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -5299,7 +5833,7 @@
         <v>251</v>
       </c>
       <c r="D2" t="s">
-        <v>572</v>
+        <v>761</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>255</v>
@@ -5497,7 +6031,7 @@
         <v>299</v>
       </c>
       <c r="D13" t="s">
-        <v>574</v>
+        <v>762</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>300</v>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="515">
   <si>
     <t>PUId</t>
   </si>
@@ -1634,823 +1634,49 @@
     <t>1746968</t>
   </si>
   <si>
-    <t>07:09</t>
-  </si>
-  <si>
-    <t>10115200</t>
+    <t>09:20</t>
+  </si>
+  <si>
+    <t>01:40</t>
+  </si>
+  <si>
+    <t>10121464</t>
   </si>
   <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>11:24</t>
-  </si>
-  <si>
-    <t>10115540</t>
-  </si>
-  <si>
-    <t>10116109</t>
-  </si>
-  <si>
-    <t>07:29</t>
-  </si>
-  <si>
-    <t>10116142</t>
-  </si>
-  <si>
-    <t>07:40</t>
-  </si>
-  <si>
-    <t>10116372</t>
-  </si>
-  <si>
-    <t>08:45</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>1107</t>
-  </si>
-  <si>
-    <t>10116375</t>
-  </si>
-  <si>
-    <t>08:54</t>
-  </si>
-  <si>
-    <t>64</t>
+    <t>01:49</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>10121473</t>
+  </si>
+  <si>
+    <t>00:39</t>
+  </si>
+  <si>
+    <t>10122323</t>
+  </si>
+  <si>
+    <t>01:50</t>
+  </si>
+  <si>
+    <t>10122396</t>
+  </si>
+  <si>
+    <t>02:57</t>
+  </si>
+  <si>
+    <t>67</t>
   </si>
   <si>
     <t>785</t>
   </si>
   <si>
-    <t>10116378</t>
-  </si>
-  <si>
-    <t>10116422</t>
-  </si>
-  <si>
-    <t>10116430</t>
-  </si>
-  <si>
-    <t>07:30</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>10116435</t>
-  </si>
-  <si>
-    <t>10:41</t>
-  </si>
-  <si>
-    <t>10116438</t>
-  </si>
-  <si>
-    <t>10:51</t>
-  </si>
-  <si>
-    <t>10116442</t>
-  </si>
-  <si>
-    <t>10:57</t>
-  </si>
-  <si>
-    <t>10116446</t>
-  </si>
-  <si>
-    <t>08:07</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>10116448</t>
-  </si>
-  <si>
-    <t>10116449</t>
-  </si>
-  <si>
-    <t>10116451</t>
-  </si>
-  <si>
-    <t>1578</t>
-  </si>
-  <si>
-    <t>10116453</t>
-  </si>
-  <si>
-    <t>10116454</t>
-  </si>
-  <si>
-    <t>02:21</t>
-  </si>
-  <si>
-    <t>10116856</t>
-  </si>
-  <si>
-    <t>02:34</t>
-  </si>
-  <si>
-    <t>10116867</t>
-  </si>
-  <si>
-    <t>03:41</t>
-  </si>
-  <si>
-    <t>10116871</t>
-  </si>
-  <si>
-    <t>03:52</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>10116878</t>
-  </si>
-  <si>
-    <t>04:16</t>
-  </si>
-  <si>
-    <t>10116895</t>
-  </si>
-  <si>
-    <t>01:27</t>
-  </si>
-  <si>
-    <t>10116904</t>
-  </si>
-  <si>
-    <t>04:37</t>
-  </si>
-  <si>
-    <t>10116905</t>
-  </si>
-  <si>
-    <t>04:47</t>
-  </si>
-  <si>
-    <t>10116908</t>
-  </si>
-  <si>
-    <t>04:55</t>
-  </si>
-  <si>
-    <t>10116924</t>
-  </si>
-  <si>
-    <t>02:06</t>
-  </si>
-  <si>
-    <t>10116929</t>
-  </si>
-  <si>
-    <t>10116932</t>
-  </si>
-  <si>
-    <t>10116939</t>
-  </si>
-  <si>
-    <t>10116945</t>
-  </si>
-  <si>
-    <t>10116952</t>
-  </si>
-  <si>
-    <t>135215449</t>
-  </si>
-  <si>
-    <t>33298649</t>
-  </si>
-  <si>
-    <t>10116570</t>
-  </si>
-  <si>
-    <t>135215450</t>
-  </si>
-  <si>
-    <t>06:51</t>
-  </si>
-  <si>
-    <t>10116993</t>
-  </si>
-  <si>
-    <t>01:51</t>
-  </si>
-  <si>
-    <t>10123623</t>
-  </si>
-  <si>
-    <t>02:57</t>
-  </si>
-  <si>
-    <t>10123641</t>
-  </si>
-  <si>
-    <t>03:08</t>
-  </si>
-  <si>
-    <t>10123659</t>
-  </si>
-  <si>
-    <t>03:15</t>
-  </si>
-  <si>
-    <t>10123660</t>
-  </si>
-  <si>
-    <t>00:26</t>
-  </si>
-  <si>
-    <t>10123662</t>
-  </si>
-  <si>
-    <t>03:37</t>
-  </si>
-  <si>
-    <t>04:31</t>
-  </si>
-  <si>
-    <t>06:19</t>
-  </si>
-  <si>
-    <t>10123765</t>
-  </si>
-  <si>
-    <t>06:33</t>
-  </si>
-  <si>
-    <t>10123772</t>
-  </si>
-  <si>
-    <t>06:40</t>
-  </si>
-  <si>
-    <t>10123774</t>
-  </si>
-  <si>
-    <t>03:51</t>
-  </si>
-  <si>
-    <t>10123780</t>
-  </si>
-  <si>
-    <t>10123794</t>
-  </si>
-  <si>
-    <t>10123803</t>
-  </si>
-  <si>
-    <t>23:59</t>
-  </si>
-  <si>
-    <t>01:03</t>
-  </si>
-  <si>
-    <t>10125831</t>
-  </si>
-  <si>
-    <t>01:12</t>
-  </si>
-  <si>
-    <t>10125833</t>
-  </si>
-  <si>
-    <t>00:32</t>
-  </si>
-  <si>
-    <t>10125902</t>
-  </si>
-  <si>
-    <t>01:38</t>
-  </si>
-  <si>
-    <t>10125904</t>
-  </si>
-  <si>
-    <t>01:55</t>
-  </si>
-  <si>
-    <t>10125915</t>
-  </si>
-  <si>
-    <t>03:25</t>
-  </si>
-  <si>
-    <t>10126069</t>
-  </si>
-  <si>
-    <t>04:33</t>
-  </si>
-  <si>
-    <t>10126070</t>
-  </si>
-  <si>
-    <t>05:04</t>
-  </si>
-  <si>
-    <t>10126106</t>
-  </si>
-  <si>
-    <t>05:20</t>
-  </si>
-  <si>
-    <t>10126116</t>
-  </si>
-  <si>
-    <t>02:41</t>
-  </si>
-  <si>
-    <t>10126128</t>
-  </si>
-  <si>
-    <t>05:51</t>
-  </si>
-  <si>
-    <t>10126129</t>
-  </si>
-  <si>
-    <t>02:59</t>
-  </si>
-  <si>
-    <t>10126133</t>
-  </si>
-  <si>
-    <t>10126144</t>
-  </si>
-  <si>
-    <t>10126150</t>
-  </si>
-  <si>
-    <t>10126155</t>
-  </si>
-  <si>
-    <t>10126161</t>
-  </si>
-  <si>
-    <t>135321216</t>
-  </si>
-  <si>
-    <t>33307814</t>
-  </si>
-  <si>
-    <t>10125718</t>
-  </si>
-  <si>
-    <t>135321227</t>
-  </si>
-  <si>
-    <t>03:33</t>
-  </si>
-  <si>
-    <t>10126975</t>
-  </si>
-  <si>
-    <t>04:40</t>
-  </si>
-  <si>
-    <t>10126981</t>
-  </si>
-  <si>
-    <t>04:24</t>
-  </si>
-  <si>
-    <t>10127012</t>
-  </si>
-  <si>
-    <t>10127021</t>
-  </si>
-  <si>
-    <t>05:43</t>
-  </si>
-  <si>
-    <t>10127028</t>
-  </si>
-  <si>
-    <t>10127029</t>
-  </si>
-  <si>
-    <t>03:03</t>
-  </si>
-  <si>
-    <t>10127039</t>
-  </si>
-  <si>
-    <t>06:14</t>
-  </si>
-  <si>
-    <t>10127053</t>
-  </si>
-  <si>
-    <t>03:22</t>
-  </si>
-  <si>
-    <t>10127059</t>
-  </si>
-  <si>
-    <t>135331686</t>
-  </si>
-  <si>
-    <t>33308743</t>
-  </si>
-  <si>
-    <t>10126641</t>
-  </si>
-  <si>
-    <t>135331697</t>
-  </si>
-  <si>
-    <t>10127126</t>
-  </si>
-  <si>
-    <t>10127135</t>
-  </si>
-  <si>
-    <t>10127145</t>
-  </si>
-  <si>
-    <t>10127183</t>
-  </si>
-  <si>
-    <t>$88.80</t>
-  </si>
-  <si>
-    <t>22:10</t>
-  </si>
-  <si>
-    <t>10127533</t>
-  </si>
-  <si>
-    <t>23:18</t>
-  </si>
-  <si>
-    <t>10127534</t>
-  </si>
-  <si>
-    <t>23:29</t>
-  </si>
-  <si>
-    <t>10127538</t>
-  </si>
-  <si>
-    <t>23:37</t>
-  </si>
-  <si>
-    <t>10127539</t>
-  </si>
-  <si>
-    <t>20:47</t>
-  </si>
-  <si>
-    <t>10127543</t>
-  </si>
-  <si>
-    <t>23:58</t>
-  </si>
-  <si>
-    <t>10127547</t>
-  </si>
-  <si>
-    <t>21:05</t>
-  </si>
-  <si>
-    <t>10127548</t>
-  </si>
-  <si>
-    <t>10127662</t>
-  </si>
-  <si>
-    <t>10127669</t>
-  </si>
-  <si>
-    <t>02:44</t>
-  </si>
-  <si>
-    <t>10129432</t>
-  </si>
-  <si>
-    <t>10129448</t>
-  </si>
-  <si>
-    <t>04:03</t>
-  </si>
-  <si>
-    <t>10129489</t>
-  </si>
-  <si>
-    <t>04:11</t>
-  </si>
-  <si>
-    <t>10129513</t>
-  </si>
-  <si>
-    <t>01:24</t>
-  </si>
-  <si>
-    <t>10129529</t>
-  </si>
-  <si>
-    <t>04:39</t>
-  </si>
-  <si>
-    <t>08:26</t>
-  </si>
-  <si>
-    <t>10130228</t>
-  </si>
-  <si>
-    <t>08:33</t>
-  </si>
-  <si>
-    <t>10130236</t>
-  </si>
-  <si>
-    <t>05:45</t>
-  </si>
-  <si>
-    <t>10130251</t>
-  </si>
-  <si>
-    <t>10130255</t>
-  </si>
-  <si>
-    <t>10131982</t>
-  </si>
-  <si>
-    <t>00:40</t>
-  </si>
-  <si>
-    <t>10131983</t>
-  </si>
-  <si>
-    <t>00:50</t>
-  </si>
-  <si>
-    <t>10131986</t>
-  </si>
-  <si>
-    <t>00:58</t>
-  </si>
-  <si>
-    <t>10131993</t>
-  </si>
-  <si>
-    <t>22:07</t>
-  </si>
-  <si>
-    <t>10132019</t>
-  </si>
-  <si>
-    <t>01:20</t>
-  </si>
-  <si>
-    <t>10132025</t>
-  </si>
-  <si>
-    <t>01:28</t>
-  </si>
-  <si>
-    <t>10132093</t>
-  </si>
-  <si>
-    <t>22:42</t>
-  </si>
-  <si>
-    <t>10132097</t>
-  </si>
-  <si>
-    <t>10132104</t>
-  </si>
-  <si>
-    <t>10132126</t>
-  </si>
-  <si>
-    <t>10132135</t>
-  </si>
-  <si>
-    <t>10132147</t>
-  </si>
-  <si>
-    <t>10132397</t>
-  </si>
-  <si>
-    <t>10132409</t>
-  </si>
-  <si>
-    <t>10132460</t>
-  </si>
-  <si>
-    <t>10132689</t>
-  </si>
-  <si>
-    <t>03:48</t>
-  </si>
-  <si>
-    <t>10133300</t>
-  </si>
-  <si>
-    <t>04:56</t>
-  </si>
-  <si>
-    <t>10133315</t>
-  </si>
-  <si>
-    <t>05:09</t>
-  </si>
-  <si>
-    <t>10133326</t>
-  </si>
-  <si>
-    <t>05:18</t>
-  </si>
-  <si>
-    <t>10133336</t>
-  </si>
-  <si>
-    <t>02:30</t>
-  </si>
-  <si>
-    <t>10133344</t>
-  </si>
-  <si>
-    <t>06:08</t>
-  </si>
-  <si>
-    <t>10133375</t>
-  </si>
-  <si>
-    <t>06:16</t>
-  </si>
-  <si>
-    <t>10133377</t>
-  </si>
-  <si>
-    <t>03:27</t>
-  </si>
-  <si>
-    <t>10133381</t>
-  </si>
-  <si>
-    <t>10133401</t>
-  </si>
-  <si>
-    <t>10133428</t>
-  </si>
-  <si>
-    <t>10133457</t>
-  </si>
-  <si>
-    <t>10133746</t>
-  </si>
-  <si>
-    <t>04:08</t>
-  </si>
-  <si>
-    <t>10134734</t>
-  </si>
-  <si>
-    <t>05:16</t>
-  </si>
-  <si>
-    <t>10134756</t>
-  </si>
-  <si>
-    <t>08:19</t>
-  </si>
-  <si>
-    <t>10135192</t>
-  </si>
-  <si>
-    <t>08:35</t>
-  </si>
-  <si>
-    <t>10135210</t>
-  </si>
-  <si>
-    <t>08:46</t>
-  </si>
-  <si>
-    <t>10135225</t>
-  </si>
-  <si>
-    <t>06:00</t>
-  </si>
-  <si>
-    <t>10135262</t>
-  </si>
-  <si>
-    <t>09:13</t>
-  </si>
-  <si>
-    <t>10135277</t>
-  </si>
-  <si>
-    <t>09:22</t>
-  </si>
-  <si>
-    <t>10135280</t>
-  </si>
-  <si>
-    <t>06:36</t>
-  </si>
-  <si>
-    <t>10135296</t>
-  </si>
-  <si>
-    <t>10135307</t>
-  </si>
-  <si>
-    <t>10135315</t>
-  </si>
-  <si>
-    <t>10135325</t>
-  </si>
-  <si>
-    <t>10135333</t>
-  </si>
-  <si>
-    <t>135415755</t>
-  </si>
-  <si>
-    <t>33316176</t>
-  </si>
-  <si>
-    <t>10134032</t>
-  </si>
-  <si>
-    <t>135415766</t>
-  </si>
-  <si>
-    <t>00:13</t>
-  </si>
-  <si>
-    <t>21:16</t>
-  </si>
-  <si>
-    <t>10137146</t>
-  </si>
-  <si>
-    <t>00:28</t>
-  </si>
-  <si>
-    <t>10137152</t>
-  </si>
-  <si>
-    <t>00:35</t>
-  </si>
-  <si>
-    <t>10137157</t>
-  </si>
-  <si>
-    <t>21:47</t>
-  </si>
-  <si>
-    <t>10137168</t>
-  </si>
-  <si>
-    <t>10137171</t>
-  </si>
-  <si>
-    <t>10137208</t>
-  </si>
-  <si>
-    <t>10137276</t>
-  </si>
-  <si>
-    <t>01:31</t>
-  </si>
-  <si>
-    <t>10137282</t>
-  </si>
-  <si>
-    <t>01:40</t>
-  </si>
-  <si>
-    <t>10137284</t>
-  </si>
-  <si>
-    <t>22:51</t>
-  </si>
-  <si>
-    <t>10137291</t>
-  </si>
-  <si>
-    <t>02:02</t>
-  </si>
-  <si>
-    <t>10137296</t>
-  </si>
-  <si>
-    <t>02:10</t>
-  </si>
-  <si>
-    <t>10137314</t>
+    <t>10122411</t>
   </si>
 </sst>
 </file>
@@ -4354,16 +3580,16 @@
         <v>391</v>
       </c>
       <c r="B2" t="s">
-        <v>747</v>
+        <v>494</v>
       </c>
       <c r="C2" t="s">
-        <v>748</v>
+        <v>495</v>
       </c>
       <c r="D2" t="s">
-        <v>749</v>
+        <v>496</v>
       </c>
       <c r="E2" t="s">
-        <v>750</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -4622,20 +3848,20 @@
         <v>157</v>
       </c>
       <c r="AF2" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AG2" t="s">
-        <v>761</v>
+        <v>510</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>751</v>
+        <v>509</v>
       </c>
       <c r="AJ2" t="s">
-        <v>751</v>
+        <v>509</v>
       </c>
       <c r="AK2" t="s">
-        <v>751</v>
+        <v>509</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -4715,37 +3941,37 @@
       <c r="Y3" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="Z3" t="s">
-        <v>511</v>
+      <c r="Z3" s="45" t="s">
+        <v>153</v>
       </c>
       <c r="AA3" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="AB3" t="s">
-        <v>151</v>
+      <c r="AB3" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="AD3" t="s">
-        <v>512</v>
+      <c r="AD3" s="45" t="s">
+        <v>173</v>
       </c>
       <c r="AE3" s="26"/>
-      <c r="AF3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>762</v>
+      <c r="AF3" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG3" s="45" t="s">
+        <v>375</v>
       </c>
       <c r="AH3" s="30"/>
-      <c r="AI3" t="s">
-        <v>691</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>691</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>691</v>
+      <c r="AI3" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="AJ3" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="AK3" s="45" t="s">
+        <v>374</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -4828,30 +4054,30 @@
         <v>182</v>
       </c>
       <c r="AB4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AC4" s="26" t="s">
         <v>183</v>
       </c>
       <c r="AD4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AE4" s="26"/>
       <c r="AF4" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AG4" t="s">
-        <v>764</v>
+        <v>514</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>763</v>
+        <v>511</v>
       </c>
       <c r="AJ4" t="s">
-        <v>763</v>
+        <v>511</v>
       </c>
       <c r="AK4" t="s">
-        <v>763</v>
+        <v>511</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -4931,37 +4157,37 @@
       <c r="Y5" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="Z5" t="s">
-        <v>511</v>
+      <c r="Z5" s="45" t="s">
+        <v>153</v>
       </c>
       <c r="AA5" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="AB5" t="s">
-        <v>171</v>
+      <c r="AB5" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="AD5" t="s">
-        <v>512</v>
+      <c r="AD5" s="45" t="s">
+        <v>173</v>
       </c>
       <c r="AE5" s="26"/>
-      <c r="AF5" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>766</v>
+      <c r="AF5" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG5" s="45" t="s">
+        <v>377</v>
       </c>
       <c r="AH5" s="30"/>
-      <c r="AI5" t="s">
-        <v>765</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>765</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>765</v>
+      <c r="AI5" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="AJ5" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="AK5" s="45" t="s">
+        <v>376</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -5041,37 +4267,37 @@
       <c r="Y6" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="Z6" t="s">
-        <v>156</v>
+      <c r="Z6" s="45" t="s">
+        <v>181</v>
       </c>
       <c r="AA6" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="AB6" t="s">
-        <v>521</v>
+      <c r="AB6" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="AC6" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="AD6" t="s">
-        <v>522</v>
+      <c r="AD6" s="45" t="s">
+        <v>202</v>
       </c>
       <c r="AE6" s="26"/>
       <c r="AF6" s="32"/>
-      <c r="AG6" t="s">
-        <v>768</v>
+      <c r="AG6" s="45" t="s">
+        <v>383</v>
       </c>
       <c r="AH6" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="AI6" t="s">
-        <v>767</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>767</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>767</v>
+      <c r="AI6" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="AJ6" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK6" s="45" t="s">
+        <v>382</v>
       </c>
       <c r="AL6" s="31"/>
       <c r="AM6" s="40" t="s">
@@ -5149,37 +4375,37 @@
       <c r="Y7" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="Z7" s="45" t="s">
         <v>171</v>
       </c>
       <c r="AA7" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="AB7" t="s">
-        <v>201</v>
+      <c r="AB7" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="AC7" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD7" s="45" t="s">
         <v>361</v>
       </c>
       <c r="AE7" s="26"/>
       <c r="AF7" s="32"/>
-      <c r="AG7" t="s">
-        <v>582</v>
+      <c r="AG7" s="45" t="s">
+        <v>387</v>
       </c>
       <c r="AH7" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="AI7" t="s">
-        <v>674</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>674</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>674</v>
+      <c r="AI7" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="AJ7" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK7" s="45" t="s">
+        <v>386</v>
       </c>
       <c r="AL7" s="31"/>
       <c r="AM7" s="40" t="s">
@@ -5259,37 +4485,37 @@
       <c r="Y8" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Z8" s="45" t="s">
         <v>232</v>
       </c>
       <c r="AA8" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="AB8" t="s">
-        <v>181</v>
+      <c r="AB8" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="AC8" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AD8" s="45" t="s">
         <v>172</v>
       </c>
       <c r="AE8" s="28"/>
-      <c r="AF8" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>770</v>
+      <c r="AF8" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG8" s="45" t="s">
+        <v>381</v>
       </c>
       <c r="AH8" s="30"/>
-      <c r="AI8" t="s">
-        <v>769</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>769</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>769</v>
+      <c r="AI8" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="AJ8" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="AK8" s="45" t="s">
+        <v>380</v>
       </c>
       <c r="AL8" s="31"/>
       <c r="AM8" s="40" t="s">
@@ -5369,35 +4595,35 @@
       <c r="Y9" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="Z9" t="s">
-        <v>511</v>
+      <c r="Z9" s="45" t="s">
+        <v>153</v>
       </c>
       <c r="AA9" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AB9" s="45" t="s">
         <v>151</v>
       </c>
       <c r="AC9" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="AD9" t="s">
-        <v>512</v>
+      <c r="AD9" s="45" t="s">
+        <v>173</v>
       </c>
       <c r="AE9" s="28"/>
       <c r="AF9" s="32"/>
-      <c r="AG9" t="s">
-        <v>772</v>
+      <c r="AG9" s="45" t="s">
+        <v>384</v>
       </c>
       <c r="AH9" s="30"/>
-      <c r="AI9" t="s">
-        <v>771</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>771</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>771</v>
+      <c r="AI9" s="45" t="s">
+        <v>385</v>
+      </c>
+      <c r="AJ9" s="45" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK9" s="45" t="s">
+        <v>385</v>
       </c>
       <c r="AL9" s="31"/>
       <c r="AM9" s="40" t="s">
@@ -5475,35 +4701,35 @@
       <c r="Y10" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="Z10" t="s">
-        <v>531</v>
+      <c r="Z10" s="45" t="s">
+        <v>232</v>
       </c>
       <c r="AA10" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="AB10" t="s">
-        <v>531</v>
+      <c r="AB10" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="AC10" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AD10" s="45" t="s">
         <v>156</v>
       </c>
       <c r="AE10" s="26"/>
       <c r="AF10" s="33"/>
-      <c r="AG10" t="s">
-        <v>759</v>
+      <c r="AG10" s="45" t="s">
+        <v>364</v>
       </c>
       <c r="AH10" s="33"/>
-      <c r="AI10" t="s">
-        <v>758</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>758</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>758</v>
+      <c r="AI10" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="AJ10" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK10" s="45" t="s">
+        <v>363</v>
       </c>
       <c r="AL10" s="34"/>
       <c r="AM10" s="40" t="s">
@@ -5561,19 +4787,19 @@
       <c r="Y11" s="28"/>
       <c r="Z11" s="30"/>
       <c r="AA11" s="28"/>
-      <c r="AB11" t="s">
-        <v>198</v>
+      <c r="AB11" s="45" t="s">
+        <v>171</v>
       </c>
       <c r="AC11" s="28"/>
-      <c r="AD11" t="s">
+      <c r="AD11" s="45" t="s">
         <v>169</v>
       </c>
       <c r="AE11" s="28"/>
-      <c r="AF11" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>760</v>
+      <c r="AF11" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG11" s="45" t="s">
+        <v>389</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -5630,10 +4856,10 @@
         <v>362</v>
       </c>
       <c r="AF12" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AG12" t="s">
-        <v>744</v>
+        <v>498</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -5681,17 +4907,17 @@
         <v>152</v>
       </c>
       <c r="Z13" s="31"/>
-      <c r="AB13" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>535</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>745</v>
+      <c r="AB13" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD13" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF13" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG13" s="45" t="s">
+        <v>390</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -5753,19 +4979,19 @@
       <c r="Y14" s="59"/>
       <c r="Z14" s="60"/>
       <c r="AA14" s="59"/>
-      <c r="AB14" t="s">
-        <v>198</v>
+      <c r="AB14" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="AC14" s="59"/>
-      <c r="AD14" t="s">
+      <c r="AD14" s="45" t="s">
         <v>169</v>
       </c>
       <c r="AE14" s="59"/>
-      <c r="AF14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>746</v>
+      <c r="AF14" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG14" s="45" t="s">
+        <v>388</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -5833,7 +5059,7 @@
         <v>251</v>
       </c>
       <c r="D2" t="s">
-        <v>761</v>
+        <v>510</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>255</v>
@@ -6030,14 +5256,14 @@
       <c r="C13" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D13" t="s">
-        <v>762</v>
+      <c r="D13" s="46" t="s">
+        <v>375</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>300</v>
       </c>
       <c r="F13" t="s">
-        <v>295</v>
+        <v>503</v>
       </c>
     </row>
     <row ht="102" r="14" spans="1:6">
@@ -6055,7 +5281,7 @@
         <v>327</v>
       </c>
       <c r="F14" t="s">
-        <v>295</v>
+        <v>503</v>
       </c>
     </row>
     <row ht="102" r="15" spans="1:6">
@@ -6073,7 +5299,7 @@
         <v>330</v>
       </c>
       <c r="F15" t="s">
-        <v>295</v>
+        <v>503</v>
       </c>
     </row>
     <row ht="102" r="16" spans="1:6">
@@ -6091,7 +5317,7 @@
         <v>333</v>
       </c>
       <c r="F16" t="s">
-        <v>295</v>
+        <v>503</v>
       </c>
     </row>
     <row ht="89.25" r="17" spans="1:6">
@@ -6108,7 +5334,7 @@
       <c r="E17" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="46" t="s">
         <v>295</v>
       </c>
     </row>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="550">
   <si>
     <t>PUId</t>
   </si>
@@ -1677,6 +1677,111 @@
   </si>
   <si>
     <t>10122411</t>
+  </si>
+  <si>
+    <t>00:57</t>
+  </si>
+  <si>
+    <t>10145478</t>
+  </si>
+  <si>
+    <t>02:04</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>10145481</t>
+  </si>
+  <si>
+    <t>02:16</t>
+  </si>
+  <si>
+    <t>02:24</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>10145511</t>
+  </si>
+  <si>
+    <t>02:32</t>
+  </si>
+  <si>
+    <t>10145522</t>
+  </si>
+  <si>
+    <t>23:44</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>10145535</t>
+  </si>
+  <si>
+    <t>02:54</t>
+  </si>
+  <si>
+    <t>03:33</t>
+  </si>
+  <si>
+    <t>10145618</t>
+  </si>
+  <si>
+    <t>03:39</t>
+  </si>
+  <si>
+    <t>10145623</t>
+  </si>
+  <si>
+    <t>00:52</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>10145636</t>
+  </si>
+  <si>
+    <t>10145652</t>
+  </si>
+  <si>
+    <t>10145704</t>
+  </si>
+  <si>
+    <t>10145737</t>
+  </si>
+  <si>
+    <t>10145766</t>
+  </si>
+  <si>
+    <t>10145778</t>
+  </si>
+  <si>
+    <t>10145799</t>
+  </si>
+  <si>
+    <t>10145824</t>
+  </si>
+  <si>
+    <t>1578</t>
+  </si>
+  <si>
+    <t>10145856</t>
+  </si>
+  <si>
+    <t>10145880</t>
+  </si>
+  <si>
+    <t>135539105</t>
   </si>
 </sst>
 </file>
@@ -2663,7 +2768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AP4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
       <selection activeCell="V12" sqref="V12"/>
@@ -3184,7 +3289,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I2"/>
@@ -3262,7 +3367,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -3390,7 +3495,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
@@ -3506,7 +3611,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
@@ -3543,7 +3648,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3580,7 +3685,7 @@
         <v>391</v>
       </c>
       <c r="B2" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="C2" t="s">
         <v>495</v>
@@ -3600,7 +3705,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AN14"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD15"/>
@@ -3848,20 +3953,20 @@
         <v>157</v>
       </c>
       <c r="AF2" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="AJ2" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="AK2" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -3941,37 +4046,37 @@
       <c r="Y3" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="Z3" s="45" t="s">
-        <v>153</v>
+      <c r="Z3" t="s">
+        <v>518</v>
       </c>
       <c r="AA3" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="AB3" s="45" t="s">
-        <v>184</v>
+      <c r="AB3" t="s">
+        <v>171</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="AD3" s="45" t="s">
-        <v>173</v>
+      <c r="AD3" t="s">
+        <v>519</v>
       </c>
       <c r="AE3" s="26"/>
-      <c r="AF3" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG3" s="45" t="s">
-        <v>375</v>
+      <c r="AF3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>520</v>
       </c>
       <c r="AH3" s="30"/>
-      <c r="AI3" s="45" t="s">
-        <v>374</v>
-      </c>
-      <c r="AJ3" s="45" t="s">
-        <v>374</v>
-      </c>
-      <c r="AK3" s="45" t="s">
-        <v>374</v>
+      <c r="AI3" t="s">
+        <v>517</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>517</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>517</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -4054,7 +4159,7 @@
         <v>182</v>
       </c>
       <c r="AB4" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="AC4" s="26" t="s">
         <v>183</v>
@@ -4064,20 +4169,20 @@
       </c>
       <c r="AE4" s="26"/>
       <c r="AF4" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="AG4" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="AJ4" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="AK4" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -4157,37 +4262,37 @@
       <c r="Y5" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="Z5" s="45" t="s">
-        <v>153</v>
+      <c r="Z5" t="s">
+        <v>518</v>
       </c>
       <c r="AA5" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="AB5" s="45" t="s">
-        <v>184</v>
+      <c r="AB5" t="s">
+        <v>171</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="AD5" s="45" t="s">
-        <v>173</v>
+      <c r="AD5" t="s">
+        <v>519</v>
       </c>
       <c r="AE5" s="26"/>
-      <c r="AF5" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG5" s="45" t="s">
-        <v>377</v>
+      <c r="AF5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>526</v>
       </c>
       <c r="AH5" s="30"/>
-      <c r="AI5" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="AJ5" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="AK5" s="45" t="s">
-        <v>376</v>
+      <c r="AI5" t="s">
+        <v>525</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>525</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>525</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -4267,37 +4372,37 @@
       <c r="Y6" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="Z6" s="45" t="s">
-        <v>181</v>
+      <c r="Z6" t="s">
+        <v>156</v>
       </c>
       <c r="AA6" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="AB6" s="45" t="s">
-        <v>184</v>
+      <c r="AB6" t="s">
+        <v>528</v>
       </c>
       <c r="AC6" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="AD6" s="45" t="s">
-        <v>202</v>
+      <c r="AD6" t="s">
+        <v>529</v>
       </c>
       <c r="AE6" s="26"/>
       <c r="AF6" s="32"/>
-      <c r="AG6" s="45" t="s">
-        <v>383</v>
+      <c r="AG6" t="s">
+        <v>530</v>
       </c>
       <c r="AH6" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="AI6" s="45" t="s">
-        <v>382</v>
-      </c>
-      <c r="AJ6" s="45" t="s">
-        <v>382</v>
-      </c>
-      <c r="AK6" s="45" t="s">
-        <v>382</v>
+      <c r="AI6" t="s">
+        <v>527</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>527</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>527</v>
       </c>
       <c r="AL6" s="31"/>
       <c r="AM6" s="40" t="s">
@@ -4375,19 +4480,19 @@
       <c r="Y7" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="Z7" s="45" t="s">
+      <c r="Z7" t="s">
         <v>171</v>
       </c>
       <c r="AA7" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="AB7" s="45" t="s">
-        <v>184</v>
+      <c r="AB7" t="s">
+        <v>528</v>
       </c>
       <c r="AC7" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="AD7" s="45" t="s">
+      <c r="AD7" t="s">
         <v>361</v>
       </c>
       <c r="AE7" s="26"/>
@@ -4398,14 +4503,14 @@
       <c r="AH7" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="AI7" s="45" t="s">
-        <v>386</v>
-      </c>
-      <c r="AJ7" s="45" t="s">
-        <v>386</v>
-      </c>
-      <c r="AK7" s="45" t="s">
-        <v>386</v>
+      <c r="AI7" t="s">
+        <v>531</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>531</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>531</v>
       </c>
       <c r="AL7" s="31"/>
       <c r="AM7" s="40" t="s">
@@ -4485,37 +4590,37 @@
       <c r="Y8" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="Z8" s="45" t="s">
+      <c r="Z8" t="s">
         <v>232</v>
       </c>
       <c r="AA8" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="AB8" s="45" t="s">
-        <v>184</v>
+      <c r="AB8" t="s">
+        <v>181</v>
       </c>
       <c r="AC8" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="AD8" s="45" t="s">
+      <c r="AD8" t="s">
         <v>172</v>
       </c>
       <c r="AE8" s="28"/>
-      <c r="AF8" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG8" s="45" t="s">
-        <v>381</v>
+      <c r="AF8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>533</v>
       </c>
       <c r="AH8" s="30"/>
-      <c r="AI8" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="AJ8" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="AK8" s="45" t="s">
-        <v>380</v>
+      <c r="AI8" t="s">
+        <v>532</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>532</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>532</v>
       </c>
       <c r="AL8" s="31"/>
       <c r="AM8" s="40" t="s">
@@ -4595,35 +4700,35 @@
       <c r="Y9" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="Z9" s="45" t="s">
-        <v>153</v>
+      <c r="Z9" t="s">
+        <v>518</v>
       </c>
       <c r="AA9" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="AB9" s="45" t="s">
-        <v>151</v>
+      <c r="AB9" t="s">
+        <v>184</v>
       </c>
       <c r="AC9" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="AD9" s="45" t="s">
-        <v>173</v>
+      <c r="AD9" t="s">
+        <v>519</v>
       </c>
       <c r="AE9" s="28"/>
       <c r="AF9" s="32"/>
-      <c r="AG9" s="45" t="s">
-        <v>384</v>
+      <c r="AG9" t="s">
+        <v>535</v>
       </c>
       <c r="AH9" s="30"/>
-      <c r="AI9" s="45" t="s">
-        <v>385</v>
-      </c>
-      <c r="AJ9" s="45" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK9" s="45" t="s">
-        <v>385</v>
+      <c r="AI9" t="s">
+        <v>534</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>534</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>534</v>
       </c>
       <c r="AL9" s="31"/>
       <c r="AM9" s="40" t="s">
@@ -4701,35 +4806,35 @@
       <c r="Y10" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="Z10" s="45" t="s">
-        <v>232</v>
+      <c r="Z10" t="s">
+        <v>537</v>
       </c>
       <c r="AA10" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="AB10" s="45" t="s">
-        <v>184</v>
+      <c r="AB10" t="s">
+        <v>537</v>
       </c>
       <c r="AC10" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD10" s="45" t="s">
+      <c r="AD10" t="s">
         <v>156</v>
       </c>
       <c r="AE10" s="26"/>
       <c r="AF10" s="33"/>
-      <c r="AG10" s="45" t="s">
-        <v>364</v>
+      <c r="AG10" t="s">
+        <v>538</v>
       </c>
       <c r="AH10" s="33"/>
-      <c r="AI10" s="45" t="s">
-        <v>363</v>
-      </c>
-      <c r="AJ10" s="45" t="s">
-        <v>363</v>
-      </c>
-      <c r="AK10" s="45" t="s">
-        <v>363</v>
+      <c r="AI10" t="s">
+        <v>536</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>536</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>536</v>
       </c>
       <c r="AL10" s="34"/>
       <c r="AM10" s="40" t="s">
@@ -4787,19 +4892,19 @@
       <c r="Y11" s="28"/>
       <c r="Z11" s="30"/>
       <c r="AA11" s="28"/>
-      <c r="AB11" s="45" t="s">
-        <v>171</v>
+      <c r="AB11" t="s">
+        <v>198</v>
       </c>
       <c r="AC11" s="28"/>
-      <c r="AD11" s="45" t="s">
+      <c r="AD11" t="s">
         <v>169</v>
       </c>
       <c r="AE11" s="28"/>
-      <c r="AF11" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG11" s="45" t="s">
-        <v>389</v>
+      <c r="AF11" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>542</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -4859,7 +4964,7 @@
         <v>184</v>
       </c>
       <c r="AG12" t="s">
-        <v>498</v>
+        <v>545</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -4907,17 +5012,17 @@
         <v>152</v>
       </c>
       <c r="Z13" s="31"/>
-      <c r="AB13" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD13" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="AF13" s="45" t="s">
+      <c r="AB13" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>546</v>
+      </c>
+      <c r="AF13" t="s">
         <v>184</v>
       </c>
-      <c r="AG13" s="45" t="s">
-        <v>390</v>
+      <c r="AG13" t="s">
+        <v>547</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -4979,19 +5084,19 @@
       <c r="Y14" s="59"/>
       <c r="Z14" s="60"/>
       <c r="AA14" s="59"/>
-      <c r="AB14" s="45" t="s">
+      <c r="AB14" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC14" s="59"/>
+      <c r="AD14" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE14" s="59"/>
+      <c r="AF14" t="s">
         <v>184</v>
       </c>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG14" s="45" t="s">
-        <v>388</v>
+      <c r="AG14" t="s">
+        <v>548</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -5012,7 +5117,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
@@ -5059,7 +5164,7 @@
         <v>251</v>
       </c>
       <c r="D2" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>255</v>
@@ -5256,14 +5361,14 @@
       <c r="C13" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D13" s="46" t="s">
-        <v>375</v>
+      <c r="D13" t="s">
+        <v>520</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>300</v>
       </c>
       <c r="F13" t="s">
-        <v>503</v>
+        <v>295</v>
       </c>
     </row>
     <row ht="102" r="14" spans="1:6">
@@ -5281,7 +5386,7 @@
         <v>327</v>
       </c>
       <c r="F14" t="s">
-        <v>503</v>
+        <v>295</v>
       </c>
     </row>
     <row ht="102" r="15" spans="1:6">
@@ -5299,7 +5404,7 @@
         <v>330</v>
       </c>
       <c r="F15" t="s">
-        <v>503</v>
+        <v>295</v>
       </c>
     </row>
     <row ht="102" r="16" spans="1:6">
@@ -5317,7 +5422,7 @@
         <v>333</v>
       </c>
       <c r="F16" t="s">
-        <v>503</v>
+        <v>295</v>
       </c>
     </row>
     <row ht="89.25" r="17" spans="1:6">
@@ -5334,7 +5439,7 @@
       <c r="E17" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" t="s">
         <v>295</v>
       </c>
     </row>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Local\NetAgent\NetAgent\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Local\NetAgentOrderProcessing\NAOrderProcessing\NetAgent\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView tabRatio="748" windowHeight="5895" windowWidth="10230" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10230" windowHeight="5895" tabRatio="748" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="TaskLog" r:id="rId2" sheetId="2"/>
-    <sheet name="OrderProcessing" r:id="rId3" sheetId="3"/>
-    <sheet name="OrderSearch" r:id="rId4" sheetId="4"/>
-    <sheet name="AgentConsole" r:id="rId5" sheetId="5"/>
-    <sheet name="RTE" r:id="rId6" sheetId="8"/>
-    <sheet name="OrderCreation" r:id="rId7" sheetId="6"/>
-    <sheet name="TC_OrderProcess" r:id="rId8" sheetId="7"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TaskLog" sheetId="2" r:id="rId2"/>
+    <sheet name="OrderProcessing" sheetId="3" r:id="rId3"/>
+    <sheet name="OrderSearch" sheetId="4" r:id="rId4"/>
+    <sheet name="AgentConsole" sheetId="5" r:id="rId5"/>
+    <sheet name="RTE" sheetId="8" r:id="rId6"/>
+    <sheet name="OrderCreation" sheetId="6" r:id="rId7"/>
+    <sheet name="TC_OrderProcess" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="810">
   <si>
     <t>PUId</t>
   </si>
@@ -757,12 +757,6 @@
   </si>
   <si>
     <t>CPU</t>
-  </si>
-  <si>
-    <t>1581</t>
-  </si>
-  <si>
-    <t>779</t>
   </si>
   <si>
     <t>selenium.automation</t>
@@ -1223,565 +1217,1351 @@
     <t>7</t>
   </si>
   <si>
+    <t>RT00002143</t>
+  </si>
+  <si>
+    <t>RouteWorkID</t>
+  </si>
+  <si>
+    <t>RW TrackingNO</t>
+  </si>
+  <si>
+    <t>RWID</t>
+  </si>
+  <si>
+    <t>RTrackingNo</t>
+  </si>
+  <si>
+    <t>PUID</t>
+  </si>
+  <si>
+    <t>BOLNo</t>
+  </si>
+  <si>
+    <t>RT00004875</t>
+  </si>
+  <si>
+    <t>1746968</t>
+  </si>
+  <si>
+    <t>785</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1578</t>
+  </si>
+  <si>
+    <t>10161577</t>
+  </si>
+  <si>
+    <t>135714311</t>
+  </si>
+  <si>
+    <t>33343450</t>
+  </si>
+  <si>
+    <t>10161183</t>
+  </si>
+  <si>
+    <t>135714322</t>
+  </si>
+  <si>
+    <t>07:48</t>
+  </si>
+  <si>
+    <t>10162212</t>
+  </si>
+  <si>
+    <t>08:55</t>
+  </si>
+  <si>
+    <t>10162218</t>
+  </si>
+  <si>
+    <t>09:08</t>
+  </si>
+  <si>
+    <t>09:12</t>
+  </si>
+  <si>
+    <t>10162255</t>
+  </si>
+  <si>
+    <t>06:24</t>
+  </si>
+  <si>
+    <t>10162280</t>
+  </si>
+  <si>
+    <t>09:46</t>
+  </si>
+  <si>
+    <t>10162303</t>
+  </si>
+  <si>
+    <t>09:56</t>
+  </si>
+  <si>
+    <t>10162308</t>
+  </si>
+  <si>
+    <t>10:03</t>
+  </si>
+  <si>
+    <t>10162317</t>
+  </si>
+  <si>
+    <t>07:15</t>
+  </si>
+  <si>
+    <t>10162335</t>
+  </si>
+  <si>
+    <t>10162343</t>
+  </si>
+  <si>
+    <t>10162358</t>
+  </si>
+  <si>
+    <t>10162364</t>
+  </si>
+  <si>
+    <t>10162381</t>
+  </si>
+  <si>
+    <t>135732722</t>
+  </si>
+  <si>
+    <t>33345163</t>
+  </si>
+  <si>
+    <t>10162888</t>
+  </si>
+  <si>
+    <t>135732733</t>
+  </si>
+  <si>
+    <t>10163600</t>
+  </si>
+  <si>
+    <t>07:24</t>
+  </si>
+  <si>
+    <t>10163605</t>
+  </si>
+  <si>
+    <t>07:37</t>
+  </si>
+  <si>
+    <t>07:41</t>
+  </si>
+  <si>
+    <t>10163622</t>
+  </si>
+  <si>
+    <t>04:53</t>
+  </si>
+  <si>
+    <t>10163632</t>
+  </si>
+  <si>
+    <t>08:02</t>
+  </si>
+  <si>
+    <t>10163666</t>
+  </si>
+  <si>
+    <t>08:13</t>
+  </si>
+  <si>
+    <t>10163687</t>
+  </si>
+  <si>
+    <t>08:19</t>
+  </si>
+  <si>
+    <t>10163693</t>
+  </si>
+  <si>
+    <t>05:31</t>
+  </si>
+  <si>
+    <t>10163711</t>
+  </si>
+  <si>
+    <t>10163724</t>
+  </si>
+  <si>
+    <t>10163730</t>
+  </si>
+  <si>
+    <t>10163742</t>
+  </si>
+  <si>
+    <t>10163776</t>
+  </si>
+  <si>
+    <t>10169323</t>
+  </si>
+  <si>
+    <t>00:55</t>
+  </si>
+  <si>
+    <t>10169330</t>
+  </si>
+  <si>
+    <t>01:06</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>01:11</t>
+  </si>
+  <si>
+    <t>10169372</t>
+  </si>
+  <si>
+    <t>22:22</t>
+  </si>
+  <si>
+    <t>10169438</t>
+  </si>
+  <si>
+    <t>01:26</t>
+  </si>
+  <si>
+    <t>22:31</t>
+  </si>
+  <si>
+    <t>10169441</t>
+  </si>
+  <si>
+    <t>10169445</t>
+  </si>
+  <si>
+    <t>10169452</t>
+  </si>
+  <si>
+    <t>135803419</t>
+  </si>
+  <si>
+    <t>33351598</t>
+  </si>
+  <si>
+    <t>10169299</t>
+  </si>
+  <si>
+    <t>135803420</t>
+  </si>
+  <si>
+    <t>02:20</t>
+  </si>
+  <si>
+    <t>09:24</t>
+  </si>
+  <si>
+    <t>09:28</t>
+  </si>
+  <si>
+    <t>10170224</t>
+  </si>
+  <si>
+    <t>06:43</t>
+  </si>
+  <si>
+    <t>10170243</t>
+  </si>
+  <si>
+    <t>09:53</t>
+  </si>
+  <si>
+    <t>10170250</t>
+  </si>
+  <si>
+    <t>10:05</t>
+  </si>
+  <si>
+    <t>10170261</t>
+  </si>
+  <si>
+    <t>10:11</t>
+  </si>
+  <si>
+    <t>10170267</t>
+  </si>
+  <si>
+    <t>07:23</t>
+  </si>
+  <si>
+    <t>10170278</t>
+  </si>
+  <si>
+    <t>10170283</t>
+  </si>
+  <si>
+    <t>10170294</t>
+  </si>
+  <si>
+    <t>10172298</t>
+  </si>
+  <si>
+    <t>00:36</t>
+  </si>
+  <si>
+    <t>10172305</t>
+  </si>
+  <si>
+    <t>00:48</t>
+  </si>
+  <si>
+    <t>10172316</t>
+  </si>
+  <si>
+    <t>00:56</t>
+  </si>
+  <si>
+    <t>10172322</t>
+  </si>
+  <si>
+    <t>22:07</t>
+  </si>
+  <si>
+    <t>10172354</t>
+  </si>
+  <si>
+    <t>01:17</t>
+  </si>
+  <si>
+    <t>10172359</t>
+  </si>
+  <si>
+    <t>01:27</t>
+  </si>
+  <si>
+    <t>10172422</t>
+  </si>
+  <si>
+    <t>01:32</t>
+  </si>
+  <si>
+    <t>10172425</t>
+  </si>
+  <si>
+    <t>22:43</t>
+  </si>
+  <si>
+    <t>10172436</t>
+  </si>
+  <si>
+    <t>10172438</t>
+  </si>
+  <si>
+    <t>10172445</t>
+  </si>
+  <si>
+    <t>10172452</t>
+  </si>
+  <si>
+    <t>10172465</t>
+  </si>
+  <si>
+    <t>135835933</t>
+  </si>
+  <si>
+    <t>33354581</t>
+  </si>
+  <si>
+    <t>10172276</t>
+  </si>
+  <si>
+    <t>135835944</t>
+  </si>
+  <si>
+    <t>10175169</t>
+  </si>
+  <si>
+    <t>03:27</t>
+  </si>
+  <si>
+    <t>10175172</t>
+  </si>
+  <si>
+    <t>03:39</t>
+  </si>
+  <si>
+    <t>10175179</t>
+  </si>
+  <si>
+    <t>03:46</t>
+  </si>
+  <si>
+    <t>10175180</t>
+  </si>
+  <si>
+    <t>00:59</t>
+  </si>
+  <si>
+    <t>10175196</t>
+  </si>
+  <si>
+    <t>04:09</t>
+  </si>
+  <si>
+    <t>10175201</t>
+  </si>
+  <si>
+    <t>04:22</t>
+  </si>
+  <si>
+    <t>10175211</t>
+  </si>
+  <si>
+    <t>04:28</t>
+  </si>
+  <si>
+    <t>10175212</t>
+  </si>
+  <si>
+    <t>01:41</t>
+  </si>
+  <si>
+    <t>10175213</t>
+  </si>
+  <si>
+    <t>10175218</t>
+  </si>
+  <si>
+    <t>10175227</t>
+  </si>
+  <si>
+    <t>10175244</t>
+  </si>
+  <si>
+    <t>10175249</t>
+  </si>
+  <si>
+    <t>135866748</t>
+  </si>
+  <si>
+    <t>33357209</t>
+  </si>
+  <si>
+    <t>10174898</t>
+  </si>
+  <si>
+    <t>135866759</t>
+  </si>
+  <si>
+    <t>01:12</t>
+  </si>
+  <si>
+    <t>10178279</t>
+  </si>
+  <si>
+    <t>02:19</t>
+  </si>
+  <si>
+    <t>10178287</t>
+  </si>
+  <si>
+    <t>02:32</t>
+  </si>
+  <si>
+    <t>10178295</t>
+  </si>
+  <si>
     <t>02:40</t>
   </si>
   <si>
-    <t>10091686</t>
-  </si>
-  <si>
-    <t>RT00002143</t>
-  </si>
-  <si>
-    <t>RouteWorkID</t>
-  </si>
-  <si>
-    <t>RW TrackingNO</t>
-  </si>
-  <si>
-    <t>RWID</t>
-  </si>
-  <si>
-    <t>RTrackingNo</t>
-  </si>
-  <si>
-    <t>PUID</t>
-  </si>
-  <si>
-    <t>BOLNo</t>
-  </si>
-  <si>
-    <t>03:50</t>
-  </si>
-  <si>
-    <t>10101158</t>
-  </si>
-  <si>
-    <t>05:07</t>
-  </si>
-  <si>
-    <t>10101223</t>
-  </si>
-  <si>
-    <t>05:31</t>
-  </si>
-  <si>
-    <t>10101311</t>
-  </si>
-  <si>
-    <t>05:54</t>
-  </si>
-  <si>
-    <t>10101322</t>
-  </si>
-  <si>
-    <t>06:12</t>
-  </si>
-  <si>
-    <t>10101361</t>
-  </si>
-  <si>
-    <t>03:28</t>
-  </si>
-  <si>
-    <t>10101370</t>
-  </si>
-  <si>
-    <t>10101415</t>
-  </si>
-  <si>
-    <t>07:14</t>
-  </si>
-  <si>
-    <t>07:17</t>
-  </si>
-  <si>
-    <t>10101459</t>
-  </si>
-  <si>
-    <t>10101506</t>
-  </si>
-  <si>
-    <t>10101583</t>
-  </si>
-  <si>
-    <t>10101639</t>
-  </si>
-  <si>
-    <t>RT00004875</t>
-  </si>
-  <si>
-    <t>134958161</t>
-  </si>
-  <si>
-    <t>33276260</t>
-  </si>
-  <si>
-    <t>10094236</t>
-  </si>
-  <si>
-    <t>134958172</t>
-  </si>
-  <si>
-    <t>10094615</t>
-  </si>
-  <si>
-    <t>1746554</t>
-  </si>
-  <si>
-    <t>1746570</t>
-  </si>
-  <si>
-    <t>134967604</t>
-  </si>
-  <si>
-    <t>33277015</t>
-  </si>
-  <si>
-    <t>10094982</t>
-  </si>
-  <si>
-    <t>134967615</t>
-  </si>
-  <si>
-    <t>10095056</t>
-  </si>
-  <si>
-    <t>1746574</t>
-  </si>
-  <si>
-    <t>1746575</t>
-  </si>
-  <si>
-    <t>1746576</t>
-  </si>
-  <si>
-    <t>1746577</t>
-  </si>
-  <si>
-    <t>1746620</t>
-  </si>
-  <si>
-    <t>134994282</t>
-  </si>
-  <si>
-    <t>33279444</t>
-  </si>
-  <si>
-    <t>10097411</t>
-  </si>
-  <si>
-    <t>134994293</t>
-  </si>
-  <si>
-    <t>10097619</t>
-  </si>
-  <si>
-    <t>1746622</t>
-  </si>
-  <si>
-    <t>1746623</t>
-  </si>
-  <si>
-    <t>1746624</t>
-  </si>
-  <si>
-    <t>1746625</t>
-  </si>
-  <si>
-    <t>1746626</t>
-  </si>
-  <si>
-    <t>1746628</t>
-  </si>
-  <si>
-    <t>10097677</t>
-  </si>
-  <si>
-    <t>1746631</t>
-  </si>
-  <si>
-    <t>1746632</t>
-  </si>
-  <si>
-    <t>1746633</t>
-  </si>
-  <si>
-    <t>1746634</t>
-  </si>
-  <si>
-    <t>1746635</t>
-  </si>
-  <si>
-    <t>1746672</t>
-  </si>
-  <si>
-    <t>135014114</t>
-  </si>
-  <si>
-    <t>33281155</t>
-  </si>
-  <si>
-    <t>10099122</t>
-  </si>
-  <si>
-    <t>135014125</t>
-  </si>
-  <si>
-    <t>10099277</t>
-  </si>
-  <si>
-    <t>1746675</t>
-  </si>
-  <si>
-    <t>1746676</t>
-  </si>
-  <si>
-    <t>1746677</t>
-  </si>
-  <si>
-    <t>1746678</t>
-  </si>
-  <si>
-    <t>1746679</t>
-  </si>
-  <si>
-    <t>1746704</t>
-  </si>
-  <si>
-    <t>135022926</t>
-  </si>
-  <si>
-    <t>33281848</t>
-  </si>
-  <si>
-    <t>10099815</t>
-  </si>
-  <si>
-    <t>135022937</t>
-  </si>
-  <si>
-    <t>10099893</t>
-  </si>
-  <si>
-    <t>1746709</t>
-  </si>
-  <si>
-    <t>1746710</t>
-  </si>
-  <si>
-    <t>1746711</t>
-  </si>
-  <si>
-    <t>1746712</t>
-  </si>
-  <si>
-    <t>1746713</t>
-  </si>
-  <si>
-    <t>1746766</t>
-  </si>
-  <si>
-    <t>135058150</t>
-  </si>
-  <si>
-    <t>33284785</t>
-  </si>
-  <si>
-    <t>10102752</t>
-  </si>
-  <si>
-    <t>135058161</t>
-  </si>
-  <si>
-    <t>10103298</t>
-  </si>
-  <si>
-    <t>1746769</t>
-  </si>
-  <si>
-    <t>1746770</t>
-  </si>
-  <si>
-    <t>1746771</t>
-  </si>
-  <si>
-    <t>1746772</t>
-  </si>
-  <si>
-    <t>1746773</t>
-  </si>
-  <si>
-    <t>1746798</t>
-  </si>
-  <si>
-    <t>135069723</t>
-  </si>
-  <si>
-    <t>33285942</t>
-  </si>
-  <si>
-    <t>10103897</t>
-  </si>
-  <si>
-    <t>135069734</t>
-  </si>
-  <si>
-    <t>10104242</t>
-  </si>
-  <si>
-    <t>1746801</t>
-  </si>
-  <si>
-    <t>1746807</t>
-  </si>
-  <si>
-    <t>1746808</t>
-  </si>
-  <si>
-    <t>1746809</t>
-  </si>
-  <si>
-    <t>1746810</t>
-  </si>
-  <si>
-    <t>1746811</t>
-  </si>
-  <si>
-    <t>1746828</t>
-  </si>
-  <si>
-    <t>135080940</t>
-  </si>
-  <si>
-    <t>33286924</t>
-  </si>
-  <si>
-    <t>10104879</t>
-  </si>
-  <si>
-    <t>135080951</t>
-  </si>
-  <si>
-    <t>10105077</t>
-  </si>
-  <si>
-    <t>1746838</t>
-  </si>
-  <si>
-    <t>1746839</t>
-  </si>
-  <si>
-    <t>1746840</t>
-  </si>
-  <si>
-    <t>1746841</t>
-  </si>
-  <si>
-    <t>1746842</t>
-  </si>
-  <si>
-    <t>1746909</t>
-  </si>
-  <si>
-    <t>135099357</t>
-  </si>
-  <si>
-    <t>33288374</t>
-  </si>
-  <si>
-    <t>10106317</t>
-  </si>
-  <si>
-    <t>135099368</t>
-  </si>
-  <si>
-    <t>10106538</t>
-  </si>
-  <si>
-    <t>1746913</t>
-  </si>
-  <si>
-    <t>1746914</t>
-  </si>
-  <si>
-    <t>1746915</t>
-  </si>
-  <si>
-    <t>1746916</t>
-  </si>
-  <si>
-    <t>1746917</t>
-  </si>
-  <si>
-    <t>1746965</t>
-  </si>
-  <si>
-    <t>135126710</t>
-  </si>
-  <si>
-    <t>33290879</t>
-  </si>
-  <si>
-    <t>10108816</t>
-  </si>
-  <si>
-    <t>135126721</t>
-  </si>
-  <si>
-    <t>10109130</t>
-  </si>
-  <si>
-    <t>1746968</t>
-  </si>
-  <si>
-    <t>09:20</t>
-  </si>
-  <si>
-    <t>01:40</t>
-  </si>
-  <si>
-    <t>10121464</t>
+    <t>10178302</t>
+  </si>
+  <si>
+    <t>23:55</t>
+  </si>
+  <si>
+    <t>10178324</t>
+  </si>
+  <si>
+    <t>03:08</t>
+  </si>
+  <si>
+    <t>10178360</t>
+  </si>
+  <si>
+    <t>03:24</t>
+  </si>
+  <si>
+    <t>10178363</t>
+  </si>
+  <si>
+    <t>03:32</t>
+  </si>
+  <si>
+    <t>10178366</t>
+  </si>
+  <si>
+    <t>00:49</t>
+  </si>
+  <si>
+    <t>10178381</t>
+  </si>
+  <si>
+    <t>10178385</t>
+  </si>
+  <si>
+    <t>10178393</t>
+  </si>
+  <si>
+    <t>1586</t>
+  </si>
+  <si>
+    <t>10178404</t>
+  </si>
+  <si>
+    <t>10178415</t>
+  </si>
+  <si>
+    <t>135901256</t>
+  </si>
+  <si>
+    <t>33360453</t>
+  </si>
+  <si>
+    <t>10178136</t>
+  </si>
+  <si>
+    <t>135901267</t>
+  </si>
+  <si>
+    <t>10179515</t>
+  </si>
+  <si>
+    <t>00:27</t>
+  </si>
+  <si>
+    <t>10179518</t>
+  </si>
+  <si>
+    <t>00:40</t>
+  </si>
+  <si>
+    <t>00:44</t>
+  </si>
+  <si>
+    <t>10179525</t>
+  </si>
+  <si>
+    <t>21:56</t>
+  </si>
+  <si>
+    <t>10179543</t>
+  </si>
+  <si>
+    <t>01:25</t>
+  </si>
+  <si>
+    <t>10179836</t>
+  </si>
+  <si>
+    <t>10179847</t>
+  </si>
+  <si>
+    <t>10179855</t>
+  </si>
+  <si>
+    <t>1582</t>
+  </si>
+  <si>
+    <t>10179859</t>
+  </si>
+  <si>
+    <t>10179873</t>
+  </si>
+  <si>
+    <t>135916274</t>
+  </si>
+  <si>
+    <t>33361818</t>
+  </si>
+  <si>
+    <t>10179497</t>
+  </si>
+  <si>
+    <t>135916285</t>
+  </si>
+  <si>
+    <t>10180917</t>
+  </si>
+  <si>
+    <t>23:54</t>
+  </si>
+  <si>
+    <t>10180923</t>
+  </si>
+  <si>
+    <t>00:09</t>
+  </si>
+  <si>
+    <t>00:13</t>
+  </si>
+  <si>
+    <t>10180955</t>
+  </si>
+  <si>
+    <t>21:27</t>
+  </si>
+  <si>
+    <t>10180961</t>
+  </si>
+  <si>
+    <t>00:41</t>
+  </si>
+  <si>
+    <t>10180978</t>
+  </si>
+  <si>
+    <t>10180990</t>
+  </si>
+  <si>
+    <t>01:05</t>
+  </si>
+  <si>
+    <t>22:11</t>
+  </si>
+  <si>
+    <t>10181088</t>
+  </si>
+  <si>
+    <t>10181425</t>
+  </si>
+  <si>
+    <t>06:27</t>
+  </si>
+  <si>
+    <t>10181430</t>
+  </si>
+  <si>
+    <t>06:39</t>
+  </si>
+  <si>
+    <t>10181458</t>
+  </si>
+  <si>
+    <t>03:55</t>
+  </si>
+  <si>
+    <t>10181478</t>
+  </si>
+  <si>
+    <t>07:03</t>
+  </si>
+  <si>
+    <t>10181496</t>
+  </si>
+  <si>
+    <t>07:13</t>
+  </si>
+  <si>
+    <t>10181512</t>
+  </si>
+  <si>
+    <t>07:19</t>
+  </si>
+  <si>
+    <t>10181518</t>
+  </si>
+  <si>
+    <t>04:31</t>
+  </si>
+  <si>
+    <t>10181533</t>
+  </si>
+  <si>
+    <t>10181540</t>
+  </si>
+  <si>
+    <t>10181552</t>
+  </si>
+  <si>
+    <t>10181692</t>
+  </si>
+  <si>
+    <t>10181696</t>
+  </si>
+  <si>
+    <t>10181703</t>
+  </si>
+  <si>
+    <t>135932153</t>
+  </si>
+  <si>
+    <t>33363265</t>
+  </si>
+  <si>
+    <t>10180944</t>
+  </si>
+  <si>
+    <t>135932164</t>
+  </si>
+  <si>
+    <t>02:41</t>
+  </si>
+  <si>
+    <t>10182530</t>
+  </si>
+  <si>
+    <t>02:52</t>
+  </si>
+  <si>
+    <t>10182546</t>
+  </si>
+  <si>
+    <t>02:29</t>
+  </si>
+  <si>
+    <t>10182598</t>
+  </si>
+  <si>
+    <t>03:36</t>
+  </si>
+  <si>
+    <t>10182609</t>
+  </si>
+  <si>
+    <t>03:51</t>
+  </si>
+  <si>
+    <t>10182618</t>
+  </si>
+  <si>
+    <t>04:00</t>
+  </si>
+  <si>
+    <t>10182630</t>
+  </si>
+  <si>
+    <t>01:15</t>
+  </si>
+  <si>
+    <t>10182637</t>
+  </si>
+  <si>
+    <t>04:25</t>
+  </si>
+  <si>
+    <t>10182647</t>
+  </si>
+  <si>
+    <t>04:41</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>10182698</t>
+  </si>
+  <si>
+    <t>05:47</t>
+  </si>
+  <si>
+    <t>10182704</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>10182716</t>
+  </si>
+  <si>
+    <t>06:07</t>
+  </si>
+  <si>
+    <t>10182727</t>
+  </si>
+  <si>
+    <t>03:20</t>
+  </si>
+  <si>
+    <t>10182754</t>
+  </si>
+  <si>
+    <t>06:29</t>
+  </si>
+  <si>
+    <t>10182776</t>
+  </si>
+  <si>
+    <t>06:40</t>
+  </si>
+  <si>
+    <t>10182791</t>
+  </si>
+  <si>
+    <t>06:46</t>
+  </si>
+  <si>
+    <t>10182799</t>
+  </si>
+  <si>
+    <t>03:57</t>
+  </si>
+  <si>
+    <t>10182868</t>
+  </si>
+  <si>
+    <t>10182878</t>
+  </si>
+  <si>
+    <t>10182881</t>
+  </si>
+  <si>
+    <t>10182899</t>
+  </si>
+  <si>
+    <t>10182915</t>
+  </si>
+  <si>
+    <t>135947492</t>
+  </si>
+  <si>
+    <t>33364612</t>
+  </si>
+  <si>
+    <t>10182285</t>
+  </si>
+  <si>
+    <t>135947506</t>
+  </si>
+  <si>
+    <t>23:30</t>
+  </si>
+  <si>
+    <t>10183767</t>
+  </si>
+  <si>
+    <t>10183769</t>
+  </si>
+  <si>
+    <t>00:47</t>
+  </si>
+  <si>
+    <t>00:51</t>
+  </si>
+  <si>
+    <t>10183778</t>
+  </si>
+  <si>
+    <t>22:02</t>
+  </si>
+  <si>
+    <t>10183786</t>
+  </si>
+  <si>
+    <t>01:10</t>
+  </si>
+  <si>
+    <t>10183891</t>
+  </si>
+  <si>
+    <t>01:22</t>
+  </si>
+  <si>
+    <t>10183894</t>
+  </si>
+  <si>
+    <t>10183895</t>
+  </si>
+  <si>
+    <t>22:40</t>
+  </si>
+  <si>
+    <t>10183899</t>
+  </si>
+  <si>
+    <t>10183900</t>
+  </si>
+  <si>
+    <t>10183903</t>
+  </si>
+  <si>
+    <t>10183915</t>
+  </si>
+  <si>
+    <t>10183935</t>
+  </si>
+  <si>
+    <t>135963991</t>
+  </si>
+  <si>
+    <t>33366086</t>
+  </si>
+  <si>
+    <t>10183754</t>
+  </si>
+  <si>
+    <t>135964002</t>
+  </si>
+  <si>
+    <t>01:35</t>
+  </si>
+  <si>
+    <t>10187183</t>
+  </si>
+  <si>
+    <t>10187186</t>
+  </si>
+  <si>
+    <t>02:53</t>
+  </si>
+  <si>
+    <t>02:57</t>
+  </si>
+  <si>
+    <t>10187234</t>
+  </si>
+  <si>
+    <t>10187255</t>
+  </si>
+  <si>
+    <t>03:18</t>
+  </si>
+  <si>
+    <t>10187270</t>
+  </si>
+  <si>
+    <t>03:30</t>
+  </si>
+  <si>
+    <t>03:34</t>
+  </si>
+  <si>
+    <t>10187276</t>
+  </si>
+  <si>
+    <t>10187295</t>
+  </si>
+  <si>
+    <t>10187298</t>
+  </si>
+  <si>
+    <t>10187310</t>
+  </si>
+  <si>
+    <t>10187315</t>
+  </si>
+  <si>
+    <t>135998324</t>
+  </si>
+  <si>
+    <t>33369333</t>
+  </si>
+  <si>
+    <t>10186995</t>
+  </si>
+  <si>
+    <t>135998335</t>
+  </si>
+  <si>
+    <t>04:35</t>
+  </si>
+  <si>
+    <t>10187324</t>
+  </si>
+  <si>
+    <t>10187328</t>
+  </si>
+  <si>
+    <t>05:26</t>
+  </si>
+  <si>
+    <t>10187368</t>
+  </si>
+  <si>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t>10188496</t>
+  </si>
+  <si>
+    <t>00:06</t>
+  </si>
+  <si>
+    <t>10188519</t>
+  </si>
+  <si>
+    <t>00:17</t>
+  </si>
+  <si>
+    <t>10188531</t>
+  </si>
+  <si>
+    <t>00:26</t>
+  </si>
+  <si>
+    <t>10188541</t>
+  </si>
+  <si>
+    <t>21:37</t>
+  </si>
+  <si>
+    <t>10188550</t>
+  </si>
+  <si>
+    <t>10188559</t>
+  </si>
+  <si>
+    <t>01:01</t>
+  </si>
+  <si>
+    <t>10188572</t>
+  </si>
+  <si>
+    <t>01:09</t>
+  </si>
+  <si>
+    <t>10188597</t>
+  </si>
+  <si>
+    <t>22:25</t>
+  </si>
+  <si>
+    <t>10188678</t>
+  </si>
+  <si>
+    <t>10188683</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>10188691</t>
+  </si>
+  <si>
+    <t>1585</t>
+  </si>
+  <si>
+    <t>10188697</t>
+  </si>
+  <si>
+    <t>10188704</t>
+  </si>
+  <si>
+    <t>136016056</t>
+  </si>
+  <si>
+    <t>33370870</t>
+  </si>
+  <si>
+    <t>10188512</t>
+  </si>
+  <si>
+    <t>136016067</t>
+  </si>
+  <si>
+    <t>10190194</t>
+  </si>
+  <si>
+    <t>23:50</t>
+  </si>
+  <si>
+    <t>10190200</t>
+  </si>
+  <si>
+    <t>00:01</t>
+  </si>
+  <si>
+    <t>00:05</t>
+  </si>
+  <si>
+    <t>10190227</t>
+  </si>
+  <si>
+    <t>21:16</t>
+  </si>
+  <si>
+    <t>10190251</t>
+  </si>
+  <si>
+    <t>10190266</t>
+  </si>
+  <si>
+    <t>00:39</t>
+  </si>
+  <si>
+    <t>10190271</t>
+  </si>
+  <si>
+    <t>00:45</t>
+  </si>
+  <si>
+    <t>10190280</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>10190405</t>
+  </si>
+  <si>
+    <t>22:35</t>
+  </si>
+  <si>
+    <t>10190411</t>
+  </si>
+  <si>
+    <t>10190414</t>
+  </si>
+  <si>
+    <t>10190415</t>
+  </si>
+  <si>
+    <t>10190433</t>
+  </si>
+  <si>
+    <t>10190443</t>
+  </si>
+  <si>
+    <t>136034674</t>
+  </si>
+  <si>
+    <t>33372589</t>
+  </si>
+  <si>
+    <t>10190219</t>
+  </si>
+  <si>
+    <t>136034685</t>
+  </si>
+  <si>
+    <t>10191558</t>
+  </si>
+  <si>
+    <t>23:49</t>
+  </si>
+  <si>
+    <t>10191564</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>10191574</t>
+  </si>
+  <si>
+    <t>10191775</t>
+  </si>
+  <si>
+    <t>01:54</t>
+  </si>
+  <si>
+    <t>10191783</t>
+  </si>
+  <si>
+    <t>02:05</t>
+  </si>
+  <si>
+    <t>02:10</t>
+  </si>
+  <si>
+    <t>10191806</t>
+  </si>
+  <si>
+    <t>23:22</t>
+  </si>
+  <si>
+    <t>10191825</t>
+  </si>
+  <si>
+    <t>10191849</t>
+  </si>
+  <si>
+    <t>02:42</t>
+  </si>
+  <si>
+    <t>10191853</t>
+  </si>
+  <si>
+    <t>05:05</t>
+  </si>
+  <si>
+    <t>10192070</t>
+  </si>
+  <si>
+    <t>06:11</t>
+  </si>
+  <si>
+    <t>10192075</t>
+  </si>
+  <si>
+    <t>06:22</t>
+  </si>
+  <si>
+    <t>10192098</t>
+  </si>
+  <si>
+    <t>06:32</t>
+  </si>
+  <si>
+    <t>10192109</t>
+  </si>
+  <si>
+    <t>10192122</t>
+  </si>
+  <si>
+    <t>06:56</t>
+  </si>
+  <si>
+    <t>10192149</t>
+  </si>
+  <si>
+    <t>07:10</t>
+  </si>
+  <si>
+    <t>10192173</t>
+  </si>
+  <si>
+    <t>07:16</t>
+  </si>
+  <si>
+    <t>10192179</t>
+  </si>
+  <si>
+    <t>04:30</t>
+  </si>
+  <si>
+    <t>10192200</t>
+  </si>
+  <si>
+    <t>10192206</t>
+  </si>
+  <si>
+    <t>23:37</t>
+  </si>
+  <si>
+    <t>10192908</t>
+  </si>
+  <si>
+    <t>10192923</t>
+  </si>
+  <si>
+    <t>00:57</t>
+  </si>
+  <si>
+    <t>10192953</t>
+  </si>
+  <si>
+    <t>01:34</t>
+  </si>
+  <si>
+    <t>01:38</t>
+  </si>
+  <si>
+    <t>10193047</t>
+  </si>
+  <si>
+    <t>02:50</t>
+  </si>
+  <si>
+    <t>02:54</t>
+  </si>
+  <si>
+    <t>10205128</t>
+  </si>
+  <si>
+    <t>01:59</t>
+  </si>
+  <si>
+    <t>10205139</t>
   </si>
   <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>01:49</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>10121473</t>
-  </si>
-  <si>
-    <t>00:39</t>
-  </si>
-  <si>
-    <t>10122323</t>
-  </si>
-  <si>
-    <t>01:50</t>
-  </si>
-  <si>
-    <t>10122396</t>
-  </si>
-  <si>
-    <t>02:57</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>785</t>
-  </si>
-  <si>
-    <t>10122411</t>
-  </si>
-  <si>
-    <t>00:57</t>
-  </si>
-  <si>
-    <t>10145478</t>
-  </si>
-  <si>
-    <t>02:04</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>1107</t>
-  </si>
-  <si>
-    <t>10145481</t>
-  </si>
-  <si>
-    <t>02:16</t>
-  </si>
-  <si>
-    <t>02:24</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>10145511</t>
-  </si>
-  <si>
-    <t>02:32</t>
-  </si>
-  <si>
-    <t>10145522</t>
-  </si>
-  <si>
-    <t>23:44</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>10145535</t>
-  </si>
-  <si>
-    <t>02:54</t>
-  </si>
-  <si>
-    <t>03:33</t>
-  </si>
-  <si>
-    <t>10145618</t>
-  </si>
-  <si>
-    <t>03:39</t>
-  </si>
-  <si>
-    <t>10145623</t>
-  </si>
-  <si>
-    <t>00:52</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>10145636</t>
-  </si>
-  <si>
-    <t>10145652</t>
-  </si>
-  <si>
-    <t>10145704</t>
-  </si>
-  <si>
-    <t>10145737</t>
-  </si>
-  <si>
-    <t>10145766</t>
-  </si>
-  <si>
-    <t>10145778</t>
-  </si>
-  <si>
-    <t>10145799</t>
-  </si>
-  <si>
-    <t>10145824</t>
-  </si>
-  <si>
-    <t>1578</t>
-  </si>
-  <si>
-    <t>10145856</t>
-  </si>
-  <si>
-    <t>10145880</t>
-  </si>
-  <si>
-    <t>135539105</t>
+    <t>03:05</t>
+  </si>
+  <si>
+    <t>10205147</t>
+  </si>
+  <si>
+    <t>03:22</t>
+  </si>
+  <si>
+    <t>10205172</t>
+  </si>
+  <si>
+    <t>00:34</t>
+  </si>
+  <si>
+    <t>10205175</t>
+  </si>
+  <si>
+    <t>03:42</t>
+  </si>
+  <si>
+    <t>10205189</t>
+  </si>
+  <si>
+    <t>10205190</t>
+  </si>
+  <si>
+    <t>10205198</t>
+  </si>
+  <si>
+    <t>04:39</t>
+  </si>
+  <si>
+    <t>10205211</t>
+  </si>
+  <si>
+    <t>10205215</t>
+  </si>
+  <si>
+    <t>02:06</t>
+  </si>
+  <si>
+    <t>10205228</t>
+  </si>
+  <si>
+    <t>10205235</t>
+  </si>
+  <si>
+    <t>10205237</t>
+  </si>
+  <si>
+    <t>10205245</t>
+  </si>
+  <si>
+    <t>10205249</t>
+  </si>
+  <si>
+    <t>136196600</t>
+  </si>
+  <si>
+    <t>33387339</t>
+  </si>
+  <si>
+    <t>10204933</t>
+  </si>
+  <si>
+    <t>136196611</t>
   </si>
 </sst>
 </file>
@@ -2073,174 +2853,174 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="62">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="11" numFmtId="1" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="1" xfId="0">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="13" numFmtId="1" xfId="0">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="1" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="44" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="7" numFmtId="49" quotePrefix="1" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="4" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="4" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="3" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="4" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="7" fillId="4" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="14" quotePrefix="1" xfId="0">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="8" fillId="0" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="9" fillId="0" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="9" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="10" fillId="3" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="4" name="Currency" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
@@ -2384,7 +3164,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2401,10 +3181,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2562,7 +3342,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -2571,13 +3351,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2587,7 +3367,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2596,7 +3376,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2605,7 +3385,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2615,12 +3395,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2651,7 +3431,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -2670,7 +3450,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -2688,27 +3468,27 @@
           <a:gdLst/>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect b="0" l="0" r="0" t="0"/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" a14:legacySpreadsheetColorIndex="9" mc:Ignorable="a14" val="090000"/>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
         </a:solidFill>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" a14:legacySpreadsheetColorIndex="64" mc:Ignorable="a14" val="400000"/>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="med" type="none" w="med"/>
-          <a:tailEnd len="med" type="none" w="med"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
             <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
-                <a:outerShdw algn="ctr" dir="2700000" dist="35921" rotWithShape="0">
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
                 </a:outerShdw>
               </a:effectLst>
@@ -2716,7 +3496,7 @@
           </a:ext>
         </a:extLst>
       </a:spPr>
-      <a:bodyPr bIns="0" lIns="18288" rIns="0" tIns="0" upright="1" vertOverflow="clip" wrap="square"/>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
       <a:lstStyle/>
     </a:spDef>
     <a:lnDef>
@@ -2730,27 +3510,27 @@
           <a:gdLst/>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect b="0" l="0" r="0" t="0"/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" a14:legacySpreadsheetColorIndex="9" mc:Ignorable="a14" val="090000"/>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
         </a:solidFill>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" a14:legacySpreadsheetColorIndex="64" mc:Ignorable="a14" val="400000"/>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="med" type="none" w="med"/>
-          <a:tailEnd len="med" type="none" w="med"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
             <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
-                <a:outerShdw algn="ctr" dir="2700000" dist="35921" rotWithShape="0">
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
                 </a:outerShdw>
               </a:effectLst>
@@ -2758,7 +3538,7 @@
           </a:ext>
         </a:extLst>
       </a:spPr>
-      <a:bodyPr bIns="0" lIns="18288" rIns="0" tIns="0" upright="1" vertOverflow="clip" wrap="square"/>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
       <a:lstStyle/>
     </a:lnDef>
   </a:objectDefaults>
@@ -2767,10 +3547,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
@@ -2808,7 +3588,7 @@
     <col min="245" max="16384" style="2" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:42">
+    <row r="1" spans="1:42" s="1" customFormat="1">
       <c r="A1" s="49">
         <v>0</v>
       </c>
@@ -2936,7 +3716,7 @@
         <v>41</v>
       </c>
     </row>
-    <row ht="38.25" r="2" spans="1:42">
+    <row r="2" spans="1:42" ht="38.25">
       <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
@@ -3056,13 +3836,13 @@
         <v>31</v>
       </c>
       <c r="AO2" s="10" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AP2" s="51" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row ht="38.25" r="3" spans="1:42">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="38.25">
       <c r="A3" s="51" t="s">
         <v>97</v>
       </c>
@@ -3170,17 +3950,17 @@
         <v>50</v>
       </c>
       <c r="AM3" s="51" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AN3" s="51" t="s">
         <v>99</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AP3" s="51"/>
     </row>
-    <row ht="38.25" r="4" spans="1:42">
+    <row r="4" spans="1:42" ht="38.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="51" t="s">
@@ -3278,8 +4058,8 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins bottom="1.0527777777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3288,7 +4068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -3328,7 +4108,7 @@
         <v>70</v>
       </c>
     </row>
-    <row ht="14.25" r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="8">
         <v>3368926</v>
       </c>
@@ -3356,8 +4136,8 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins bottom="1.0527777777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3366,7 +4146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3388,7 +4168,7 @@
       </c>
       <c r="C1" s="13"/>
     </row>
-    <row ht="15" r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="14" t="s">
         <v>74</v>
       </c>
@@ -3397,7 +4177,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row ht="15" r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="14" t="s">
         <v>75</v>
       </c>
@@ -3406,7 +4186,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row ht="15" r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="14" t="s">
         <v>75</v>
       </c>
@@ -3415,7 +4195,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row ht="15" r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="14" t="s">
         <v>76</v>
       </c>
@@ -3425,7 +4205,7 @@
       <c r="C5" s="4"/>
       <c r="F5" s="23"/>
     </row>
-    <row ht="15" r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="15">
       <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
@@ -3434,7 +4214,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row ht="15" r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="15" t="s">
         <v>77</v>
       </c>
@@ -3443,7 +4223,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row ht="15" r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="15" t="s">
         <v>77</v>
       </c>
@@ -3452,7 +4232,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row ht="15" r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="14" t="s">
         <v>90</v>
       </c>
@@ -3461,7 +4241,7 @@
       </c>
       <c r="C9" s="14"/>
     </row>
-    <row ht="15" r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -3470,7 +4250,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row ht="15" r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="21" t="s">
         <v>94</v>
       </c>
@@ -3484,8 +4264,8 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins bottom="1.0527777777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3494,7 +4274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -3563,7 +4343,7 @@
         <v>53</v>
       </c>
     </row>
-    <row ht="14.25" r="2" spans="1:14">
+    <row r="2" spans="1:14" ht="14.25">
       <c r="A2" s="16">
         <v>3375023</v>
       </c>
@@ -3600,17 +4380,17 @@
       </c>
       <c r="M2" s="4"/>
       <c r="N2" t="s">
-        <v>499</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3642,16 +4422,16 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3665,46 +4445,46 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="56" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C1" s="56" t="s">
         <v>58</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>549</v>
+        <v>806</v>
       </c>
       <c r="C2" t="s">
-        <v>495</v>
+        <v>807</v>
       </c>
       <c r="D2" t="s">
-        <v>496</v>
+        <v>808</v>
       </c>
       <c r="E2" t="s">
-        <v>497</v>
+        <v>809</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN14"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
@@ -3748,7 +4528,7 @@
     <col min="40" max="16384" style="45" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="25.5" r="1" s="25" spans="1:40">
+    <row r="1" spans="1:40" s="25" customFormat="1" ht="25.5">
       <c r="A1" s="37" t="s">
         <v>100</v>
       </c>
@@ -3866,7 +4646,7 @@
       </c>
       <c r="AN1" s="35"/>
     </row>
-    <row customFormat="1" ht="63.75" r="2" s="25" spans="1:40">
+    <row r="2" spans="1:40" s="25" customFormat="1" ht="63.75">
       <c r="A2" s="39" t="s">
         <v>136</v>
       </c>
@@ -3935,13 +4715,13 @@
         <v>153</v>
       </c>
       <c r="Z2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AA2" s="26" t="s">
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -3956,17 +4736,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>516</v>
+        <v>785</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>515</v>
+        <v>784</v>
       </c>
       <c r="AJ2" t="s">
-        <v>515</v>
+        <v>784</v>
       </c>
       <c r="AK2" t="s">
-        <v>515</v>
+        <v>784</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -3974,7 +4754,7 @@
       </c>
       <c r="AN2" s="35"/>
     </row>
-    <row customFormat="1" ht="76.5" r="3" s="25" spans="1:40">
+    <row r="3" spans="1:40" s="25" customFormat="1" ht="76.5">
       <c r="A3" s="39" t="s">
         <v>136</v>
       </c>
@@ -4047,7 +4827,7 @@
         <v>171</v>
       </c>
       <c r="Z3" t="s">
-        <v>518</v>
+        <v>153</v>
       </c>
       <c r="AA3" s="26" t="s">
         <v>172</v>
@@ -4059,24 +4839,24 @@
         <v>173</v>
       </c>
       <c r="AD3" t="s">
-        <v>519</v>
+        <v>173</v>
       </c>
       <c r="AE3" s="26"/>
       <c r="AF3" t="s">
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>520</v>
+        <v>788</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>517</v>
+        <v>787</v>
       </c>
       <c r="AJ3" t="s">
-        <v>517</v>
+        <v>787</v>
       </c>
       <c r="AK3" t="s">
-        <v>517</v>
+        <v>787</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -4084,7 +4864,7 @@
       </c>
       <c r="AN3" s="35"/>
     </row>
-    <row customFormat="1" ht="63.75" r="4" s="25" spans="1:40">
+    <row r="4" spans="1:40" s="25" customFormat="1" ht="63.75">
       <c r="A4" s="39" t="s">
         <v>136</v>
       </c>
@@ -4153,36 +4933,36 @@
         <v>181</v>
       </c>
       <c r="Z4" t="s">
-        <v>362</v>
+        <v>181</v>
       </c>
       <c r="AA4" s="26" t="s">
         <v>182</v>
       </c>
       <c r="AB4" t="s">
-        <v>523</v>
+        <v>373</v>
       </c>
       <c r="AC4" s="26" t="s">
         <v>183</v>
       </c>
       <c r="AD4" t="s">
-        <v>513</v>
+        <v>370</v>
       </c>
       <c r="AE4" s="26"/>
       <c r="AF4" t="s">
         <v>158</v>
       </c>
       <c r="AG4" t="s">
-        <v>524</v>
+        <v>760</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>522</v>
+        <v>669</v>
       </c>
       <c r="AJ4" t="s">
-        <v>522</v>
+        <v>669</v>
       </c>
       <c r="AK4" t="s">
-        <v>522</v>
+        <v>669</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -4190,7 +4970,7 @@
       </c>
       <c r="AN4" s="35"/>
     </row>
-    <row customFormat="1" ht="76.5" r="5" s="25" spans="1:40">
+    <row r="5" spans="1:40" s="25" customFormat="1" ht="76.5">
       <c r="A5" s="39" t="s">
         <v>136</v>
       </c>
@@ -4263,7 +5043,7 @@
         <v>171</v>
       </c>
       <c r="Z5" t="s">
-        <v>518</v>
+        <v>153</v>
       </c>
       <c r="AA5" s="26" t="s">
         <v>172</v>
@@ -4275,24 +5055,24 @@
         <v>173</v>
       </c>
       <c r="AD5" t="s">
-        <v>519</v>
+        <v>173</v>
       </c>
       <c r="AE5" s="26"/>
       <c r="AF5" t="s">
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>526</v>
+        <v>790</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>525</v>
+        <v>789</v>
       </c>
       <c r="AJ5" t="s">
-        <v>525</v>
+        <v>789</v>
       </c>
       <c r="AK5" t="s">
-        <v>525</v>
+        <v>789</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -4300,7 +5080,7 @@
       </c>
       <c r="AN5" s="35"/>
     </row>
-    <row customFormat="1" ht="63.75" r="6" s="25" spans="1:40">
+    <row r="6" spans="1:40" s="25" customFormat="1" ht="63.75">
       <c r="A6" s="39" t="s">
         <v>136</v>
       </c>
@@ -4379,30 +5159,30 @@
         <v>201</v>
       </c>
       <c r="AB6" t="s">
-        <v>528</v>
+        <v>201</v>
       </c>
       <c r="AC6" s="26" t="s">
         <v>202</v>
       </c>
       <c r="AD6" t="s">
-        <v>529</v>
+        <v>375</v>
       </c>
       <c r="AE6" s="26"/>
       <c r="AF6" s="32"/>
       <c r="AG6" t="s">
-        <v>530</v>
+        <v>792</v>
       </c>
       <c r="AH6" s="30" t="s">
         <v>203</v>
       </c>
       <c r="AI6" t="s">
-        <v>527</v>
+        <v>791</v>
       </c>
       <c r="AJ6" t="s">
-        <v>527</v>
+        <v>791</v>
       </c>
       <c r="AK6" t="s">
-        <v>527</v>
+        <v>791</v>
       </c>
       <c r="AL6" s="31"/>
       <c r="AM6" s="40" t="s">
@@ -4410,7 +5190,7 @@
       </c>
       <c r="AN6" s="35"/>
     </row>
-    <row customFormat="1" ht="63.75" r="7" s="25" spans="1:40">
+    <row r="7" spans="1:40" s="25" customFormat="1" ht="63.75">
       <c r="A7" s="39" t="s">
         <v>136</v>
       </c>
@@ -4487,30 +5267,30 @@
         <v>201</v>
       </c>
       <c r="AB7" t="s">
-        <v>528</v>
+        <v>201</v>
       </c>
       <c r="AC7" s="26" t="s">
         <v>209</v>
       </c>
       <c r="AD7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AE7" s="26"/>
       <c r="AF7" s="32"/>
-      <c r="AG7" s="45" t="s">
-        <v>387</v>
+      <c r="AG7" t="s">
+        <v>794</v>
       </c>
       <c r="AH7" s="30" t="s">
         <v>210</v>
       </c>
       <c r="AI7" t="s">
-        <v>531</v>
+        <v>793</v>
       </c>
       <c r="AJ7" t="s">
-        <v>531</v>
+        <v>793</v>
       </c>
       <c r="AK7" t="s">
-        <v>531</v>
+        <v>793</v>
       </c>
       <c r="AL7" s="31"/>
       <c r="AM7" s="40" t="s">
@@ -4518,7 +5298,7 @@
       </c>
       <c r="AN7" s="35"/>
     </row>
-    <row customFormat="1" ht="63.75" r="8" s="25" spans="1:40">
+    <row r="8" spans="1:40" s="25" customFormat="1" ht="63.75">
       <c r="A8" s="39" t="s">
         <v>136</v>
       </c>
@@ -4610,17 +5390,17 @@
         <v>158</v>
       </c>
       <c r="AG8" t="s">
-        <v>533</v>
+        <v>795</v>
       </c>
       <c r="AH8" s="30"/>
       <c r="AI8" t="s">
-        <v>532</v>
+        <v>577</v>
       </c>
       <c r="AJ8" t="s">
-        <v>532</v>
+        <v>577</v>
       </c>
       <c r="AK8" t="s">
-        <v>532</v>
+        <v>577</v>
       </c>
       <c r="AL8" s="31"/>
       <c r="AM8" s="40" t="s">
@@ -4628,7 +5408,7 @@
       </c>
       <c r="AN8" s="35"/>
     </row>
-    <row customFormat="1" ht="76.5" r="9" s="25" spans="1:40">
+    <row r="9" spans="1:40" s="25" customFormat="1" ht="76.5">
       <c r="A9" s="39" t="s">
         <v>136</v>
       </c>
@@ -4701,34 +5481,34 @@
         <v>171</v>
       </c>
       <c r="Z9" t="s">
-        <v>518</v>
+        <v>153</v>
       </c>
       <c r="AA9" s="28" t="s">
         <v>172</v>
       </c>
       <c r="AB9" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="AC9" s="28" t="s">
         <v>173</v>
       </c>
       <c r="AD9" t="s">
-        <v>519</v>
+        <v>173</v>
       </c>
       <c r="AE9" s="28"/>
       <c r="AF9" s="32"/>
       <c r="AG9" t="s">
-        <v>535</v>
+        <v>799</v>
       </c>
       <c r="AH9" s="30"/>
       <c r="AI9" t="s">
-        <v>534</v>
+        <v>414</v>
       </c>
       <c r="AJ9" t="s">
-        <v>534</v>
+        <v>414</v>
       </c>
       <c r="AK9" t="s">
-        <v>534</v>
+        <v>414</v>
       </c>
       <c r="AL9" s="31"/>
       <c r="AM9" s="40" t="s">
@@ -4736,7 +5516,7 @@
       </c>
       <c r="AN9" s="35"/>
     </row>
-    <row customFormat="1" ht="76.5" r="10" s="29" spans="1:40">
+    <row r="10" spans="1:40" s="29" customFormat="1" ht="76.5">
       <c r="A10" s="39" t="s">
         <v>136</v>
       </c>
@@ -4807,13 +5587,13 @@
         <v>171</v>
       </c>
       <c r="Z10" t="s">
-        <v>537</v>
+        <v>376</v>
       </c>
       <c r="AA10" s="26" t="s">
         <v>169</v>
       </c>
       <c r="AB10" t="s">
-        <v>537</v>
+        <v>153</v>
       </c>
       <c r="AC10" s="26" t="s">
         <v>156</v>
@@ -4824,17 +5604,17 @@
       <c r="AE10" s="26"/>
       <c r="AF10" s="33"/>
       <c r="AG10" t="s">
-        <v>538</v>
+        <v>801</v>
       </c>
       <c r="AH10" s="33"/>
       <c r="AI10" t="s">
-        <v>536</v>
+        <v>800</v>
       </c>
       <c r="AJ10" t="s">
-        <v>536</v>
+        <v>800</v>
       </c>
       <c r="AK10" t="s">
-        <v>536</v>
+        <v>800</v>
       </c>
       <c r="AL10" s="34"/>
       <c r="AM10" s="40" t="s">
@@ -4842,7 +5622,7 @@
       </c>
       <c r="AN10" s="36"/>
     </row>
-    <row customFormat="1" r="11" s="25" spans="1:40">
+    <row r="11" spans="1:40" s="25" customFormat="1">
       <c r="A11" s="41" t="s">
         <v>136</v>
       </c>
@@ -4904,7 +5684,7 @@
         <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>542</v>
+        <v>802</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -4918,7 +5698,7 @@
       </c>
       <c r="AN11" s="35"/>
     </row>
-    <row customFormat="1" r="12" s="25" spans="1:40">
+    <row r="12" spans="1:40" s="25" customFormat="1">
       <c r="A12" s="41" t="s">
         <v>136</v>
       </c>
@@ -4958,13 +5738,13 @@
         <v>198</v>
       </c>
       <c r="AD12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AF12" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>545</v>
+        <v>803</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -4978,7 +5758,7 @@
       </c>
       <c r="AN12" s="35"/>
     </row>
-    <row customFormat="1" r="13" s="25" spans="1:40">
+    <row r="13" spans="1:40" s="25" customFormat="1">
       <c r="A13" s="41" t="s">
         <v>136</v>
       </c>
@@ -5013,16 +5793,16 @@
       </c>
       <c r="Z13" s="31"/>
       <c r="AB13" t="s">
-        <v>294</v>
+        <v>232</v>
       </c>
       <c r="AD13" t="s">
-        <v>546</v>
+        <v>707</v>
       </c>
       <c r="AF13" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>547</v>
+        <v>804</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -5036,7 +5816,7 @@
       </c>
       <c r="AN13" s="35"/>
     </row>
-    <row customFormat="1" r="14" s="25" spans="1:40">
+    <row r="14" spans="1:40" s="25" customFormat="1">
       <c r="A14" s="57" t="s">
         <v>136</v>
       </c>
@@ -5093,10 +5873,10 @@
       </c>
       <c r="AE14" s="59"/>
       <c r="AF14" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>548</v>
+        <v>805</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -5111,12 +5891,12 @@
       <c r="AN14" s="35"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -5135,790 +5915,790 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="47" t="s">
         <v>247</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>248</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>249</v>
       </c>
       <c r="D1" s="47" t="s">
         <v>131</v>
       </c>
       <c r="E1" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="51">
+      <c r="A2" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" t="s">
+        <v>785</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="89.25">
+      <c r="A3" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="F1" s="47" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row ht="51" r="2" spans="1:6">
-      <c r="A2" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="D2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E2" s="48" t="s">
+      <c r="C3" s="48" t="s">
         <v>255</v>
-      </c>
-      <c r="F2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="89.25" r="3" spans="1:6">
-      <c r="A3" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>257</v>
       </c>
       <c r="D3" s="48"/>
       <c r="E3" s="48" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="89.25" r="4" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="89.25">
       <c r="A4" s="48" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="48" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="51" r="5" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51">
       <c r="A5" s="48" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D5" s="48"/>
       <c r="E5" s="48" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="51" r="6" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="51">
       <c r="A6" s="48" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D6" s="48"/>
       <c r="E6" s="48" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="51" r="7" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51">
       <c r="A7" s="48" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D7" s="48"/>
       <c r="E7" s="48" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="63.75" r="8" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="63.75">
       <c r="A8" s="48" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="48" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="51" r="9" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51">
       <c r="A9" s="48" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D9" s="48"/>
       <c r="E9" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="51">
+      <c r="A10" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="F9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="51" r="10" spans="1:6">
-      <c r="A10" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>276</v>
-      </c>
       <c r="C10" s="48" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D10" s="48"/>
       <c r="E10" s="48" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="63.75" r="11" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="63.75">
       <c r="A11" s="48" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D11" s="48"/>
       <c r="E11" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="48"/>
+    </row>
+    <row r="12" spans="1:6" ht="51">
+      <c r="A12" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" s="48" t="s">
         <v>280</v>
-      </c>
-      <c r="F11" s="48"/>
-    </row>
-    <row ht="51" r="12" spans="1:6">
-      <c r="A12" s="48" t="s">
-        <v>293</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>281</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>282</v>
       </c>
       <c r="D12" s="48"/>
       <c r="E12" s="48" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F12" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="51">
+      <c r="A13" s="48" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row ht="51" r="13" spans="1:6">
-      <c r="A13" s="48" t="s">
+      <c r="B13" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="D13" t="s">
+        <v>788</v>
+      </c>
+      <c r="E13" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="F13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="102">
+      <c r="A14" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D13" t="s">
-        <v>520</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="F13" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="102" r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
-        <v>301</v>
-      </c>
       <c r="B14" s="48" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D14" s="48"/>
       <c r="E14" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="F14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="102">
+      <c r="A15" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="C15" s="48" t="s">
         <v>327</v>
-      </c>
-      <c r="F14" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="102" r="15" spans="1:6">
-      <c r="A15" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>328</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>329</v>
       </c>
       <c r="D15" s="48"/>
       <c r="E15" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="F15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="102">
+      <c r="A16" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>329</v>
+      </c>
+      <c r="C16" s="48" t="s">
         <v>330</v>
-      </c>
-      <c r="F15" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="102" r="16" spans="1:6">
-      <c r="A16" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>331</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>332</v>
       </c>
       <c r="D16" s="48"/>
       <c r="E16" s="48" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="89.25" r="17" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="89.25">
       <c r="A17" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" s="48" t="s">
         <v>301</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>303</v>
       </c>
       <c r="D17" s="48"/>
       <c r="E17" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="F17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="89.25">
+      <c r="A18" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="F17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="89.25" r="18" spans="1:6">
-      <c r="A18" s="48" t="s">
+      <c r="C18" s="48" t="s">
         <v>305</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>306</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>307</v>
       </c>
       <c r="D18" s="48"/>
       <c r="E18" s="48" t="s">
+        <v>306</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="51">
+      <c r="A19" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="B19" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="F18" s="46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="51" r="19" spans="1:6">
-      <c r="A19" s="48" t="s">
-        <v>309</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>310</v>
-      </c>
       <c r="C19" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D19" s="48"/>
       <c r="E19" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="51">
+      <c r="A20" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="B20" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="F19" s="46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="51" r="20" spans="1:6">
-      <c r="A20" s="48" t="s">
-        <v>312</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>313</v>
-      </c>
       <c r="C20" s="48" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D20" s="48"/>
       <c r="E20" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="51">
+      <c r="A21" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="B21" s="48" t="s">
         <v>314</v>
       </c>
-      <c r="F20" s="46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="51" r="21" spans="1:6">
-      <c r="A21" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>316</v>
-      </c>
       <c r="C21" s="48" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D21" s="48"/>
       <c r="E21" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="63.75">
+      <c r="A22" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="B22" s="48" t="s">
         <v>317</v>
       </c>
-      <c r="F21" s="46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="63.75" r="22" spans="1:6">
-      <c r="A22" s="48" t="s">
-        <v>318</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>319</v>
-      </c>
       <c r="C22" s="48" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D22" s="48"/>
       <c r="E22" s="48" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="51" r="23" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="51">
       <c r="A23" s="48" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D23" s="48"/>
       <c r="E23" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="51">
+      <c r="A24" s="48" t="s">
+        <v>319</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="C24" s="48" t="s">
         <v>336</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="51" r="24" spans="1:6">
-      <c r="A24" s="48" t="s">
-        <v>321</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>338</v>
       </c>
       <c r="D24" s="48"/>
       <c r="E24" s="48" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="63.75" r="25" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="63.75">
       <c r="A25" s="48" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D25" s="48"/>
       <c r="E25" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="F25" s="48"/>
+    </row>
+    <row r="26" spans="1:6" ht="51">
+      <c r="A26" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="C26" s="48" t="s">
         <v>280</v>
-      </c>
-      <c r="F25" s="48"/>
-    </row>
-    <row ht="51" r="26" spans="1:6">
-      <c r="A26" s="48" t="s">
-        <v>324</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>340</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>282</v>
       </c>
       <c r="D26" s="48"/>
       <c r="E26" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="63.75">
+      <c r="A27" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="C27" s="48" t="s">
         <v>341</v>
-      </c>
-      <c r="F26" s="46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="63.75" r="27" spans="1:6">
-      <c r="A27" s="48" t="s">
-        <v>324</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>342</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>343</v>
       </c>
       <c r="D27" s="48"/>
       <c r="E27" s="48" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="51" r="28" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="51">
       <c r="A28" s="48" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D28" s="48"/>
       <c r="E28" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="51">
+      <c r="A29" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>345</v>
+      </c>
+      <c r="C29" s="48" t="s">
         <v>346</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="51" r="29" spans="1:6">
-      <c r="A29" s="48" t="s">
-        <v>312</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>347</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>348</v>
       </c>
       <c r="D29" s="48"/>
       <c r="E29" s="48" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="51" r="30" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="51">
       <c r="A30" s="48" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D30" s="48"/>
       <c r="E30" s="48" t="s">
+        <v>349</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="63.75">
+      <c r="A31" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="C31" s="48" t="s">
         <v>351</v>
-      </c>
-      <c r="F30" s="46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="63.75" r="31" spans="1:6">
-      <c r="A31" s="48" t="s">
-        <v>324</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="C31" s="48" t="s">
-        <v>353</v>
       </c>
       <c r="D31" s="48"/>
       <c r="E31" s="48" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="76.5" r="32" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="76.5">
       <c r="A32" s="48" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B32" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="C32" s="48" t="s">
         <v>355</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>357</v>
       </c>
       <c r="D32" s="48"/>
       <c r="E32" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="76.5">
+      <c r="A33" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="B33" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="F32" s="46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="76.5" r="33" spans="1:6">
-      <c r="A33" s="48" t="s">
-        <v>324</v>
-      </c>
-      <c r="B33" s="48" t="s">
-        <v>358</v>
-      </c>
       <c r="C33" s="48" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D33" s="48"/>
       <c r="E33" s="48" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="76.5" r="34" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="76.5">
       <c r="A34" s="48" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B34" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="C34" s="48" t="s">
         <v>355</v>
-      </c>
-      <c r="C34" s="48" t="s">
-        <v>357</v>
       </c>
       <c r="D34" s="48"/>
       <c r="E34" s="48" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="76.5" r="35" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="76.5">
       <c r="A35" s="48" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B35" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="C35" s="48" t="s">
         <v>355</v>
-      </c>
-      <c r="C35" s="48" t="s">
-        <v>357</v>
       </c>
       <c r="D35" s="48"/>
       <c r="E35" s="48" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F35" s="46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="76.5" r="36" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="76.5">
       <c r="A36" s="48" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B36" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="C36" s="48" t="s">
         <v>355</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>357</v>
       </c>
       <c r="D36" s="48"/>
       <c r="E36" s="48" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F36" s="46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="76.5" r="37" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="76.5">
       <c r="A37" s="48" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B37" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="C37" s="48" t="s">
         <v>355</v>
-      </c>
-      <c r="C37" s="48" t="s">
-        <v>357</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="48" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F37" s="46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="76.5" r="38" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="76.5">
       <c r="A38" s="48" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B38" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="C38" s="48" t="s">
         <v>355</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>357</v>
       </c>
       <c r="D38" s="48"/>
       <c r="E38" s="48" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F38" s="46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="76.5" r="39" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="76.5">
       <c r="A39" s="48" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B39" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="C39" s="48" t="s">
         <v>355</v>
-      </c>
-      <c r="C39" s="48" t="s">
-        <v>357</v>
       </c>
       <c r="D39" s="48"/>
       <c r="E39" s="48" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F12 F40:F65536">
-    <cfRule dxfId="19" operator="equal" priority="19" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="18" operator="equal" priority="20" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17:F26">
-    <cfRule dxfId="17" operator="equal" priority="17" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="17" priority="17" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="16" operator="equal" priority="18" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="16" priority="18" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F16">
-    <cfRule dxfId="15" operator="equal" priority="15" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="14" operator="equal" priority="16" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule dxfId="13" operator="equal" priority="13" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="12" operator="equal" priority="14" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule dxfId="11" operator="equal" priority="11" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="10" operator="equal" priority="12" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule dxfId="9" operator="equal" priority="9" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="8" operator="equal" priority="10" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule dxfId="7" operator="equal" priority="7" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="6" operator="equal" priority="8" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule dxfId="5" operator="equal" priority="5" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="4" operator="equal" priority="6" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule dxfId="3" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="2" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:F39">
-    <cfRule dxfId="1" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="844">
   <si>
     <t>PUId</t>
   </si>
@@ -2562,6 +2562,108 @@
   </si>
   <si>
     <t>136196611</t>
+  </si>
+  <si>
+    <t>22:46</t>
+  </si>
+  <si>
+    <t>10206429</t>
+  </si>
+  <si>
+    <t>23:52</t>
+  </si>
+  <si>
+    <t>10206431</t>
+  </si>
+  <si>
+    <t>00:04</t>
+  </si>
+  <si>
+    <t>10206456</t>
+  </si>
+  <si>
+    <t>23:15</t>
+  </si>
+  <si>
+    <t>10206467</t>
+  </si>
+  <si>
+    <t>00:21</t>
+  </si>
+  <si>
+    <t>10206476</t>
+  </si>
+  <si>
+    <t>00:31</t>
+  </si>
+  <si>
+    <t>00:35</t>
+  </si>
+  <si>
+    <t>10206488</t>
+  </si>
+  <si>
+    <t>21:46</t>
+  </si>
+  <si>
+    <t>10206501</t>
+  </si>
+  <si>
+    <t>10206513</t>
+  </si>
+  <si>
+    <t>22:08</t>
+  </si>
+  <si>
+    <t>10206538</t>
+  </si>
+  <si>
+    <t>10206541</t>
+  </si>
+  <si>
+    <t>10206611</t>
+  </si>
+  <si>
+    <t>10206615</t>
+  </si>
+  <si>
+    <t>10206625</t>
+  </si>
+  <si>
+    <t>136212984</t>
+  </si>
+  <si>
+    <t>33388857</t>
+  </si>
+  <si>
+    <t>10206445</t>
+  </si>
+  <si>
+    <t>136212995</t>
+  </si>
+  <si>
+    <t>10212900</t>
+  </si>
+  <si>
+    <t>10212902</t>
+  </si>
+  <si>
+    <t>10212909</t>
+  </si>
+  <si>
+    <t>10212921</t>
+  </si>
+  <si>
+    <t>136282176</t>
+  </si>
+  <si>
+    <t>33395073</t>
+  </si>
+  <si>
+    <t>10212639</t>
+  </si>
+  <si>
+    <t>136282187</t>
   </si>
 </sst>
 </file>
@@ -4465,16 +4567,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>806</v>
+        <v>840</v>
       </c>
       <c r="C2" t="s">
-        <v>807</v>
+        <v>841</v>
       </c>
       <c r="D2" t="s">
-        <v>808</v>
+        <v>842</v>
       </c>
       <c r="E2" t="s">
-        <v>809</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -4736,17 +4838,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>785</v>
+        <v>817</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>784</v>
+        <v>816</v>
       </c>
       <c r="AJ2" t="s">
-        <v>784</v>
+        <v>816</v>
       </c>
       <c r="AK2" t="s">
-        <v>784</v>
+        <v>816</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -4846,17 +4948,17 @@
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>788</v>
+        <v>819</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>787</v>
+        <v>818</v>
       </c>
       <c r="AJ3" t="s">
-        <v>787</v>
+        <v>818</v>
       </c>
       <c r="AK3" t="s">
-        <v>787</v>
+        <v>818</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -4952,17 +5054,17 @@
         <v>158</v>
       </c>
       <c r="AG4" t="s">
-        <v>760</v>
+        <v>815</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>669</v>
+        <v>820</v>
       </c>
       <c r="AJ4" t="s">
-        <v>669</v>
+        <v>820</v>
       </c>
       <c r="AK4" t="s">
-        <v>669</v>
+        <v>820</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -5062,17 +5164,17 @@
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>790</v>
+        <v>822</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>789</v>
+        <v>821</v>
       </c>
       <c r="AJ5" t="s">
-        <v>789</v>
+        <v>821</v>
       </c>
       <c r="AK5" t="s">
-        <v>789</v>
+        <v>821</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -5170,19 +5272,19 @@
       <c r="AE6" s="26"/>
       <c r="AF6" s="32"/>
       <c r="AG6" t="s">
-        <v>792</v>
+        <v>824</v>
       </c>
       <c r="AH6" s="30" t="s">
         <v>203</v>
       </c>
       <c r="AI6" t="s">
-        <v>791</v>
+        <v>823</v>
       </c>
       <c r="AJ6" t="s">
-        <v>791</v>
+        <v>823</v>
       </c>
       <c r="AK6" t="s">
-        <v>791</v>
+        <v>823</v>
       </c>
       <c r="AL6" s="31"/>
       <c r="AM6" s="40" t="s">
@@ -5267,7 +5369,7 @@
         <v>201</v>
       </c>
       <c r="AB7" t="s">
-        <v>201</v>
+        <v>374</v>
       </c>
       <c r="AC7" s="26" t="s">
         <v>209</v>
@@ -5278,19 +5380,19 @@
       <c r="AE7" s="26"/>
       <c r="AF7" s="32"/>
       <c r="AG7" t="s">
-        <v>794</v>
+        <v>825</v>
       </c>
       <c r="AH7" s="30" t="s">
         <v>210</v>
       </c>
       <c r="AI7" t="s">
-        <v>793</v>
+        <v>429</v>
       </c>
       <c r="AJ7" t="s">
-        <v>793</v>
+        <v>429</v>
       </c>
       <c r="AK7" t="s">
-        <v>793</v>
+        <v>429</v>
       </c>
       <c r="AL7" s="31"/>
       <c r="AM7" s="40" t="s">
@@ -5394,13 +5496,13 @@
       </c>
       <c r="AH8" s="30"/>
       <c r="AI8" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="AJ8" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="AK8" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="AL8" s="31"/>
       <c r="AM8" s="40" t="s">
@@ -5587,13 +5689,13 @@
         <v>171</v>
       </c>
       <c r="Z10" t="s">
-        <v>376</v>
+        <v>198</v>
       </c>
       <c r="AA10" s="26" t="s">
         <v>169</v>
       </c>
       <c r="AB10" t="s">
-        <v>153</v>
+        <v>376</v>
       </c>
       <c r="AC10" s="26" t="s">
         <v>156</v>
@@ -5604,17 +5706,17 @@
       <c r="AE10" s="26"/>
       <c r="AF10" s="33"/>
       <c r="AG10" t="s">
-        <v>801</v>
+        <v>827</v>
       </c>
       <c r="AH10" s="33"/>
       <c r="AI10" t="s">
-        <v>800</v>
+        <v>826</v>
       </c>
       <c r="AJ10" t="s">
-        <v>800</v>
+        <v>826</v>
       </c>
       <c r="AK10" t="s">
-        <v>800</v>
+        <v>826</v>
       </c>
       <c r="AL10" s="34"/>
       <c r="AM10" s="40" t="s">
@@ -5684,7 +5786,7 @@
         <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>802</v>
+        <v>836</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -5744,7 +5846,7 @@
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>803</v>
+        <v>837</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -5802,7 +5904,7 @@
         <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>804</v>
+        <v>838</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -5876,7 +5978,7 @@
         <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>805</v>
+        <v>839</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -5944,7 +6046,7 @@
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>785</v>
+        <v>817</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>253</v>
@@ -6142,7 +6244,7 @@
         <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>788</v>
+        <v>819</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>298</v>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="878">
   <si>
     <t>PUId</t>
   </si>
@@ -2664,6 +2664,108 @@
   </si>
   <si>
     <t>136282187</t>
+  </si>
+  <si>
+    <t>10214055</t>
+  </si>
+  <si>
+    <t>10214066</t>
+  </si>
+  <si>
+    <t>10214092</t>
+  </si>
+  <si>
+    <t>10214123</t>
+  </si>
+  <si>
+    <t>10214198</t>
+  </si>
+  <si>
+    <t>10214207</t>
+  </si>
+  <si>
+    <t>10214214</t>
+  </si>
+  <si>
+    <t>10214223</t>
+  </si>
+  <si>
+    <t>136297378</t>
+  </si>
+  <si>
+    <t>33396465</t>
+  </si>
+  <si>
+    <t>10214025</t>
+  </si>
+  <si>
+    <t>136297389</t>
+  </si>
+  <si>
+    <t>10214238</t>
+  </si>
+  <si>
+    <t>02:01</t>
+  </si>
+  <si>
+    <t>10214246</t>
+  </si>
+  <si>
+    <t>10216190</t>
+  </si>
+  <si>
+    <t>07:53</t>
+  </si>
+  <si>
+    <t>10217048</t>
+  </si>
+  <si>
+    <t>23:47</t>
+  </si>
+  <si>
+    <t>10217059</t>
+  </si>
+  <si>
+    <t>23:59</t>
+  </si>
+  <si>
+    <t>00:03</t>
+  </si>
+  <si>
+    <t>10217096</t>
+  </si>
+  <si>
+    <t>04:45</t>
+  </si>
+  <si>
+    <t>10217482</t>
+  </si>
+  <si>
+    <t>05:52</t>
+  </si>
+  <si>
+    <t>10217491</t>
+  </si>
+  <si>
+    <t>06:05</t>
+  </si>
+  <si>
+    <t>10217516</t>
+  </si>
+  <si>
+    <t>06:13</t>
+  </si>
+  <si>
+    <t>10217523</t>
+  </si>
+  <si>
+    <t>10217539</t>
+  </si>
+  <si>
+    <t>10217544</t>
+  </si>
+  <si>
+    <t>10217557</t>
   </si>
 </sst>
 </file>
@@ -4567,16 +4669,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="C2" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="D2" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="E2" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -4838,17 +4940,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>817</v>
+        <v>868</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>816</v>
+        <v>867</v>
       </c>
       <c r="AJ2" t="s">
-        <v>816</v>
+        <v>867</v>
       </c>
       <c r="AK2" t="s">
-        <v>816</v>
+        <v>867</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -4948,17 +5050,17 @@
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>819</v>
+        <v>870</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>818</v>
+        <v>869</v>
       </c>
       <c r="AJ3" t="s">
-        <v>818</v>
+        <v>869</v>
       </c>
       <c r="AK3" t="s">
-        <v>818</v>
+        <v>869</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -5054,17 +5156,17 @@
         <v>158</v>
       </c>
       <c r="AG4" t="s">
-        <v>815</v>
+        <v>872</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>820</v>
+        <v>871</v>
       </c>
       <c r="AJ4" t="s">
-        <v>820</v>
+        <v>871</v>
       </c>
       <c r="AK4" t="s">
-        <v>820</v>
+        <v>871</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -5164,17 +5266,17 @@
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>822</v>
+        <v>874</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>821</v>
+        <v>873</v>
       </c>
       <c r="AJ5" t="s">
-        <v>821</v>
+        <v>873</v>
       </c>
       <c r="AK5" t="s">
-        <v>821</v>
+        <v>873</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -5786,7 +5888,7 @@
         <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>836</v>
+        <v>875</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -5846,7 +5948,7 @@
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>837</v>
+        <v>876</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -5904,7 +6006,7 @@
         <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>838</v>
+        <v>877</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -5978,7 +6080,7 @@
         <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -6046,7 +6148,7 @@
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>817</v>
+        <v>868</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>253</v>
@@ -6244,7 +6346,7 @@
         <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>819</v>
+        <v>870</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>298</v>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3399" uniqueCount="920">
   <si>
     <t>PUId</t>
   </si>
@@ -2766,6 +2766,132 @@
   </si>
   <si>
     <t>10217557</t>
+  </si>
+  <si>
+    <t>23:24</t>
+  </si>
+  <si>
+    <t>10218453</t>
+  </si>
+  <si>
+    <t>00:32</t>
+  </si>
+  <si>
+    <t>10218457</t>
+  </si>
+  <si>
+    <t>10218467</t>
+  </si>
+  <si>
+    <t>00:54</t>
+  </si>
+  <si>
+    <t>10218475</t>
+  </si>
+  <si>
+    <t>10218521</t>
+  </si>
+  <si>
+    <t>10218526</t>
+  </si>
+  <si>
+    <t>10218600</t>
+  </si>
+  <si>
+    <t>10218606</t>
+  </si>
+  <si>
+    <t>136347778</t>
+  </si>
+  <si>
+    <t>33400886</t>
+  </si>
+  <si>
+    <t>10218428</t>
+  </si>
+  <si>
+    <t>136347789</t>
+  </si>
+  <si>
+    <t>04:20</t>
+  </si>
+  <si>
+    <t>10218820</t>
+  </si>
+  <si>
+    <t>05:27</t>
+  </si>
+  <si>
+    <t>10218826</t>
+  </si>
+  <si>
+    <t>05:41</t>
+  </si>
+  <si>
+    <t>05:45</t>
+  </si>
+  <si>
+    <t>10218840</t>
+  </si>
+  <si>
+    <t>10218844</t>
+  </si>
+  <si>
+    <t>10218858</t>
+  </si>
+  <si>
+    <t>10218868</t>
+  </si>
+  <si>
+    <t>10218879</t>
+  </si>
+  <si>
+    <t>22:44</t>
+  </si>
+  <si>
+    <t>10221568</t>
+  </si>
+  <si>
+    <t>10221569</t>
+  </si>
+  <si>
+    <t>10221579</t>
+  </si>
+  <si>
+    <t>00:12</t>
+  </si>
+  <si>
+    <t>10221599</t>
+  </si>
+  <si>
+    <t>10221605</t>
+  </si>
+  <si>
+    <t>10221617</t>
+  </si>
+  <si>
+    <t>10221733</t>
+  </si>
+  <si>
+    <t>10221741</t>
+  </si>
+  <si>
+    <t>10221744</t>
+  </si>
+  <si>
+    <t>10221749</t>
+  </si>
+  <si>
+    <t>136382364</t>
+  </si>
+  <si>
+    <t>33404054</t>
+  </si>
+  <si>
+    <t>10221590</t>
+  </si>
+  <si>
+    <t>136382375</t>
   </si>
 </sst>
 </file>
@@ -4669,16 +4795,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>852</v>
+        <v>916</v>
       </c>
       <c r="C2" t="s">
-        <v>853</v>
+        <v>917</v>
       </c>
       <c r="D2" t="s">
-        <v>854</v>
+        <v>918</v>
       </c>
       <c r="E2" t="s">
-        <v>855</v>
+        <v>919</v>
       </c>
     </row>
   </sheetData>
@@ -4925,7 +5051,7 @@
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -4940,17 +5066,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>868</v>
+        <v>905</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>867</v>
+        <v>904</v>
       </c>
       <c r="AJ2" t="s">
-        <v>867</v>
+        <v>904</v>
       </c>
       <c r="AK2" t="s">
-        <v>867</v>
+        <v>904</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -5037,7 +5163,7 @@
         <v>172</v>
       </c>
       <c r="AB3" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>173</v>
@@ -5050,17 +5176,17 @@
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>870</v>
+        <v>906</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>869</v>
+        <v>715</v>
       </c>
       <c r="AJ3" t="s">
-        <v>869</v>
+        <v>715</v>
       </c>
       <c r="AK3" t="s">
-        <v>869</v>
+        <v>715</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -5143,7 +5269,7 @@
         <v>182</v>
       </c>
       <c r="AB4" t="s">
-        <v>373</v>
+        <v>432</v>
       </c>
       <c r="AC4" s="26" t="s">
         <v>183</v>
@@ -5156,17 +5282,17 @@
         <v>158</v>
       </c>
       <c r="AG4" t="s">
-        <v>872</v>
+        <v>907</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>871</v>
+        <v>814</v>
       </c>
       <c r="AJ4" t="s">
-        <v>871</v>
+        <v>814</v>
       </c>
       <c r="AK4" t="s">
-        <v>871</v>
+        <v>814</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -5266,17 +5392,17 @@
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>874</v>
+        <v>909</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>873</v>
+        <v>908</v>
       </c>
       <c r="AJ5" t="s">
-        <v>873</v>
+        <v>908</v>
       </c>
       <c r="AK5" t="s">
-        <v>873</v>
+        <v>908</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -5888,7 +6014,7 @@
         <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>875</v>
+        <v>912</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -5939,7 +6065,7 @@
       </c>
       <c r="Z12" s="31"/>
       <c r="AB12" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="AD12" t="s">
         <v>360</v>
@@ -5948,7 +6074,7 @@
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>876</v>
+        <v>913</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -6006,7 +6132,7 @@
         <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>877</v>
+        <v>914</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -6080,7 +6206,7 @@
         <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>851</v>
+        <v>915</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -6148,7 +6274,7 @@
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>868</v>
+        <v>905</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>253</v>
@@ -6346,7 +6472,7 @@
         <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>870</v>
+        <v>906</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>298</v>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3399" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3499" uniqueCount="938">
   <si>
     <t>PUId</t>
   </si>
@@ -2892,6 +2892,60 @@
   </si>
   <si>
     <t>136382375</t>
+  </si>
+  <si>
+    <t>10223075</t>
+  </si>
+  <si>
+    <t>23:41</t>
+  </si>
+  <si>
+    <t>10223102</t>
+  </si>
+  <si>
+    <t>10223105</t>
+  </si>
+  <si>
+    <t>10223119</t>
+  </si>
+  <si>
+    <t>01:29</t>
+  </si>
+  <si>
+    <t>10223226</t>
+  </si>
+  <si>
+    <t>10223231</t>
+  </si>
+  <si>
+    <t>10223233</t>
+  </si>
+  <si>
+    <t>10223246</t>
+  </si>
+  <si>
+    <t>10223256</t>
+  </si>
+  <si>
+    <t>136398862</t>
+  </si>
+  <si>
+    <t>33405537</t>
+  </si>
+  <si>
+    <t>10223067</t>
+  </si>
+  <si>
+    <t>136398873</t>
+  </si>
+  <si>
+    <t>03:21</t>
+  </si>
+  <si>
+    <t>03:59</t>
+  </si>
+  <si>
+    <t>10223388</t>
   </si>
 </sst>
 </file>
@@ -4795,16 +4849,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>916</v>
+        <v>931</v>
       </c>
       <c r="C2" t="s">
-        <v>917</v>
+        <v>932</v>
       </c>
       <c r="D2" t="s">
-        <v>918</v>
+        <v>933</v>
       </c>
       <c r="E2" t="s">
-        <v>919</v>
+        <v>934</v>
       </c>
     </row>
   </sheetData>
@@ -5051,7 +5105,7 @@
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -5066,17 +5120,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>905</v>
+        <v>922</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>904</v>
+        <v>921</v>
       </c>
       <c r="AJ2" t="s">
-        <v>904</v>
+        <v>921</v>
       </c>
       <c r="AK2" t="s">
-        <v>904</v>
+        <v>921</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -5163,7 +5217,7 @@
         <v>172</v>
       </c>
       <c r="AB3" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>173</v>
@@ -5176,17 +5230,17 @@
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>906</v>
+        <v>923</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>715</v>
+        <v>642</v>
       </c>
       <c r="AJ3" t="s">
-        <v>715</v>
+        <v>642</v>
       </c>
       <c r="AK3" t="s">
-        <v>715</v>
+        <v>642</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -5269,7 +5323,7 @@
         <v>182</v>
       </c>
       <c r="AB4" t="s">
-        <v>432</v>
+        <v>373</v>
       </c>
       <c r="AC4" s="26" t="s">
         <v>183</v>
@@ -5282,17 +5336,17 @@
         <v>158</v>
       </c>
       <c r="AG4" t="s">
-        <v>907</v>
+        <v>937</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>814</v>
+        <v>936</v>
       </c>
       <c r="AJ4" t="s">
-        <v>814</v>
+        <v>936</v>
       </c>
       <c r="AK4" t="s">
-        <v>814</v>
+        <v>936</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -5379,7 +5433,7 @@
         <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>173</v>
@@ -5392,17 +5446,17 @@
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>909</v>
+        <v>926</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>908</v>
+        <v>925</v>
       </c>
       <c r="AJ5" t="s">
-        <v>908</v>
+        <v>925</v>
       </c>
       <c r="AK5" t="s">
-        <v>908</v>
+        <v>925</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -6014,7 +6068,7 @@
         <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>912</v>
+        <v>927</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -6065,7 +6119,7 @@
       </c>
       <c r="Z12" s="31"/>
       <c r="AB12" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AD12" t="s">
         <v>360</v>
@@ -6074,7 +6128,7 @@
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>913</v>
+        <v>928</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -6132,7 +6186,7 @@
         <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>914</v>
+        <v>929</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -6206,7 +6260,7 @@
         <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>915</v>
+        <v>930</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -6274,7 +6328,7 @@
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>905</v>
+        <v>922</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>253</v>
@@ -6472,7 +6526,7 @@
         <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>906</v>
+        <v>923</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>298</v>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3499" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4234" uniqueCount="1064">
   <si>
     <t>PUId</t>
   </si>
@@ -2946,6 +2946,384 @@
   </si>
   <si>
     <t>10223388</t>
+  </si>
+  <si>
+    <t>23:25</t>
+  </si>
+  <si>
+    <t>10224407</t>
+  </si>
+  <si>
+    <t>10224412</t>
+  </si>
+  <si>
+    <t>10224414</t>
+  </si>
+  <si>
+    <t>10224512</t>
+  </si>
+  <si>
+    <t>10224593</t>
+  </si>
+  <si>
+    <t>10224606</t>
+  </si>
+  <si>
+    <t>136413806</t>
+  </si>
+  <si>
+    <t>33406860</t>
+  </si>
+  <si>
+    <t>10224384</t>
+  </si>
+  <si>
+    <t>136413817</t>
+  </si>
+  <si>
+    <t>10224714</t>
+  </si>
+  <si>
+    <t>10224716</t>
+  </si>
+  <si>
+    <t>10224717</t>
+  </si>
+  <si>
+    <t>10224721</t>
+  </si>
+  <si>
+    <t>01:33</t>
+  </si>
+  <si>
+    <t>10225016</t>
+  </si>
+  <si>
+    <t>01:46</t>
+  </si>
+  <si>
+    <t>10225019</t>
+  </si>
+  <si>
+    <t>01:55</t>
+  </si>
+  <si>
+    <t>10225023</t>
+  </si>
+  <si>
+    <t>10225025</t>
+  </si>
+  <si>
+    <t>10225027</t>
+  </si>
+  <si>
+    <t>10225031</t>
+  </si>
+  <si>
+    <t>10225034</t>
+  </si>
+  <si>
+    <t>136422198</t>
+  </si>
+  <si>
+    <t>33407483</t>
+  </si>
+  <si>
+    <t>10225007</t>
+  </si>
+  <si>
+    <t>136422202</t>
+  </si>
+  <si>
+    <t>10225077</t>
+  </si>
+  <si>
+    <t>10225083</t>
+  </si>
+  <si>
+    <t>10225088</t>
+  </si>
+  <si>
+    <t>10225089</t>
+  </si>
+  <si>
+    <t>10225105</t>
+  </si>
+  <si>
+    <t>10225106</t>
+  </si>
+  <si>
+    <t>10225107</t>
+  </si>
+  <si>
+    <t>10225108</t>
+  </si>
+  <si>
+    <t>10225153</t>
+  </si>
+  <si>
+    <t>10225156</t>
+  </si>
+  <si>
+    <t>10225158</t>
+  </si>
+  <si>
+    <t>00:07</t>
+  </si>
+  <si>
+    <t>10225160</t>
+  </si>
+  <si>
+    <t>10225162</t>
+  </si>
+  <si>
+    <t>10225164</t>
+  </si>
+  <si>
+    <t>10225170</t>
+  </si>
+  <si>
+    <t>10225171</t>
+  </si>
+  <si>
+    <t>10225172</t>
+  </si>
+  <si>
+    <t>00:20</t>
+  </si>
+  <si>
+    <t>10228615</t>
+  </si>
+  <si>
+    <t>10228630</t>
+  </si>
+  <si>
+    <t>10228632</t>
+  </si>
+  <si>
+    <t>01:45</t>
+  </si>
+  <si>
+    <t>10228637</t>
+  </si>
+  <si>
+    <t>10228642</t>
+  </si>
+  <si>
+    <t>10228650</t>
+  </si>
+  <si>
+    <t>10228664</t>
+  </si>
+  <si>
+    <t>10228676</t>
+  </si>
+  <si>
+    <t>136463867</t>
+  </si>
+  <si>
+    <t>33411006</t>
+  </si>
+  <si>
+    <t>10228518</t>
+  </si>
+  <si>
+    <t>136463878</t>
+  </si>
+  <si>
+    <t>23:51</t>
+  </si>
+  <si>
+    <t>10229280</t>
+  </si>
+  <si>
+    <t>01:02</t>
+  </si>
+  <si>
+    <t>10229310</t>
+  </si>
+  <si>
+    <t>10229389</t>
+  </si>
+  <si>
+    <t>10229394</t>
+  </si>
+  <si>
+    <t>10229399</t>
+  </si>
+  <si>
+    <t>01:53</t>
+  </si>
+  <si>
+    <t>10229400</t>
+  </si>
+  <si>
+    <t>10229410</t>
+  </si>
+  <si>
+    <t>10229421</t>
+  </si>
+  <si>
+    <t>10229429</t>
+  </si>
+  <si>
+    <t>10229436</t>
+  </si>
+  <si>
+    <t>136473097</t>
+  </si>
+  <si>
+    <t>33411761</t>
+  </si>
+  <si>
+    <t>10229273</t>
+  </si>
+  <si>
+    <t>136473101</t>
+  </si>
+  <si>
+    <t>07:43</t>
+  </si>
+  <si>
+    <t>10230265</t>
+  </si>
+  <si>
+    <t>10230268</t>
+  </si>
+  <si>
+    <t>10230291</t>
+  </si>
+  <si>
+    <t>00:19</t>
+  </si>
+  <si>
+    <t>10230533</t>
+  </si>
+  <si>
+    <t>10230536</t>
+  </si>
+  <si>
+    <t>01:42</t>
+  </si>
+  <si>
+    <t>10230537</t>
+  </si>
+  <si>
+    <t>10230542</t>
+  </si>
+  <si>
+    <t>10230543</t>
+  </si>
+  <si>
+    <t>10230557</t>
+  </si>
+  <si>
+    <t>10230564</t>
+  </si>
+  <si>
+    <t>136489285</t>
+  </si>
+  <si>
+    <t>33412935</t>
+  </si>
+  <si>
+    <t>10230429</t>
+  </si>
+  <si>
+    <t>136489296</t>
+  </si>
+  <si>
+    <t>04:56</t>
+  </si>
+  <si>
+    <t>10230649</t>
+  </si>
+  <si>
+    <t>23:14</t>
+  </si>
+  <si>
+    <t>10232520</t>
+  </si>
+  <si>
+    <t>10232521</t>
+  </si>
+  <si>
+    <t>10232523</t>
+  </si>
+  <si>
+    <t>10232524</t>
+  </si>
+  <si>
+    <t>10232525</t>
+  </si>
+  <si>
+    <t>10232620</t>
+  </si>
+  <si>
+    <t>10232622</t>
+  </si>
+  <si>
+    <t>10232623</t>
+  </si>
+  <si>
+    <t>10232624</t>
+  </si>
+  <si>
+    <t>136512857</t>
+  </si>
+  <si>
+    <t>33415024</t>
+  </si>
+  <si>
+    <t>10232512</t>
+  </si>
+  <si>
+    <t>136512868</t>
+  </si>
+  <si>
+    <t>23:03</t>
+  </si>
+  <si>
+    <t>10233282</t>
+  </si>
+  <si>
+    <t>00:10</t>
+  </si>
+  <si>
+    <t>10233302</t>
+  </si>
+  <si>
+    <t>10233304</t>
+  </si>
+  <si>
+    <t>10233307</t>
+  </si>
+  <si>
+    <t>10233311</t>
+  </si>
+  <si>
+    <t>10233319</t>
+  </si>
+  <si>
+    <t>10233349</t>
+  </si>
+  <si>
+    <t>10233417</t>
+  </si>
+  <si>
+    <t>136522320</t>
+  </si>
+  <si>
+    <t>33415812</t>
+  </si>
+  <si>
+    <t>10233294</t>
+  </si>
+  <si>
+    <t>136522331</t>
+  </si>
+  <si>
+    <t>10233419</t>
   </si>
 </sst>
 </file>
@@ -4849,16 +5227,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>931</v>
+        <v>1059</v>
       </c>
       <c r="C2" t="s">
-        <v>932</v>
+        <v>1060</v>
       </c>
       <c r="D2" t="s">
-        <v>933</v>
+        <v>1061</v>
       </c>
       <c r="E2" t="s">
-        <v>934</v>
+        <v>1062</v>
       </c>
     </row>
   </sheetData>
@@ -5120,17 +5498,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>922</v>
+        <v>1050</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>921</v>
+        <v>1049</v>
       </c>
       <c r="AJ2" t="s">
-        <v>921</v>
+        <v>1049</v>
       </c>
       <c r="AK2" t="s">
-        <v>921</v>
+        <v>1049</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -5230,17 +5608,17 @@
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>923</v>
+        <v>1052</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>642</v>
+        <v>1051</v>
       </c>
       <c r="AJ3" t="s">
-        <v>642</v>
+        <v>1051</v>
       </c>
       <c r="AK3" t="s">
-        <v>642</v>
+        <v>1051</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -5336,17 +5714,17 @@
         <v>158</v>
       </c>
       <c r="AG4" t="s">
-        <v>937</v>
+        <v>1053</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>936</v>
+        <v>985</v>
       </c>
       <c r="AJ4" t="s">
-        <v>936</v>
+        <v>985</v>
       </c>
       <c r="AK4" t="s">
-        <v>936</v>
+        <v>985</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -5433,7 +5811,7 @@
         <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>173</v>
@@ -5446,17 +5824,17 @@
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>926</v>
+        <v>1054</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>925</v>
+        <v>693</v>
       </c>
       <c r="AJ5" t="s">
-        <v>925</v>
+        <v>693</v>
       </c>
       <c r="AK5" t="s">
-        <v>925</v>
+        <v>693</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -6068,7 +6446,7 @@
         <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>927</v>
+        <v>1056</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -6128,7 +6506,7 @@
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>928</v>
+        <v>1057</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -6186,7 +6564,7 @@
         <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>929</v>
+        <v>1063</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -6260,7 +6638,7 @@
         <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>930</v>
+        <v>1058</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -6328,7 +6706,7 @@
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>922</v>
+        <v>1050</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>253</v>
@@ -6526,7 +6904,7 @@
         <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>923</v>
+        <v>1052</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>298</v>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4234" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4388" uniqueCount="1092">
   <si>
     <t>PUId</t>
   </si>
@@ -3324,6 +3324,90 @@
   </si>
   <si>
     <t>10233419</t>
+  </si>
+  <si>
+    <t>23:07</t>
+  </si>
+  <si>
+    <t>10234091</t>
+  </si>
+  <si>
+    <t>00:14</t>
+  </si>
+  <si>
+    <t>10234108</t>
+  </si>
+  <si>
+    <t>00:24</t>
+  </si>
+  <si>
+    <t>00:28</t>
+  </si>
+  <si>
+    <t>10234115</t>
+  </si>
+  <si>
+    <t>10234116</t>
+  </si>
+  <si>
+    <t>10234121</t>
+  </si>
+  <si>
+    <t>10234212</t>
+  </si>
+  <si>
+    <t>10234214</t>
+  </si>
+  <si>
+    <t>10234216</t>
+  </si>
+  <si>
+    <t>136532103</t>
+  </si>
+  <si>
+    <t>33416625</t>
+  </si>
+  <si>
+    <t>10234101</t>
+  </si>
+  <si>
+    <t>136532114</t>
+  </si>
+  <si>
+    <t>10234686</t>
+  </si>
+  <si>
+    <t>10234687</t>
+  </si>
+  <si>
+    <t>10234689</t>
+  </si>
+  <si>
+    <t>10234691</t>
+  </si>
+  <si>
+    <t>10234708</t>
+  </si>
+  <si>
+    <t>10234710</t>
+  </si>
+  <si>
+    <t>10234717</t>
+  </si>
+  <si>
+    <t>10234718</t>
+  </si>
+  <si>
+    <t>136546157</t>
+  </si>
+  <si>
+    <t>33417596</t>
+  </si>
+  <si>
+    <t>10234701</t>
+  </si>
+  <si>
+    <t>136546168</t>
   </si>
 </sst>
 </file>
@@ -5227,16 +5311,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="C2" t="s">
-        <v>1060</v>
+        <v>1089</v>
       </c>
       <c r="D2" t="s">
-        <v>1061</v>
+        <v>1090</v>
       </c>
       <c r="E2" t="s">
-        <v>1062</v>
+        <v>1091</v>
       </c>
     </row>
   </sheetData>
@@ -5483,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>154</v>
+        <v>613</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -5498,17 +5582,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>1050</v>
+        <v>1080</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>1049</v>
+        <v>477</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1049</v>
+        <v>477</v>
       </c>
       <c r="AK2" t="s">
-        <v>1049</v>
+        <v>477</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -5595,7 +5679,7 @@
         <v>172</v>
       </c>
       <c r="AB3" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>173</v>
@@ -5608,17 +5692,17 @@
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>1052</v>
+        <v>1081</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>1051</v>
+        <v>740</v>
       </c>
       <c r="AJ3" t="s">
-        <v>1051</v>
+        <v>740</v>
       </c>
       <c r="AK3" t="s">
-        <v>1051</v>
+        <v>740</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -5714,17 +5798,17 @@
         <v>158</v>
       </c>
       <c r="AG4" t="s">
-        <v>1053</v>
+        <v>1082</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>985</v>
+        <v>864</v>
       </c>
       <c r="AJ4" t="s">
-        <v>985</v>
+        <v>864</v>
       </c>
       <c r="AK4" t="s">
-        <v>985</v>
+        <v>864</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -5824,17 +5908,17 @@
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>1054</v>
+        <v>1083</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="AJ5" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="AK5" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -6446,7 +6530,7 @@
         <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>1056</v>
+        <v>1084</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -6506,7 +6590,7 @@
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>1057</v>
+        <v>1085</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -6564,7 +6648,7 @@
         <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>1063</v>
+        <v>1086</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -6638,7 +6722,7 @@
         <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -6706,7 +6790,7 @@
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>1050</v>
+        <v>1080</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>253</v>
@@ -6904,7 +6988,7 @@
         <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>1052</v>
+        <v>1081</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>298</v>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4388" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4457" uniqueCount="1103">
   <si>
     <t>PUId</t>
   </si>
@@ -3408,6 +3408,39 @@
   </si>
   <si>
     <t>136546168</t>
+  </si>
+  <si>
+    <t>23:40</t>
+  </si>
+  <si>
+    <t>10235404</t>
+  </si>
+  <si>
+    <t>10235405</t>
+  </si>
+  <si>
+    <t>136554121</t>
+  </si>
+  <si>
+    <t>33418297</t>
+  </si>
+  <si>
+    <t>10235396</t>
+  </si>
+  <si>
+    <t>136554132</t>
+  </si>
+  <si>
+    <t>10235692</t>
+  </si>
+  <si>
+    <t>10235719</t>
+  </si>
+  <si>
+    <t>10235723</t>
+  </si>
+  <si>
+    <t>10235725</t>
   </si>
 </sst>
 </file>
@@ -5311,16 +5344,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>1088</v>
+        <v>1095</v>
       </c>
       <c r="C2" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="D2" t="s">
-        <v>1090</v>
+        <v>1097</v>
       </c>
       <c r="E2" t="s">
-        <v>1091</v>
+        <v>1098</v>
       </c>
     </row>
   </sheetData>
@@ -5582,17 +5615,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>1080</v>
+        <v>1093</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>477</v>
+        <v>1092</v>
       </c>
       <c r="AJ2" t="s">
-        <v>477</v>
+        <v>1092</v>
       </c>
       <c r="AK2" t="s">
-        <v>477</v>
+        <v>1092</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -5679,7 +5712,7 @@
         <v>172</v>
       </c>
       <c r="AB3" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>173</v>
@@ -5692,17 +5725,17 @@
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>1081</v>
+        <v>1094</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>740</v>
+        <v>465</v>
       </c>
       <c r="AJ3" t="s">
-        <v>740</v>
+        <v>465</v>
       </c>
       <c r="AK3" t="s">
-        <v>740</v>
+        <v>465</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -6530,7 +6563,7 @@
         <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>1084</v>
+        <v>1102</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -6590,7 +6623,7 @@
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>1085</v>
+        <v>1099</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -6648,7 +6681,7 @@
         <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>1086</v>
+        <v>1100</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -6722,7 +6755,7 @@
         <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>1087</v>
+        <v>1101</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -6790,7 +6823,7 @@
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>1080</v>
+        <v>1093</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>253</v>
@@ -6832,7 +6865,7 @@
         <v>257</v>
       </c>
       <c r="F4" t="s">
-        <v>293</v>
+        <v>786</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="51">
@@ -6988,7 +7021,7 @@
         <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>1081</v>
+        <v>1094</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>298</v>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4457" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4588" uniqueCount="1129">
   <si>
     <t>PUId</t>
   </si>
@@ -3441,6 +3441,84 @@
   </si>
   <si>
     <t>10235725</t>
+  </si>
+  <si>
+    <t>10237937</t>
+  </si>
+  <si>
+    <t>02:48</t>
+  </si>
+  <si>
+    <t>10237954</t>
+  </si>
+  <si>
+    <t>10237958</t>
+  </si>
+  <si>
+    <t>04:07</t>
+  </si>
+  <si>
+    <t>04:11</t>
+  </si>
+  <si>
+    <t>10237964</t>
+  </si>
+  <si>
+    <t>10237970</t>
+  </si>
+  <si>
+    <t>10237976</t>
+  </si>
+  <si>
+    <t>10237977</t>
+  </si>
+  <si>
+    <t>136578121</t>
+  </si>
+  <si>
+    <t>33420632</t>
+  </si>
+  <si>
+    <t>10237719</t>
+  </si>
+  <si>
+    <t>136578132</t>
+  </si>
+  <si>
+    <t>10237979</t>
+  </si>
+  <si>
+    <t>05:19</t>
+  </si>
+  <si>
+    <t>10237998</t>
+  </si>
+  <si>
+    <t>10238001</t>
+  </si>
+  <si>
+    <t>08:06</t>
+  </si>
+  <si>
+    <t>09:18</t>
+  </si>
+  <si>
+    <t>10238496</t>
+  </si>
+  <si>
+    <t>10238538</t>
+  </si>
+  <si>
+    <t>11:13</t>
+  </si>
+  <si>
+    <t>10238539</t>
+  </si>
+  <si>
+    <t>11:29</t>
+  </si>
+  <si>
+    <t>10238540</t>
   </si>
 </sst>
 </file>
@@ -5344,16 +5422,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>1095</v>
+        <v>1113</v>
       </c>
       <c r="C2" t="s">
-        <v>1096</v>
+        <v>1114</v>
       </c>
       <c r="D2" t="s">
-        <v>1097</v>
+        <v>1115</v>
       </c>
       <c r="E2" t="s">
-        <v>1098</v>
+        <v>1116</v>
       </c>
     </row>
   </sheetData>
@@ -5600,7 +5678,7 @@
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>613</v>
+        <v>154</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -5615,17 +5693,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>1093</v>
+        <v>1105</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="AK2" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -5712,7 +5790,7 @@
         <v>172</v>
       </c>
       <c r="AB3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>173</v>
@@ -5725,17 +5803,17 @@
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>1094</v>
+        <v>1106</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>465</v>
+        <v>577</v>
       </c>
       <c r="AJ3" t="s">
-        <v>465</v>
+        <v>577</v>
       </c>
       <c r="AK3" t="s">
-        <v>465</v>
+        <v>577</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -5828,20 +5906,20 @@
       </c>
       <c r="AE4" s="26"/>
       <c r="AF4" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AG4" t="s">
-        <v>1082</v>
+        <v>1128</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>864</v>
+        <v>1127</v>
       </c>
       <c r="AJ4" t="s">
-        <v>864</v>
+        <v>1127</v>
       </c>
       <c r="AK4" t="s">
-        <v>864</v>
+        <v>1127</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -5928,7 +6006,7 @@
         <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>173</v>
@@ -5941,17 +6019,17 @@
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>1083</v>
+        <v>1109</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>689</v>
+        <v>1108</v>
       </c>
       <c r="AJ5" t="s">
-        <v>689</v>
+        <v>1108</v>
       </c>
       <c r="AK5" t="s">
-        <v>689</v>
+        <v>1108</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -6563,7 +6641,7 @@
         <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>1102</v>
+        <v>1123</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -6623,7 +6701,7 @@
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>1099</v>
+        <v>1110</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -6672,7 +6750,7 @@
       </c>
       <c r="Z13" s="31"/>
       <c r="AB13" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="AD13" t="s">
         <v>707</v>
@@ -6681,7 +6759,7 @@
         <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>1100</v>
+        <v>1111</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -6755,7 +6833,7 @@
         <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>1101</v>
+        <v>1112</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -6823,7 +6901,7 @@
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>1093</v>
+        <v>1105</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>253</v>
@@ -6865,7 +6943,7 @@
         <v>257</v>
       </c>
       <c r="F4" t="s">
-        <v>786</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="51">
@@ -7021,7 +7099,7 @@
         <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>1094</v>
+        <v>1106</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>298</v>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4588" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4763" uniqueCount="1158">
   <si>
     <t>PUId</t>
   </si>
@@ -3519,6 +3519,93 @@
   </si>
   <si>
     <t>10238540</t>
+  </si>
+  <si>
+    <t>23:13</t>
+  </si>
+  <si>
+    <t>10238683</t>
+  </si>
+  <si>
+    <t>10238684</t>
+  </si>
+  <si>
+    <t>00:30</t>
+  </si>
+  <si>
+    <t>10238685</t>
+  </si>
+  <si>
+    <t>10238686</t>
+  </si>
+  <si>
+    <t>10238716</t>
+  </si>
+  <si>
+    <t>10238717</t>
+  </si>
+  <si>
+    <t>136588074</t>
+  </si>
+  <si>
+    <t>33421600</t>
+  </si>
+  <si>
+    <t>10238675</t>
+  </si>
+  <si>
+    <t>136588085</t>
+  </si>
+  <si>
+    <t>10238786</t>
+  </si>
+  <si>
+    <t>10238829</t>
+  </si>
+  <si>
+    <t>10238875</t>
+  </si>
+  <si>
+    <t>10238877</t>
+  </si>
+  <si>
+    <t>02:31</t>
+  </si>
+  <si>
+    <t>10238879</t>
+  </si>
+  <si>
+    <t>02:36</t>
+  </si>
+  <si>
+    <t>10238884</t>
+  </si>
+  <si>
+    <t>10238885</t>
+  </si>
+  <si>
+    <t>03:54</t>
+  </si>
+  <si>
+    <t>10238899</t>
+  </si>
+  <si>
+    <t>04:01</t>
+  </si>
+  <si>
+    <t>10238900</t>
+  </si>
+  <si>
+    <t>10238903</t>
+  </si>
+  <si>
+    <t>10238906</t>
+  </si>
+  <si>
+    <t>10238908</t>
+  </si>
+  <si>
+    <t>10238914</t>
   </si>
 </sst>
 </file>
@@ -5422,16 +5509,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>1113</v>
+        <v>1137</v>
       </c>
       <c r="C2" t="s">
-        <v>1114</v>
+        <v>1138</v>
       </c>
       <c r="D2" t="s">
-        <v>1115</v>
+        <v>1139</v>
       </c>
       <c r="E2" t="s">
-        <v>1116</v>
+        <v>1140</v>
       </c>
     </row>
   </sheetData>
@@ -5693,17 +5780,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>1105</v>
+        <v>1148</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>1104</v>
+        <v>1147</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1104</v>
+        <v>1147</v>
       </c>
       <c r="AK2" t="s">
-        <v>1104</v>
+        <v>1147</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -5790,7 +5877,7 @@
         <v>172</v>
       </c>
       <c r="AB3" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>173</v>
@@ -5803,17 +5890,17 @@
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>1106</v>
+        <v>1149</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>577</v>
+        <v>793</v>
       </c>
       <c r="AJ3" t="s">
-        <v>577</v>
+        <v>793</v>
       </c>
       <c r="AK3" t="s">
-        <v>577</v>
+        <v>793</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -5906,20 +5993,20 @@
       </c>
       <c r="AE4" s="26"/>
       <c r="AF4" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="AG4" t="s">
-        <v>1128</v>
+        <v>1151</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>1127</v>
+        <v>1150</v>
       </c>
       <c r="AJ4" t="s">
-        <v>1127</v>
+        <v>1150</v>
       </c>
       <c r="AK4" t="s">
-        <v>1127</v>
+        <v>1150</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -6019,17 +6106,17 @@
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>1109</v>
+        <v>1153</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>1108</v>
+        <v>1152</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1108</v>
+        <v>1152</v>
       </c>
       <c r="AK5" t="s">
-        <v>1108</v>
+        <v>1152</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -6641,7 +6728,7 @@
         <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>1123</v>
+        <v>1157</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -6701,7 +6788,7 @@
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>1110</v>
+        <v>1154</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -6750,7 +6837,7 @@
       </c>
       <c r="Z13" s="31"/>
       <c r="AB13" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="AD13" t="s">
         <v>707</v>
@@ -6759,7 +6846,7 @@
         <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>1111</v>
+        <v>1155</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -6822,7 +6909,7 @@
       <c r="Z14" s="60"/>
       <c r="AA14" s="59"/>
       <c r="AB14" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="AC14" s="59"/>
       <c r="AD14" t="s">
@@ -6833,7 +6920,7 @@
         <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>1112</v>
+        <v>1156</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -6901,7 +6988,7 @@
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>1105</v>
+        <v>1148</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>253</v>
@@ -7099,7 +7186,7 @@
         <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>1106</v>
+        <v>1149</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>298</v>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4763" uniqueCount="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4995" uniqueCount="1196">
   <si>
     <t>PUId</t>
   </si>
@@ -3606,6 +3606,120 @@
   </si>
   <si>
     <t>10238914</t>
+  </si>
+  <si>
+    <t>00:37</t>
+  </si>
+  <si>
+    <t>10239783</t>
+  </si>
+  <si>
+    <t>01:44</t>
+  </si>
+  <si>
+    <t>10239785</t>
+  </si>
+  <si>
+    <t>01:57</t>
+  </si>
+  <si>
+    <t>10239790</t>
+  </si>
+  <si>
+    <t>10239791</t>
+  </si>
+  <si>
+    <t>10239820</t>
+  </si>
+  <si>
+    <t>10239867</t>
+  </si>
+  <si>
+    <t>10239876</t>
+  </si>
+  <si>
+    <t>10239880</t>
+  </si>
+  <si>
+    <t>03:15</t>
+  </si>
+  <si>
+    <t>03:26</t>
+  </si>
+  <si>
+    <t>10239888</t>
+  </si>
+  <si>
+    <t>04:34</t>
+  </si>
+  <si>
+    <t>10239894</t>
+  </si>
+  <si>
+    <t>04:51</t>
+  </si>
+  <si>
+    <t>10239904</t>
+  </si>
+  <si>
+    <t>05:03</t>
+  </si>
+  <si>
+    <t>10239910</t>
+  </si>
+  <si>
+    <t>05:16</t>
+  </si>
+  <si>
+    <t>10239913</t>
+  </si>
+  <si>
+    <t>05:24</t>
+  </si>
+  <si>
+    <t>10239920</t>
+  </si>
+  <si>
+    <t>10239975</t>
+  </si>
+  <si>
+    <t>10239988</t>
+  </si>
+  <si>
+    <t>08:09</t>
+  </si>
+  <si>
+    <t>10240140</t>
+  </si>
+  <si>
+    <t>08:59</t>
+  </si>
+  <si>
+    <t>10240182</t>
+  </si>
+  <si>
+    <t>10240197</t>
+  </si>
+  <si>
+    <t>10240204</t>
+  </si>
+  <si>
+    <t>10240218</t>
+  </si>
+  <si>
+    <t>136598488</t>
+  </si>
+  <si>
+    <t>33422614</t>
+  </si>
+  <si>
+    <t>10239676</t>
+  </si>
+  <si>
+    <t>136598499</t>
+  </si>
+  <si>
+    <t>10240223</t>
   </si>
 </sst>
 </file>
@@ -5509,16 +5623,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>1137</v>
+        <v>1191</v>
       </c>
       <c r="C2" t="s">
-        <v>1138</v>
+        <v>1192</v>
       </c>
       <c r="D2" t="s">
-        <v>1139</v>
+        <v>1193</v>
       </c>
       <c r="E2" t="s">
-        <v>1140</v>
+        <v>1194</v>
       </c>
     </row>
   </sheetData>
@@ -5780,17 +5894,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>1148</v>
+        <v>1171</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>1147</v>
+        <v>1170</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1147</v>
+        <v>1170</v>
       </c>
       <c r="AK2" t="s">
-        <v>1147</v>
+        <v>1170</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -5877,7 +5991,7 @@
         <v>172</v>
       </c>
       <c r="AB3" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>173</v>
@@ -5887,20 +6001,20 @@
       </c>
       <c r="AE3" s="26"/>
       <c r="AF3" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AG3" t="s">
-        <v>1149</v>
+        <v>1177</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>793</v>
+        <v>1176</v>
       </c>
       <c r="AJ3" t="s">
-        <v>793</v>
+        <v>1176</v>
       </c>
       <c r="AK3" t="s">
-        <v>793</v>
+        <v>1176</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -5983,7 +6097,7 @@
         <v>182</v>
       </c>
       <c r="AB4" t="s">
-        <v>373</v>
+        <v>432</v>
       </c>
       <c r="AC4" s="26" t="s">
         <v>183</v>
@@ -5993,20 +6107,20 @@
       </c>
       <c r="AE4" s="26"/>
       <c r="AF4" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AG4" t="s">
-        <v>1151</v>
+        <v>1179</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>1150</v>
+        <v>1178</v>
       </c>
       <c r="AJ4" t="s">
-        <v>1150</v>
+        <v>1178</v>
       </c>
       <c r="AK4" t="s">
-        <v>1150</v>
+        <v>1178</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -6093,7 +6207,7 @@
         <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>173</v>
@@ -6103,20 +6217,20 @@
       </c>
       <c r="AE5" s="26"/>
       <c r="AF5" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AG5" t="s">
-        <v>1153</v>
+        <v>1187</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>1152</v>
+        <v>1186</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1152</v>
+        <v>1186</v>
       </c>
       <c r="AK5" t="s">
-        <v>1152</v>
+        <v>1186</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -6725,10 +6839,10 @@
       </c>
       <c r="AE11" s="28"/>
       <c r="AF11" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AG11" t="s">
-        <v>1157</v>
+        <v>1195</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -6785,10 +6899,10 @@
         <v>360</v>
       </c>
       <c r="AF12" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AG12" t="s">
-        <v>1154</v>
+        <v>1188</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -6837,16 +6951,16 @@
       </c>
       <c r="Z13" s="31"/>
       <c r="AB13" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="AD13" t="s">
         <v>707</v>
       </c>
       <c r="AF13" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AG13" t="s">
-        <v>1155</v>
+        <v>1189</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -6909,7 +7023,7 @@
       <c r="Z14" s="60"/>
       <c r="AA14" s="59"/>
       <c r="AB14" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AC14" s="59"/>
       <c r="AD14" t="s">
@@ -6917,10 +7031,10 @@
       </c>
       <c r="AE14" s="59"/>
       <c r="AF14" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AG14" t="s">
-        <v>1156</v>
+        <v>1190</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -6988,7 +7102,7 @@
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>1148</v>
+        <v>1171</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>253</v>
@@ -7186,7 +7300,7 @@
         <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>1149</v>
+        <v>1177</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>298</v>
@@ -7264,7 +7378,7 @@
         <v>302</v>
       </c>
       <c r="F17" t="s">
-        <v>293</v>
+        <v>786</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="89.25">

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4995" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5316" uniqueCount="1270">
   <si>
     <t>PUId</t>
   </si>
@@ -3720,6 +3720,228 @@
   </si>
   <si>
     <t>10240223</t>
+  </si>
+  <si>
+    <t>10240381</t>
+  </si>
+  <si>
+    <t>136606488</t>
+  </si>
+  <si>
+    <t>33423313</t>
+  </si>
+  <si>
+    <t>10240369</t>
+  </si>
+  <si>
+    <t>136606499</t>
+  </si>
+  <si>
+    <t>05:55</t>
+  </si>
+  <si>
+    <t>10240750</t>
+  </si>
+  <si>
+    <t>07:01</t>
+  </si>
+  <si>
+    <t>10240763</t>
+  </si>
+  <si>
+    <t>07:14</t>
+  </si>
+  <si>
+    <t>10240776</t>
+  </si>
+  <si>
+    <t>10240780</t>
+  </si>
+  <si>
+    <t>10241274</t>
+  </si>
+  <si>
+    <t>02:51</t>
+  </si>
+  <si>
+    <t>10241287</t>
+  </si>
+  <si>
+    <t>03:04</t>
+  </si>
+  <si>
+    <t>10241321</t>
+  </si>
+  <si>
+    <t>03:12</t>
+  </si>
+  <si>
+    <t>10241328</t>
+  </si>
+  <si>
+    <t>10241332</t>
+  </si>
+  <si>
+    <t>10241343</t>
+  </si>
+  <si>
+    <t>10241346</t>
+  </si>
+  <si>
+    <t>136615068</t>
+  </si>
+  <si>
+    <t>33424075</t>
+  </si>
+  <si>
+    <t>10241124</t>
+  </si>
+  <si>
+    <t>136615079</t>
+  </si>
+  <si>
+    <t>10244541</t>
+  </si>
+  <si>
+    <t>10244542</t>
+  </si>
+  <si>
+    <t>10244545</t>
+  </si>
+  <si>
+    <t>10244549</t>
+  </si>
+  <si>
+    <t>136648350</t>
+  </si>
+  <si>
+    <t>33427317</t>
+  </si>
+  <si>
+    <t>10244348</t>
+  </si>
+  <si>
+    <t>136648361</t>
+  </si>
+  <si>
+    <t>10246046</t>
+  </si>
+  <si>
+    <t>136665568</t>
+  </si>
+  <si>
+    <t>33428919</t>
+  </si>
+  <si>
+    <t>10245938</t>
+  </si>
+  <si>
+    <t>136665579</t>
+  </si>
+  <si>
+    <t>10246810</t>
+  </si>
+  <si>
+    <t>136673543</t>
+  </si>
+  <si>
+    <t>33429610</t>
+  </si>
+  <si>
+    <t>10246622</t>
+  </si>
+  <si>
+    <t>136673554</t>
+  </si>
+  <si>
+    <t>10249106</t>
+  </si>
+  <si>
+    <t>136697945</t>
+  </si>
+  <si>
+    <t>33432000</t>
+  </si>
+  <si>
+    <t>10249000</t>
+  </si>
+  <si>
+    <t>136697956</t>
+  </si>
+  <si>
+    <t>10254631</t>
+  </si>
+  <si>
+    <t>136755641</t>
+  </si>
+  <si>
+    <t>33437503</t>
+  </si>
+  <si>
+    <t>10254461</t>
+  </si>
+  <si>
+    <t>136755652</t>
+  </si>
+  <si>
+    <t>10256096</t>
+  </si>
+  <si>
+    <t>136770590</t>
+  </si>
+  <si>
+    <t>33438808</t>
+  </si>
+  <si>
+    <t>10255743</t>
+  </si>
+  <si>
+    <t>136770604</t>
+  </si>
+  <si>
+    <t>10256152</t>
+  </si>
+  <si>
+    <t>04:15</t>
+  </si>
+  <si>
+    <t>10256702</t>
+  </si>
+  <si>
+    <t>05:21</t>
+  </si>
+  <si>
+    <t>10256707</t>
+  </si>
+  <si>
+    <t>05:32</t>
+  </si>
+  <si>
+    <t>10256709</t>
+  </si>
+  <si>
+    <t>05:40</t>
+  </si>
+  <si>
+    <t>10256710</t>
+  </si>
+  <si>
+    <t>10256711</t>
+  </si>
+  <si>
+    <t>10256713</t>
+  </si>
+  <si>
+    <t>10256725</t>
+  </si>
+  <si>
+    <t>10256726</t>
+  </si>
+  <si>
+    <t>10256781</t>
+  </si>
+  <si>
+    <t>10256785</t>
   </si>
 </sst>
 </file>
@@ -5623,16 +5845,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>1191</v>
+        <v>1251</v>
       </c>
       <c r="C2" t="s">
-        <v>1192</v>
+        <v>1252</v>
       </c>
       <c r="D2" t="s">
-        <v>1193</v>
+        <v>1253</v>
       </c>
       <c r="E2" t="s">
-        <v>1194</v>
+        <v>1254</v>
       </c>
     </row>
   </sheetData>
@@ -5894,17 +6116,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>1171</v>
+        <v>1257</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>1170</v>
+        <v>1256</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1170</v>
+        <v>1256</v>
       </c>
       <c r="AK2" t="s">
-        <v>1170</v>
+        <v>1256</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -5991,7 +6213,7 @@
         <v>172</v>
       </c>
       <c r="AB3" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>173</v>
@@ -6001,20 +6223,20 @@
       </c>
       <c r="AE3" s="26"/>
       <c r="AF3" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>1177</v>
+        <v>1259</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>1176</v>
+        <v>1258</v>
       </c>
       <c r="AJ3" t="s">
-        <v>1176</v>
+        <v>1258</v>
       </c>
       <c r="AK3" t="s">
-        <v>1176</v>
+        <v>1258</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -6097,7 +6319,7 @@
         <v>182</v>
       </c>
       <c r="AB4" t="s">
-        <v>432</v>
+        <v>373</v>
       </c>
       <c r="AC4" s="26" t="s">
         <v>183</v>
@@ -6107,20 +6329,20 @@
       </c>
       <c r="AE4" s="26"/>
       <c r="AF4" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="AG4" t="s">
-        <v>1179</v>
+        <v>1261</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>1178</v>
+        <v>1260</v>
       </c>
       <c r="AJ4" t="s">
-        <v>1178</v>
+        <v>1260</v>
       </c>
       <c r="AK4" t="s">
-        <v>1178</v>
+        <v>1260</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -6207,7 +6429,7 @@
         <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>173</v>
@@ -6217,20 +6439,20 @@
       </c>
       <c r="AE5" s="26"/>
       <c r="AF5" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>1187</v>
+        <v>1263</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>1186</v>
+        <v>1262</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1186</v>
+        <v>1262</v>
       </c>
       <c r="AK5" t="s">
-        <v>1186</v>
+        <v>1262</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -6842,7 +7064,7 @@
         <v>184</v>
       </c>
       <c r="AG11" t="s">
-        <v>1195</v>
+        <v>1269</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -6893,16 +7115,16 @@
       </c>
       <c r="Z12" s="31"/>
       <c r="AB12" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="AD12" t="s">
         <v>360</v>
       </c>
       <c r="AF12" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>1188</v>
+        <v>1264</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -6951,16 +7173,16 @@
       </c>
       <c r="Z13" s="31"/>
       <c r="AB13" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="AD13" t="s">
         <v>707</v>
       </c>
       <c r="AF13" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>1189</v>
+        <v>1265</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -7031,10 +7253,10 @@
       </c>
       <c r="AE14" s="59"/>
       <c r="AF14" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>1190</v>
+        <v>1266</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -7102,7 +7324,7 @@
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>1171</v>
+        <v>1257</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>253</v>
@@ -7300,7 +7522,7 @@
         <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>1177</v>
+        <v>1259</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>298</v>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5316" uniqueCount="1270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5368" uniqueCount="1279">
   <si>
     <t>PUId</t>
   </si>
@@ -3942,6 +3942,33 @@
   </si>
   <si>
     <t>10256785</t>
+  </si>
+  <si>
+    <t>00:18</t>
+  </si>
+  <si>
+    <t>10257507</t>
+  </si>
+  <si>
+    <t>01:24</t>
+  </si>
+  <si>
+    <t>10257574</t>
+  </si>
+  <si>
+    <t>10257575</t>
+  </si>
+  <si>
+    <t>136788852</t>
+  </si>
+  <si>
+    <t>33440563</t>
+  </si>
+  <si>
+    <t>10257473</t>
+  </si>
+  <si>
+    <t>136788863</t>
   </si>
 </sst>
 </file>
@@ -5845,16 +5872,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>1251</v>
+        <v>1275</v>
       </c>
       <c r="C2" t="s">
-        <v>1252</v>
+        <v>1276</v>
       </c>
       <c r="D2" t="s">
-        <v>1253</v>
+        <v>1277</v>
       </c>
       <c r="E2" t="s">
-        <v>1254</v>
+        <v>1278</v>
       </c>
     </row>
   </sheetData>
@@ -6113,20 +6140,20 @@
         <v>157</v>
       </c>
       <c r="AF2" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AG2" t="s">
-        <v>1257</v>
+        <v>1271</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>1256</v>
+        <v>1270</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1256</v>
+        <v>1270</v>
       </c>
       <c r="AK2" t="s">
-        <v>1256</v>
+        <v>1270</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -6223,20 +6250,20 @@
       </c>
       <c r="AE3" s="26"/>
       <c r="AF3" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AG3" t="s">
-        <v>1259</v>
+        <v>1273</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>1258</v>
+        <v>1272</v>
       </c>
       <c r="AJ3" t="s">
-        <v>1258</v>
+        <v>1272</v>
       </c>
       <c r="AK3" t="s">
-        <v>1258</v>
+        <v>1272</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -7064,7 +7091,7 @@
         <v>184</v>
       </c>
       <c r="AG11" t="s">
-        <v>1269</v>
+        <v>1274</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -7324,7 +7351,7 @@
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>1257</v>
+        <v>1271</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>253</v>
@@ -7522,7 +7549,7 @@
         <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>1259</v>
+        <v>1273</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>298</v>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5368" uniqueCount="1279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5539" uniqueCount="1310">
   <si>
     <t>PUId</t>
   </si>
@@ -3969,6 +3969,99 @@
   </si>
   <si>
     <t>136788863</t>
+  </si>
+  <si>
+    <t>05:22</t>
+  </si>
+  <si>
+    <t>10258353</t>
+  </si>
+  <si>
+    <t>10258358</t>
+  </si>
+  <si>
+    <t>06:47</t>
+  </si>
+  <si>
+    <t>10258362</t>
+  </si>
+  <si>
+    <t>10258374</t>
+  </si>
+  <si>
+    <t>10258386</t>
+  </si>
+  <si>
+    <t>10258388</t>
+  </si>
+  <si>
+    <t>10258391</t>
+  </si>
+  <si>
+    <t>10258396</t>
+  </si>
+  <si>
+    <t>136795298</t>
+  </si>
+  <si>
+    <t>33441170</t>
+  </si>
+  <si>
+    <t>10258069</t>
+  </si>
+  <si>
+    <t>136795302</t>
+  </si>
+  <si>
+    <t>02:39</t>
+  </si>
+  <si>
+    <t>10261583</t>
+  </si>
+  <si>
+    <t>10261593</t>
+  </si>
+  <si>
+    <t>04:03</t>
+  </si>
+  <si>
+    <t>10261604</t>
+  </si>
+  <si>
+    <t>10261607</t>
+  </si>
+  <si>
+    <t>10261616</t>
+  </si>
+  <si>
+    <t>10261617</t>
+  </si>
+  <si>
+    <t>06:20</t>
+  </si>
+  <si>
+    <t>10261696</t>
+  </si>
+  <si>
+    <t>10261698</t>
+  </si>
+  <si>
+    <t>10261702</t>
+  </si>
+  <si>
+    <t>10261704</t>
+  </si>
+  <si>
+    <t>136832320</t>
+  </si>
+  <si>
+    <t>33444501</t>
+  </si>
+  <si>
+    <t>10261364</t>
+  </si>
+  <si>
+    <t>136832331</t>
   </si>
 </sst>
 </file>
@@ -5872,16 +5965,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>1275</v>
+        <v>1306</v>
       </c>
       <c r="C2" t="s">
-        <v>1276</v>
+        <v>1307</v>
       </c>
       <c r="D2" t="s">
-        <v>1277</v>
+        <v>1308</v>
       </c>
       <c r="E2" t="s">
-        <v>1278</v>
+        <v>1309</v>
       </c>
     </row>
   </sheetData>
@@ -6128,7 +6221,7 @@
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>154</v>
+        <v>613</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -6140,20 +6233,20 @@
         <v>157</v>
       </c>
       <c r="AF2" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>1271</v>
+        <v>1294</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>1270</v>
+        <v>1293</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1270</v>
+        <v>1293</v>
       </c>
       <c r="AK2" t="s">
-        <v>1270</v>
+        <v>1293</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -6250,20 +6343,20 @@
       </c>
       <c r="AE3" s="26"/>
       <c r="AF3" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>1273</v>
+        <v>1295</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>1272</v>
+        <v>492</v>
       </c>
       <c r="AJ3" t="s">
-        <v>1272</v>
+        <v>492</v>
       </c>
       <c r="AK3" t="s">
-        <v>1272</v>
+        <v>492</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -6346,7 +6439,7 @@
         <v>182</v>
       </c>
       <c r="AB4" t="s">
-        <v>373</v>
+        <v>432</v>
       </c>
       <c r="AC4" s="26" t="s">
         <v>183</v>
@@ -6359,17 +6452,17 @@
         <v>158</v>
       </c>
       <c r="AG4" t="s">
-        <v>1261</v>
+        <v>1302</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>1260</v>
+        <v>1301</v>
       </c>
       <c r="AJ4" t="s">
-        <v>1260</v>
+        <v>1301</v>
       </c>
       <c r="AK4" t="s">
-        <v>1260</v>
+        <v>1301</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -6456,7 +6549,7 @@
         <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>173</v>
@@ -6469,17 +6562,17 @@
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>1263</v>
+        <v>1297</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>1262</v>
+        <v>1296</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1262</v>
+        <v>1296</v>
       </c>
       <c r="AK5" t="s">
-        <v>1262</v>
+        <v>1296</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -7088,10 +7181,10 @@
       </c>
       <c r="AE11" s="28"/>
       <c r="AF11" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>1274</v>
+        <v>1305</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -7142,7 +7235,7 @@
       </c>
       <c r="Z12" s="31"/>
       <c r="AB12" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AD12" t="s">
         <v>360</v>
@@ -7151,7 +7244,7 @@
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>1264</v>
+        <v>1303</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -7209,7 +7302,7 @@
         <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>1265</v>
+        <v>1299</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -7283,7 +7376,7 @@
         <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>1266</v>
+        <v>1304</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -7351,7 +7444,7 @@
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>1271</v>
+        <v>1294</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>253</v>
@@ -7549,7 +7642,7 @@
         <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>1273</v>
+        <v>1295</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>298</v>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5539" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5622" uniqueCount="1324">
   <si>
     <t>PUId</t>
   </si>
@@ -4062,6 +4062,48 @@
   </si>
   <si>
     <t>136832331</t>
+  </si>
+  <si>
+    <t>10262084</t>
+  </si>
+  <si>
+    <t>01:43</t>
+  </si>
+  <si>
+    <t>10262092</t>
+  </si>
+  <si>
+    <t>10262104</t>
+  </si>
+  <si>
+    <t>10262110</t>
+  </si>
+  <si>
+    <t>10262150</t>
+  </si>
+  <si>
+    <t>10262154</t>
+  </si>
+  <si>
+    <t>10262208</t>
+  </si>
+  <si>
+    <t>10262211</t>
+  </si>
+  <si>
+    <t>10262213</t>
+  </si>
+  <si>
+    <t>136839363</t>
+  </si>
+  <si>
+    <t>33445083</t>
+  </si>
+  <si>
+    <t>10261940</t>
+  </si>
+  <si>
+    <t>136839374</t>
   </si>
 </sst>
 </file>
@@ -5965,16 +6007,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>1306</v>
+        <v>1320</v>
       </c>
       <c r="C2" t="s">
-        <v>1307</v>
+        <v>1321</v>
       </c>
       <c r="D2" t="s">
-        <v>1308</v>
+        <v>1322</v>
       </c>
       <c r="E2" t="s">
-        <v>1309</v>
+        <v>1323</v>
       </c>
     </row>
   </sheetData>
@@ -6221,7 +6263,7 @@
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>613</v>
+        <v>154</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -6236,17 +6278,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>1294</v>
+        <v>1310</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>1293</v>
+        <v>1158</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1293</v>
+        <v>1158</v>
       </c>
       <c r="AK2" t="s">
-        <v>1293</v>
+        <v>1158</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -6333,7 +6375,7 @@
         <v>172</v>
       </c>
       <c r="AB3" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>173</v>
@@ -6346,17 +6388,17 @@
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>1295</v>
+        <v>1312</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>492</v>
+        <v>1311</v>
       </c>
       <c r="AJ3" t="s">
-        <v>492</v>
+        <v>1311</v>
       </c>
       <c r="AK3" t="s">
-        <v>492</v>
+        <v>1311</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -6439,7 +6481,7 @@
         <v>182</v>
       </c>
       <c r="AB4" t="s">
-        <v>432</v>
+        <v>373</v>
       </c>
       <c r="AC4" s="26" t="s">
         <v>183</v>
@@ -6452,17 +6494,17 @@
         <v>158</v>
       </c>
       <c r="AG4" t="s">
-        <v>1302</v>
+        <v>1313</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>1301</v>
+        <v>745</v>
       </c>
       <c r="AJ4" t="s">
-        <v>1301</v>
+        <v>745</v>
       </c>
       <c r="AK4" t="s">
-        <v>1301</v>
+        <v>745</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -6549,7 +6591,7 @@
         <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>173</v>
@@ -6562,17 +6604,17 @@
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>1297</v>
+        <v>1314</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>1296</v>
+        <v>857</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1296</v>
+        <v>857</v>
       </c>
       <c r="AK5" t="s">
-        <v>1296</v>
+        <v>857</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -7184,7 +7226,7 @@
         <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>1305</v>
+        <v>1319</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -7244,7 +7286,7 @@
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>1303</v>
+        <v>1317</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -7302,7 +7344,7 @@
         <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>1299</v>
+        <v>1315</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -7376,7 +7418,7 @@
         <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>1304</v>
+        <v>1318</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -7444,7 +7486,7 @@
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>1294</v>
+        <v>1310</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>253</v>
@@ -7642,7 +7684,7 @@
         <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>1295</v>
+        <v>1312</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>298</v>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5622" uniqueCount="1324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5659" uniqueCount="1337">
   <si>
     <t>PUId</t>
   </si>
@@ -4104,6 +4104,45 @@
   </si>
   <si>
     <t>136839374</t>
+  </si>
+  <si>
+    <t>10264902</t>
+  </si>
+  <si>
+    <t>10264903</t>
+  </si>
+  <si>
+    <t>10264909</t>
+  </si>
+  <si>
+    <t>10264910</t>
+  </si>
+  <si>
+    <t>136873479</t>
+  </si>
+  <si>
+    <t>33447850</t>
+  </si>
+  <si>
+    <t>10264677</t>
+  </si>
+  <si>
+    <t>136873480</t>
+  </si>
+  <si>
+    <t>10266615</t>
+  </si>
+  <si>
+    <t>136895718</t>
+  </si>
+  <si>
+    <t>33449721</t>
+  </si>
+  <si>
+    <t>10266505</t>
+  </si>
+  <si>
+    <t>136895729</t>
   </si>
 </sst>
 </file>
@@ -6007,16 +6046,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>1320</v>
+        <v>1333</v>
       </c>
       <c r="C2" t="s">
-        <v>1321</v>
+        <v>1334</v>
       </c>
       <c r="D2" t="s">
-        <v>1322</v>
+        <v>1335</v>
       </c>
       <c r="E2" t="s">
-        <v>1323</v>
+        <v>1336</v>
       </c>
     </row>
   </sheetData>
@@ -7226,7 +7265,7 @@
         <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>1319</v>
+        <v>1332</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -7286,7 +7325,7 @@
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>1317</v>
+        <v>1324</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -7344,7 +7383,7 @@
         <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>1315</v>
+        <v>1325</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -7418,7 +7457,7 @@
         <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5659" uniqueCount="1337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5865" uniqueCount="1367">
   <si>
     <t>PUId</t>
   </si>
@@ -4143,6 +4143,96 @@
   </si>
   <si>
     <t>136895729</t>
+  </si>
+  <si>
+    <t>00:58</t>
+  </si>
+  <si>
+    <t>10267199</t>
+  </si>
+  <si>
+    <t>02:04</t>
+  </si>
+  <si>
+    <t>10267204</t>
+  </si>
+  <si>
+    <t>02:33</t>
+  </si>
+  <si>
+    <t>10267233</t>
+  </si>
+  <si>
+    <t>03:49</t>
+  </si>
+  <si>
+    <t>10267271</t>
+  </si>
+  <si>
+    <t>04:02</t>
+  </si>
+  <si>
+    <t>04:06</t>
+  </si>
+  <si>
+    <t>10267278</t>
+  </si>
+  <si>
+    <t>10267285</t>
+  </si>
+  <si>
+    <t>04:37</t>
+  </si>
+  <si>
+    <t>10267286</t>
+  </si>
+  <si>
+    <t>10267296</t>
+  </si>
+  <si>
+    <t>10267302</t>
+  </si>
+  <si>
+    <t>10267311</t>
+  </si>
+  <si>
+    <t>10267312</t>
+  </si>
+  <si>
+    <t>136902504</t>
+  </si>
+  <si>
+    <t>33450283</t>
+  </si>
+  <si>
+    <t>10267059</t>
+  </si>
+  <si>
+    <t>136902515</t>
+  </si>
+  <si>
+    <t>10269059</t>
+  </si>
+  <si>
+    <t>02:16</t>
+  </si>
+  <si>
+    <t>10269064</t>
+  </si>
+  <si>
+    <t>01:28</t>
+  </si>
+  <si>
+    <t>10269073</t>
+  </si>
+  <si>
+    <t>10269082</t>
+  </si>
+  <si>
+    <t>10269140</t>
+  </si>
+  <si>
+    <t>10269152</t>
   </si>
 </sst>
 </file>
@@ -6046,16 +6136,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>1333</v>
+        <v>1355</v>
       </c>
       <c r="C2" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="D2" t="s">
-        <v>1335</v>
+        <v>1357</v>
       </c>
       <c r="E2" t="s">
-        <v>1336</v>
+        <v>1358</v>
       </c>
     </row>
   </sheetData>
@@ -6317,17 +6407,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>1310</v>
+        <v>1363</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>1158</v>
+        <v>1362</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1158</v>
+        <v>1362</v>
       </c>
       <c r="AK2" t="s">
-        <v>1158</v>
+        <v>1362</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -6414,7 +6504,7 @@
         <v>172</v>
       </c>
       <c r="AB3" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>173</v>
@@ -6427,17 +6517,17 @@
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>1312</v>
+        <v>1365</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>1311</v>
+        <v>524</v>
       </c>
       <c r="AJ3" t="s">
-        <v>1311</v>
+        <v>524</v>
       </c>
       <c r="AK3" t="s">
-        <v>1311</v>
+        <v>524</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -6533,17 +6623,17 @@
         <v>158</v>
       </c>
       <c r="AG4" t="s">
-        <v>1313</v>
+        <v>1366</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>745</v>
+        <v>490</v>
       </c>
       <c r="AJ4" t="s">
-        <v>745</v>
+        <v>490</v>
       </c>
       <c r="AK4" t="s">
-        <v>745</v>
+        <v>490</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -6643,17 +6733,17 @@
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>1314</v>
+        <v>1350</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>857</v>
+        <v>1349</v>
       </c>
       <c r="AJ5" t="s">
-        <v>857</v>
+        <v>1349</v>
       </c>
       <c r="AK5" t="s">
-        <v>857</v>
+        <v>1349</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -7265,7 +7355,7 @@
         <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>1332</v>
+        <v>1354</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -7325,7 +7415,7 @@
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>1324</v>
+        <v>1351</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -7383,7 +7473,7 @@
         <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>1325</v>
+        <v>1352</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -7457,7 +7547,7 @@
         <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>1326</v>
+        <v>1353</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -7525,7 +7615,7 @@
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>1310</v>
+        <v>1363</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>253</v>
@@ -7723,7 +7813,7 @@
         <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>1312</v>
+        <v>1365</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>298</v>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5865" uniqueCount="1367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5931" uniqueCount="1382">
   <si>
     <t>PUId</t>
   </si>
@@ -4233,6 +4233,51 @@
   </si>
   <si>
     <t>10269152</t>
+  </si>
+  <si>
+    <t>10269171</t>
+  </si>
+  <si>
+    <t>04:10</t>
+  </si>
+  <si>
+    <t>10269180</t>
+  </si>
+  <si>
+    <t>03:28</t>
+  </si>
+  <si>
+    <t>10270706</t>
+  </si>
+  <si>
+    <t>03:37</t>
+  </si>
+  <si>
+    <t>10270719</t>
+  </si>
+  <si>
+    <t>10270722</t>
+  </si>
+  <si>
+    <t>10270727</t>
+  </si>
+  <si>
+    <t>10270733</t>
+  </si>
+  <si>
+    <t>10270734</t>
+  </si>
+  <si>
+    <t>136945358</t>
+  </si>
+  <si>
+    <t>33453802</t>
+  </si>
+  <si>
+    <t>10270525</t>
+  </si>
+  <si>
+    <t>136945369</t>
   </si>
 </sst>
 </file>
@@ -6136,16 +6181,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>1355</v>
+        <v>1378</v>
       </c>
       <c r="C2" t="s">
-        <v>1356</v>
+        <v>1379</v>
       </c>
       <c r="D2" t="s">
-        <v>1357</v>
+        <v>1380</v>
       </c>
       <c r="E2" t="s">
-        <v>1358</v>
+        <v>1381</v>
       </c>
     </row>
   </sheetData>
@@ -6517,17 +6562,17 @@
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>524</v>
+        <v>577</v>
       </c>
       <c r="AJ3" t="s">
-        <v>524</v>
+        <v>577</v>
       </c>
       <c r="AK3" t="s">
-        <v>524</v>
+        <v>577</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -6623,17 +6668,17 @@
         <v>158</v>
       </c>
       <c r="AG4" t="s">
-        <v>1366</v>
+        <v>1371</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>490</v>
+        <v>1370</v>
       </c>
       <c r="AJ4" t="s">
-        <v>490</v>
+        <v>1370</v>
       </c>
       <c r="AK4" t="s">
-        <v>490</v>
+        <v>1370</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -6733,17 +6778,17 @@
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>1350</v>
+        <v>1373</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>1349</v>
+        <v>1372</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1349</v>
+        <v>1372</v>
       </c>
       <c r="AK5" t="s">
-        <v>1349</v>
+        <v>1372</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -7355,7 +7400,7 @@
         <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>1354</v>
+        <v>1377</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -7415,7 +7460,7 @@
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>1351</v>
+        <v>1374</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -7473,7 +7518,7 @@
         <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>1352</v>
+        <v>1375</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -7547,7 +7592,7 @@
         <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>1353</v>
+        <v>1376</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -7813,7 +7858,7 @@
         <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>298</v>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5931" uniqueCount="1382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6163" uniqueCount="1421">
   <si>
     <t>PUId</t>
   </si>
@@ -4278,6 +4278,123 @@
   </si>
   <si>
     <t>136945369</t>
+  </si>
+  <si>
+    <t>10272992</t>
+  </si>
+  <si>
+    <t>10272994</t>
+  </si>
+  <si>
+    <t>08:03</t>
+  </si>
+  <si>
+    <t>07:08</t>
+  </si>
+  <si>
+    <t>10273021</t>
+  </si>
+  <si>
+    <t>08:15</t>
+  </si>
+  <si>
+    <t>10273024</t>
+  </si>
+  <si>
+    <t>08:29</t>
+  </si>
+  <si>
+    <t>10273029</t>
+  </si>
+  <si>
+    <t>08:38</t>
+  </si>
+  <si>
+    <t>10273032</t>
+  </si>
+  <si>
+    <t>10273038</t>
+  </si>
+  <si>
+    <t>10273056</t>
+  </si>
+  <si>
+    <t>10273071</t>
+  </si>
+  <si>
+    <t>10273072</t>
+  </si>
+  <si>
+    <t>136973081</t>
+  </si>
+  <si>
+    <t>33456046</t>
+  </si>
+  <si>
+    <t>10272743</t>
+  </si>
+  <si>
+    <t>136973092</t>
+  </si>
+  <si>
+    <t>06:14</t>
+  </si>
+  <si>
+    <t>10273453</t>
+  </si>
+  <si>
+    <t>07:20</t>
+  </si>
+  <si>
+    <t>10273454</t>
+  </si>
+  <si>
+    <t>07:33</t>
+  </si>
+  <si>
+    <t>10273459</t>
+  </si>
+  <si>
+    <t>23:31</t>
+  </si>
+  <si>
+    <t>10273691</t>
+  </si>
+  <si>
+    <t>00:38</t>
+  </si>
+  <si>
+    <t>10273692</t>
+  </si>
+  <si>
+    <t>10273693</t>
+  </si>
+  <si>
+    <t>10273700</t>
+  </si>
+  <si>
+    <t>10273725</t>
+  </si>
+  <si>
+    <t>10273727</t>
+  </si>
+  <si>
+    <t>10273795</t>
+  </si>
+  <si>
+    <t>10273796</t>
+  </si>
+  <si>
+    <t>136984827</t>
+  </si>
+  <si>
+    <t>33456998</t>
+  </si>
+  <si>
+    <t>10273683</t>
+  </si>
+  <si>
+    <t>136984838</t>
   </si>
 </sst>
 </file>
@@ -6181,16 +6298,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>1378</v>
+        <v>1417</v>
       </c>
       <c r="C2" t="s">
-        <v>1379</v>
+        <v>1418</v>
       </c>
       <c r="D2" t="s">
-        <v>1380</v>
+        <v>1419</v>
       </c>
       <c r="E2" t="s">
-        <v>1381</v>
+        <v>1420</v>
       </c>
     </row>
   </sheetData>
@@ -6431,13 +6548,13 @@
         <v>153</v>
       </c>
       <c r="Z2" t="s">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="AA2" s="26" t="s">
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>154</v>
+        <v>613</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -6452,17 +6569,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>1363</v>
+        <v>1408</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>1362</v>
+        <v>1407</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1362</v>
+        <v>1407</v>
       </c>
       <c r="AK2" t="s">
-        <v>1362</v>
+        <v>1407</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -6549,7 +6666,7 @@
         <v>172</v>
       </c>
       <c r="AB3" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>173</v>
@@ -6562,17 +6679,17 @@
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>1367</v>
+        <v>1410</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>577</v>
+        <v>1409</v>
       </c>
       <c r="AJ3" t="s">
-        <v>577</v>
+        <v>1409</v>
       </c>
       <c r="AK3" t="s">
-        <v>577</v>
+        <v>1409</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -6668,17 +6785,17 @@
         <v>158</v>
       </c>
       <c r="AG4" t="s">
-        <v>1371</v>
+        <v>1411</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>1370</v>
+        <v>643</v>
       </c>
       <c r="AJ4" t="s">
-        <v>1370</v>
+        <v>643</v>
       </c>
       <c r="AK4" t="s">
-        <v>1370</v>
+        <v>643</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -6765,7 +6882,7 @@
         <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>173</v>
@@ -6778,17 +6895,17 @@
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>1373</v>
+        <v>1412</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>1372</v>
+        <v>494</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1372</v>
+        <v>494</v>
       </c>
       <c r="AK5" t="s">
-        <v>1372</v>
+        <v>494</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -7389,7 +7506,7 @@
       <c r="Z11" s="30"/>
       <c r="AA11" s="28"/>
       <c r="AB11" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="AC11" s="28"/>
       <c r="AD11" t="s">
@@ -7400,7 +7517,7 @@
         <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>1377</v>
+        <v>1416</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -7454,13 +7571,13 @@
         <v>198</v>
       </c>
       <c r="AD12" t="s">
-        <v>360</v>
+        <v>705</v>
       </c>
       <c r="AF12" t="s">
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>1374</v>
+        <v>1413</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -7518,7 +7635,7 @@
         <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>1375</v>
+        <v>1414</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -7592,7 +7709,7 @@
         <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>1376</v>
+        <v>1415</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -7660,7 +7777,7 @@
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>1363</v>
+        <v>1408</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>253</v>
@@ -7858,7 +7975,7 @@
         <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>1367</v>
+        <v>1410</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>298</v>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6163" uniqueCount="1421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6255" uniqueCount="1436">
   <si>
     <t>PUId</t>
   </si>
@@ -4395,6 +4395,51 @@
   </si>
   <si>
     <t>136984838</t>
+  </si>
+  <si>
+    <t>10275953</t>
+  </si>
+  <si>
+    <t>10276024</t>
+  </si>
+  <si>
+    <t>10276026</t>
+  </si>
+  <si>
+    <t>01:47</t>
+  </si>
+  <si>
+    <t>10276032</t>
+  </si>
+  <si>
+    <t>01:56</t>
+  </si>
+  <si>
+    <t>10276039</t>
+  </si>
+  <si>
+    <t>10276068</t>
+  </si>
+  <si>
+    <t>10276077</t>
+  </si>
+  <si>
+    <t>10276082</t>
+  </si>
+  <si>
+    <t>10276088</t>
+  </si>
+  <si>
+    <t>137010051</t>
+  </si>
+  <si>
+    <t>33459213</t>
+  </si>
+  <si>
+    <t>10275892</t>
+  </si>
+  <si>
+    <t>137010062</t>
   </si>
 </sst>
 </file>
@@ -6298,16 +6343,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>1417</v>
+        <v>1432</v>
       </c>
       <c r="C2" t="s">
-        <v>1418</v>
+        <v>1433</v>
       </c>
       <c r="D2" t="s">
-        <v>1419</v>
+        <v>1434</v>
       </c>
       <c r="E2" t="s">
-        <v>1420</v>
+        <v>1435</v>
       </c>
     </row>
   </sheetData>
@@ -6548,13 +6593,13 @@
         <v>153</v>
       </c>
       <c r="Z2" t="s">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="AA2" s="26" t="s">
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>613</v>
+        <v>154</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -6569,17 +6614,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>1408</v>
+        <v>1422</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>1407</v>
+        <v>1069</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1407</v>
+        <v>1069</v>
       </c>
       <c r="AK2" t="s">
-        <v>1407</v>
+        <v>1069</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -6666,7 +6711,7 @@
         <v>172</v>
       </c>
       <c r="AB3" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>173</v>
@@ -6679,17 +6724,17 @@
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>1410</v>
+        <v>1423</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>1409</v>
+        <v>778</v>
       </c>
       <c r="AJ3" t="s">
-        <v>1409</v>
+        <v>778</v>
       </c>
       <c r="AK3" t="s">
-        <v>1409</v>
+        <v>778</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -6785,17 +6830,17 @@
         <v>158</v>
       </c>
       <c r="AG4" t="s">
-        <v>1411</v>
+        <v>1425</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>643</v>
+        <v>1424</v>
       </c>
       <c r="AJ4" t="s">
-        <v>643</v>
+        <v>1424</v>
       </c>
       <c r="AK4" t="s">
-        <v>643</v>
+        <v>1424</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -6895,17 +6940,17 @@
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>1412</v>
+        <v>1427</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>494</v>
+        <v>1426</v>
       </c>
       <c r="AJ5" t="s">
-        <v>494</v>
+        <v>1426</v>
       </c>
       <c r="AK5" t="s">
-        <v>494</v>
+        <v>1426</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -7506,7 +7551,7 @@
       <c r="Z11" s="30"/>
       <c r="AA11" s="28"/>
       <c r="AB11" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AC11" s="28"/>
       <c r="AD11" t="s">
@@ -7517,7 +7562,7 @@
         <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>1416</v>
+        <v>1431</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -7577,7 +7622,7 @@
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>1413</v>
+        <v>1428</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -7626,7 +7671,7 @@
       </c>
       <c r="Z13" s="31"/>
       <c r="AB13" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="AD13" t="s">
         <v>707</v>
@@ -7635,7 +7680,7 @@
         <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>1414</v>
+        <v>1429</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -7698,7 +7743,7 @@
       <c r="Z14" s="60"/>
       <c r="AA14" s="59"/>
       <c r="AB14" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="AC14" s="59"/>
       <c r="AD14" t="s">
@@ -7709,7 +7754,7 @@
         <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>1415</v>
+        <v>1430</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -7777,7 +7822,7 @@
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>1408</v>
+        <v>1422</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>253</v>
@@ -7975,7 +8020,7 @@
         <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>1410</v>
+        <v>1423</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>298</v>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6255" uniqueCount="1436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6476" uniqueCount="1473">
   <si>
     <t>PUId</t>
   </si>
@@ -4440,6 +4440,117 @@
   </si>
   <si>
     <t>137010062</t>
+  </si>
+  <si>
+    <t>00:25</t>
+  </si>
+  <si>
+    <t>10284452</t>
+  </si>
+  <si>
+    <t>01:31</t>
+  </si>
+  <si>
+    <t>10284463</t>
+  </si>
+  <si>
+    <t>10284473</t>
+  </si>
+  <si>
+    <t>01:52</t>
+  </si>
+  <si>
+    <t>10284488</t>
+  </si>
+  <si>
+    <t>10284531</t>
+  </si>
+  <si>
+    <t>10284549</t>
+  </si>
+  <si>
+    <t>10284562</t>
+  </si>
+  <si>
+    <t>10284565</t>
+  </si>
+  <si>
+    <t>137103548</t>
+  </si>
+  <si>
+    <t>33467669</t>
+  </si>
+  <si>
+    <t>10284312</t>
+  </si>
+  <si>
+    <t>137103559</t>
+  </si>
+  <si>
+    <t>10290936</t>
+  </si>
+  <si>
+    <t>05:54</t>
+  </si>
+  <si>
+    <t>05:58</t>
+  </si>
+  <si>
+    <t>10290952</t>
+  </si>
+  <si>
+    <t>10290995</t>
+  </si>
+  <si>
+    <t>08:05</t>
+  </si>
+  <si>
+    <t>10291051</t>
+  </si>
+  <si>
+    <t>08:23</t>
+  </si>
+  <si>
+    <t>10291068</t>
+  </si>
+  <si>
+    <t>10293410</t>
+  </si>
+  <si>
+    <t>10293415</t>
+  </si>
+  <si>
+    <t>06:06</t>
+  </si>
+  <si>
+    <t>10293432</t>
+  </si>
+  <si>
+    <t>10293446</t>
+  </si>
+  <si>
+    <t>10293457</t>
+  </si>
+  <si>
+    <t>10293466</t>
+  </si>
+  <si>
+    <t>10293476</t>
+  </si>
+  <si>
+    <t>10293483</t>
+  </si>
+  <si>
+    <t>137200001</t>
+  </si>
+  <si>
+    <t>33476407</t>
+  </si>
+  <si>
+    <t>10293011</t>
+  </si>
+  <si>
+    <t>137200012</t>
   </si>
 </sst>
 </file>
@@ -6343,16 +6454,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>1432</v>
+        <v>1469</v>
       </c>
       <c r="C2" t="s">
-        <v>1433</v>
+        <v>1470</v>
       </c>
       <c r="D2" t="s">
-        <v>1434</v>
+        <v>1471</v>
       </c>
       <c r="E2" t="s">
-        <v>1435</v>
+        <v>1472</v>
       </c>
     </row>
   </sheetData>
@@ -6599,7 +6710,7 @@
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>154</v>
+        <v>613</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -6614,17 +6725,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>1422</v>
+        <v>1460</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>1069</v>
+        <v>867</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1069</v>
+        <v>867</v>
       </c>
       <c r="AK2" t="s">
-        <v>1069</v>
+        <v>867</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -6711,7 +6822,7 @@
         <v>172</v>
       </c>
       <c r="AB3" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>173</v>
@@ -6724,17 +6835,17 @@
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>1423</v>
+        <v>1461</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>778</v>
+        <v>869</v>
       </c>
       <c r="AJ3" t="s">
-        <v>778</v>
+        <v>869</v>
       </c>
       <c r="AK3" t="s">
-        <v>778</v>
+        <v>869</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -6830,17 +6941,17 @@
         <v>158</v>
       </c>
       <c r="AG4" t="s">
-        <v>1425</v>
+        <v>1463</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>1424</v>
+        <v>1462</v>
       </c>
       <c r="AJ4" t="s">
-        <v>1424</v>
+        <v>1462</v>
       </c>
       <c r="AK4" t="s">
-        <v>1424</v>
+        <v>1462</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -6927,7 +7038,7 @@
         <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>173</v>
@@ -6940,17 +7051,17 @@
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>1427</v>
+        <v>1464</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>1426</v>
+        <v>1401</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1426</v>
+        <v>1401</v>
       </c>
       <c r="AK5" t="s">
-        <v>1426</v>
+        <v>1401</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -7562,7 +7673,7 @@
         <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>1431</v>
+        <v>1468</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -7616,13 +7727,13 @@
         <v>198</v>
       </c>
       <c r="AD12" t="s">
-        <v>705</v>
+        <v>360</v>
       </c>
       <c r="AF12" t="s">
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>1428</v>
+        <v>1465</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -7671,7 +7782,7 @@
       </c>
       <c r="Z13" s="31"/>
       <c r="AB13" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="AD13" t="s">
         <v>707</v>
@@ -7680,7 +7791,7 @@
         <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>1429</v>
+        <v>1466</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -7743,7 +7854,7 @@
       <c r="Z14" s="60"/>
       <c r="AA14" s="59"/>
       <c r="AB14" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AC14" s="59"/>
       <c r="AD14" t="s">
@@ -7754,7 +7865,7 @@
         <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>1430</v>
+        <v>1467</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -7822,7 +7933,7 @@
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>1422</v>
+        <v>1460</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>253</v>
@@ -8020,7 +8131,7 @@
         <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>1423</v>
+        <v>1461</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>298</v>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6476" uniqueCount="1473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6602" uniqueCount="1495">
   <si>
     <t>PUId</t>
   </si>
@@ -4551,6 +4551,72 @@
   </si>
   <si>
     <t>137200012</t>
+  </si>
+  <si>
+    <t>06:52</t>
+  </si>
+  <si>
+    <t>10294729</t>
+  </si>
+  <si>
+    <t>10294767</t>
+  </si>
+  <si>
+    <t>10294776</t>
+  </si>
+  <si>
+    <t>08:20</t>
+  </si>
+  <si>
+    <t>10294780</t>
+  </si>
+  <si>
+    <t>08:33</t>
+  </si>
+  <si>
+    <t>10294812</t>
+  </si>
+  <si>
+    <t>08:40</t>
+  </si>
+  <si>
+    <t>10294830</t>
+  </si>
+  <si>
+    <t>10294856</t>
+  </si>
+  <si>
+    <t>10294889</t>
+  </si>
+  <si>
+    <t>10294905</t>
+  </si>
+  <si>
+    <t>10294915</t>
+  </si>
+  <si>
+    <t>137213748</t>
+  </si>
+  <si>
+    <t>33477668</t>
+  </si>
+  <si>
+    <t>10294266</t>
+  </si>
+  <si>
+    <t>137213759</t>
+  </si>
+  <si>
+    <t>08:51</t>
+  </si>
+  <si>
+    <t>10294941</t>
+  </si>
+  <si>
+    <t>09:57</t>
+  </si>
+  <si>
+    <t>10294944</t>
   </si>
 </sst>
 </file>
@@ -6454,16 +6520,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>1469</v>
+        <v>1487</v>
       </c>
       <c r="C2" t="s">
-        <v>1470</v>
+        <v>1488</v>
       </c>
       <c r="D2" t="s">
-        <v>1471</v>
+        <v>1489</v>
       </c>
       <c r="E2" t="s">
-        <v>1472</v>
+        <v>1490</v>
       </c>
     </row>
   </sheetData>
@@ -6710,7 +6776,7 @@
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>613</v>
+        <v>184</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -6725,17 +6791,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>1460</v>
+        <v>1492</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>867</v>
+        <v>1491</v>
       </c>
       <c r="AJ2" t="s">
-        <v>867</v>
+        <v>1491</v>
       </c>
       <c r="AK2" t="s">
-        <v>867</v>
+        <v>1491</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -6822,7 +6888,7 @@
         <v>172</v>
       </c>
       <c r="AB3" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>173</v>
@@ -6835,17 +6901,17 @@
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>1461</v>
+        <v>1494</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>869</v>
+        <v>1493</v>
       </c>
       <c r="AJ3" t="s">
-        <v>869</v>
+        <v>1493</v>
       </c>
       <c r="AK3" t="s">
-        <v>869</v>
+        <v>1493</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -6928,7 +6994,7 @@
         <v>182</v>
       </c>
       <c r="AB4" t="s">
-        <v>373</v>
+        <v>432</v>
       </c>
       <c r="AC4" s="26" t="s">
         <v>183</v>
@@ -6938,20 +7004,20 @@
       </c>
       <c r="AE4" s="26"/>
       <c r="AF4" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AG4" t="s">
-        <v>1463</v>
+        <v>1480</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>1462</v>
+        <v>1479</v>
       </c>
       <c r="AJ4" t="s">
-        <v>1462</v>
+        <v>1479</v>
       </c>
       <c r="AK4" t="s">
-        <v>1462</v>
+        <v>1479</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -7048,20 +7114,20 @@
       </c>
       <c r="AE5" s="26"/>
       <c r="AF5" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AG5" t="s">
-        <v>1464</v>
+        <v>1482</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>1401</v>
+        <v>1481</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1401</v>
+        <v>1481</v>
       </c>
       <c r="AK5" t="s">
-        <v>1401</v>
+        <v>1481</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -7670,10 +7736,10 @@
       </c>
       <c r="AE11" s="28"/>
       <c r="AF11" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AG11" t="s">
-        <v>1468</v>
+        <v>1486</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -7730,10 +7796,10 @@
         <v>360</v>
       </c>
       <c r="AF12" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AG12" t="s">
-        <v>1465</v>
+        <v>1483</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -7782,16 +7848,16 @@
       </c>
       <c r="Z13" s="31"/>
       <c r="AB13" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="AD13" t="s">
         <v>707</v>
       </c>
       <c r="AF13" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AG13" t="s">
-        <v>1466</v>
+        <v>1484</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -7862,10 +7928,10 @@
       </c>
       <c r="AE14" s="59"/>
       <c r="AF14" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AG14" t="s">
-        <v>1467</v>
+        <v>1485</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -7933,7 +7999,7 @@
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>1460</v>
+        <v>1492</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>253</v>
@@ -8131,7 +8197,7 @@
         <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>1461</v>
+        <v>1494</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>298</v>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6602" uniqueCount="1495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6755" uniqueCount="1517">
   <si>
     <t>PUId</t>
   </si>
@@ -4617,6 +4617,72 @@
   </si>
   <si>
     <t>10294944</t>
+  </si>
+  <si>
+    <t>07:32</t>
+  </si>
+  <si>
+    <t>10295959</t>
+  </si>
+  <si>
+    <t>07:38</t>
+  </si>
+  <si>
+    <t>10295966</t>
+  </si>
+  <si>
+    <t>01:50</t>
+  </si>
+  <si>
+    <t>10299995</t>
+  </si>
+  <si>
+    <t>10300009</t>
+  </si>
+  <si>
+    <t>10300015</t>
+  </si>
+  <si>
+    <t>10300024</t>
+  </si>
+  <si>
+    <t>137274899</t>
+  </si>
+  <si>
+    <t>33483211</t>
+  </si>
+  <si>
+    <t>10299787</t>
+  </si>
+  <si>
+    <t>137274903</t>
+  </si>
+  <si>
+    <t>05:07</t>
+  </si>
+  <si>
+    <t>10300116</t>
+  </si>
+  <si>
+    <t>10300117</t>
+  </si>
+  <si>
+    <t>10300121</t>
+  </si>
+  <si>
+    <t>10300129</t>
+  </si>
+  <si>
+    <t>06:10</t>
+  </si>
+  <si>
+    <t>10300177</t>
+  </si>
+  <si>
+    <t>07:12</t>
+  </si>
+  <si>
+    <t>10300215</t>
   </si>
 </sst>
 </file>
@@ -6520,16 +6586,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>1487</v>
+        <v>1504</v>
       </c>
       <c r="C2" t="s">
-        <v>1488</v>
+        <v>1505</v>
       </c>
       <c r="D2" t="s">
-        <v>1489</v>
+        <v>1506</v>
       </c>
       <c r="E2" t="s">
-        <v>1490</v>
+        <v>1507</v>
       </c>
     </row>
   </sheetData>
@@ -6776,7 +6842,7 @@
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>184</v>
+        <v>613</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -6791,17 +6857,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>1492</v>
+        <v>1501</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>1491</v>
+        <v>800</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1491</v>
+        <v>800</v>
       </c>
       <c r="AK2" t="s">
-        <v>1491</v>
+        <v>800</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -6901,17 +6967,17 @@
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>1494</v>
+        <v>1502</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>1493</v>
+        <v>1213</v>
       </c>
       <c r="AJ3" t="s">
-        <v>1493</v>
+        <v>1213</v>
       </c>
       <c r="AK3" t="s">
-        <v>1493</v>
+        <v>1213</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -6994,7 +7060,7 @@
         <v>182</v>
       </c>
       <c r="AB4" t="s">
-        <v>432</v>
+        <v>373</v>
       </c>
       <c r="AC4" s="26" t="s">
         <v>183</v>
@@ -7007,17 +7073,17 @@
         <v>184</v>
       </c>
       <c r="AG4" t="s">
-        <v>1480</v>
+        <v>1516</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>1479</v>
+        <v>1515</v>
       </c>
       <c r="AJ4" t="s">
-        <v>1479</v>
+        <v>1515</v>
       </c>
       <c r="AK4" t="s">
-        <v>1479</v>
+        <v>1515</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -7104,7 +7170,7 @@
         <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>173</v>
@@ -7114,20 +7180,20 @@
       </c>
       <c r="AE5" s="26"/>
       <c r="AF5" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>1482</v>
+        <v>1503</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>1481</v>
+        <v>1370</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1481</v>
+        <v>1370</v>
       </c>
       <c r="AK5" t="s">
-        <v>1481</v>
+        <v>1370</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -7736,10 +7802,10 @@
       </c>
       <c r="AE11" s="28"/>
       <c r="AF11" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>1486</v>
+        <v>1512</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -7796,10 +7862,10 @@
         <v>360</v>
       </c>
       <c r="AF12" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>1483</v>
+        <v>1509</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -7848,16 +7914,16 @@
       </c>
       <c r="Z13" s="31"/>
       <c r="AB13" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="AD13" t="s">
         <v>707</v>
       </c>
       <c r="AF13" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>1484</v>
+        <v>1510</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -7928,10 +7994,10 @@
       </c>
       <c r="AE14" s="59"/>
       <c r="AF14" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>1485</v>
+        <v>1511</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -7999,7 +8065,7 @@
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>1492</v>
+        <v>1501</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>253</v>
@@ -8197,7 +8263,7 @@
         <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>1494</v>
+        <v>1502</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>298</v>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6755" uniqueCount="1517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6975" uniqueCount="1550">
   <si>
     <t>PUId</t>
   </si>
@@ -4683,6 +4683,105 @@
   </si>
   <si>
     <t>10300215</t>
+  </si>
+  <si>
+    <t>02:02</t>
+  </si>
+  <si>
+    <t>10301209</t>
+  </si>
+  <si>
+    <t>10301214</t>
+  </si>
+  <si>
+    <t>10301221</t>
+  </si>
+  <si>
+    <t>10301224</t>
+  </si>
+  <si>
+    <t>10301228</t>
+  </si>
+  <si>
+    <t>10301230</t>
+  </si>
+  <si>
+    <t>10301239</t>
+  </si>
+  <si>
+    <t>10301246</t>
+  </si>
+  <si>
+    <t>137287433</t>
+  </si>
+  <si>
+    <t>33484401</t>
+  </si>
+  <si>
+    <t>10300971</t>
+  </si>
+  <si>
+    <t>137287444</t>
+  </si>
+  <si>
+    <t>10302044</t>
+  </si>
+  <si>
+    <t>10302060</t>
+  </si>
+  <si>
+    <t>10302062</t>
+  </si>
+  <si>
+    <t>137297098</t>
+  </si>
+  <si>
+    <t>33485296</t>
+  </si>
+  <si>
+    <t>10301860</t>
+  </si>
+  <si>
+    <t>137297102</t>
+  </si>
+  <si>
+    <t>02:21</t>
+  </si>
+  <si>
+    <t>10302082</t>
+  </si>
+  <si>
+    <t>03:33</t>
+  </si>
+  <si>
+    <t>10302121</t>
+  </si>
+  <si>
+    <t>05:12</t>
+  </si>
+  <si>
+    <t>10302124</t>
+  </si>
+  <si>
+    <t>05:25</t>
+  </si>
+  <si>
+    <t>05:29</t>
+  </si>
+  <si>
+    <t>10302127</t>
+  </si>
+  <si>
+    <t>10302130</t>
+  </si>
+  <si>
+    <t>06:12</t>
+  </si>
+  <si>
+    <t>10302146</t>
+  </si>
+  <si>
+    <t>10302150</t>
   </si>
 </sst>
 </file>
@@ -6586,16 +6685,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>1504</v>
+        <v>1533</v>
       </c>
       <c r="C2" t="s">
-        <v>1505</v>
+        <v>1534</v>
       </c>
       <c r="D2" t="s">
-        <v>1506</v>
+        <v>1535</v>
       </c>
       <c r="E2" t="s">
-        <v>1507</v>
+        <v>1536</v>
       </c>
     </row>
   </sheetData>
@@ -6842,7 +6941,7 @@
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>613</v>
+        <v>154</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -6857,17 +6956,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>1501</v>
+        <v>1540</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>800</v>
+        <v>1346</v>
       </c>
       <c r="AJ2" t="s">
-        <v>800</v>
+        <v>1346</v>
       </c>
       <c r="AK2" t="s">
-        <v>800</v>
+        <v>1346</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -6954,7 +7053,7 @@
         <v>172</v>
       </c>
       <c r="AB3" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>173</v>
@@ -6967,17 +7066,17 @@
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>1502</v>
+        <v>1542</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>1213</v>
+        <v>1541</v>
       </c>
       <c r="AJ3" t="s">
-        <v>1213</v>
+        <v>1541</v>
       </c>
       <c r="AK3" t="s">
-        <v>1213</v>
+        <v>1541</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -7073,17 +7172,17 @@
         <v>184</v>
       </c>
       <c r="AG4" t="s">
-        <v>1516</v>
+        <v>1549</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>1515</v>
+        <v>761</v>
       </c>
       <c r="AJ4" t="s">
-        <v>1515</v>
+        <v>761</v>
       </c>
       <c r="AK4" t="s">
-        <v>1515</v>
+        <v>761</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -7170,7 +7269,7 @@
         <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>173</v>
@@ -7183,17 +7282,17 @@
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>1503</v>
+        <v>1545</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>1370</v>
+        <v>1544</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1370</v>
+        <v>1544</v>
       </c>
       <c r="AK5" t="s">
-        <v>1370</v>
+        <v>1544</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -7794,7 +7893,7 @@
       <c r="Z11" s="30"/>
       <c r="AA11" s="28"/>
       <c r="AB11" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="AC11" s="28"/>
       <c r="AD11" t="s">
@@ -7805,7 +7904,7 @@
         <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>1512</v>
+        <v>1532</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -7856,7 +7955,7 @@
       </c>
       <c r="Z12" s="31"/>
       <c r="AB12" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="AD12" t="s">
         <v>360</v>
@@ -7865,7 +7964,7 @@
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>1509</v>
+        <v>1530</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -7923,7 +8022,7 @@
         <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>1510</v>
+        <v>1546</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -7986,7 +8085,7 @@
       <c r="Z14" s="60"/>
       <c r="AA14" s="59"/>
       <c r="AB14" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="AC14" s="59"/>
       <c r="AD14" t="s">
@@ -7997,7 +8096,7 @@
         <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>1511</v>
+        <v>1531</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -8065,7 +8164,7 @@
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>1501</v>
+        <v>1540</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>253</v>
@@ -8263,7 +8362,7 @@
         <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>1502</v>
+        <v>1542</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>298</v>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6975" uniqueCount="1550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7033" uniqueCount="1561">
   <si>
     <t>PUId</t>
   </si>
@@ -4782,6 +4782,39 @@
   </si>
   <si>
     <t>10302150</t>
+  </si>
+  <si>
+    <t>10304774</t>
+  </si>
+  <si>
+    <t>02:47</t>
+  </si>
+  <si>
+    <t>10304776</t>
+  </si>
+  <si>
+    <t>137328817</t>
+  </si>
+  <si>
+    <t>33488095</t>
+  </si>
+  <si>
+    <t>10304635</t>
+  </si>
+  <si>
+    <t>137328828</t>
+  </si>
+  <si>
+    <t>137626708</t>
+  </si>
+  <si>
+    <t>33513443</t>
+  </si>
+  <si>
+    <t>10329754</t>
+  </si>
+  <si>
+    <t>137626719</t>
   </si>
 </sst>
 </file>
@@ -6685,16 +6718,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>1533</v>
+        <v>1557</v>
       </c>
       <c r="C2" t="s">
-        <v>1534</v>
+        <v>1558</v>
       </c>
       <c r="D2" t="s">
-        <v>1535</v>
+        <v>1559</v>
       </c>
       <c r="E2" t="s">
-        <v>1536</v>
+        <v>1560</v>
       </c>
     </row>
   </sheetData>
@@ -6941,7 +6974,7 @@
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>154</v>
+        <v>613</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -6953,20 +6986,20 @@
         <v>157</v>
       </c>
       <c r="AF2" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AG2" t="s">
-        <v>1540</v>
+        <v>1550</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>1346</v>
+        <v>502</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1346</v>
+        <v>502</v>
       </c>
       <c r="AK2" t="s">
-        <v>1346</v>
+        <v>502</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -7063,20 +7096,20 @@
       </c>
       <c r="AE3" s="26"/>
       <c r="AF3" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AG3" t="s">
-        <v>1542</v>
+        <v>1552</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>1541</v>
+        <v>1551</v>
       </c>
       <c r="AJ3" t="s">
-        <v>1541</v>
+        <v>1551</v>
       </c>
       <c r="AK3" t="s">
-        <v>1541</v>
+        <v>1551</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -8164,7 +8197,7 @@
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>1540</v>
+        <v>1550</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>253</v>
@@ -8362,7 +8395,7 @@
         <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>1542</v>
+        <v>1552</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>298</v>

--- a/NetAgent/src/main/resources/NA_Test.xlsx
+++ b/NetAgent/src/main/resources/NA_Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7033" uniqueCount="1561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7352" uniqueCount="1609">
   <si>
     <t>PUId</t>
   </si>
@@ -4815,6 +4815,150 @@
   </si>
   <si>
     <t>137626719</t>
+  </si>
+  <si>
+    <t>10362777</t>
+  </si>
+  <si>
+    <t>1583</t>
+  </si>
+  <si>
+    <t>10362780</t>
+  </si>
+  <si>
+    <t>10362815</t>
+  </si>
+  <si>
+    <t>10362821</t>
+  </si>
+  <si>
+    <t>10362904</t>
+  </si>
+  <si>
+    <t>04:17</t>
+  </si>
+  <si>
+    <t>10362907</t>
+  </si>
+  <si>
+    <t>04:29</t>
+  </si>
+  <si>
+    <t>10362938</t>
+  </si>
+  <si>
+    <t>05:35</t>
+  </si>
+  <si>
+    <t>10362951</t>
+  </si>
+  <si>
+    <t>10362978</t>
+  </si>
+  <si>
+    <t>10363025</t>
+  </si>
+  <si>
+    <t>05:08</t>
+  </si>
+  <si>
+    <t>10363057</t>
+  </si>
+  <si>
+    <t>06:15</t>
+  </si>
+  <si>
+    <t>10363072</t>
+  </si>
+  <si>
+    <t>06:31</t>
+  </si>
+  <si>
+    <t>10363118</t>
+  </si>
+  <si>
+    <t>10363123</t>
+  </si>
+  <si>
+    <t>10363140</t>
+  </si>
+  <si>
+    <t>10363163</t>
+  </si>
+  <si>
+    <t>06:45</t>
+  </si>
+  <si>
+    <t>10363180</t>
+  </si>
+  <si>
+    <t>07:51</t>
+  </si>
+  <si>
+    <t>10363185</t>
+  </si>
+  <si>
+    <t>10363217</t>
+  </si>
+  <si>
+    <t>10363223</t>
+  </si>
+  <si>
+    <t>10363233</t>
+  </si>
+  <si>
+    <t>10363250</t>
+  </si>
+  <si>
+    <t>10363255</t>
+  </si>
+  <si>
+    <t>138008961</t>
+  </si>
+  <si>
+    <t>33547017</t>
+  </si>
+  <si>
+    <t>10363116</t>
+  </si>
+  <si>
+    <t>138014023</t>
+  </si>
+  <si>
+    <t>09:16</t>
+  </si>
+  <si>
+    <t>01:19</t>
+  </si>
+  <si>
+    <t>10363768</t>
+  </si>
+  <si>
+    <t>01:30</t>
+  </si>
+  <si>
+    <t>10363772</t>
+  </si>
+  <si>
+    <t>33547411</t>
+  </si>
+  <si>
+    <t>10363510</t>
+  </si>
+  <si>
+    <t>138018331</t>
+  </si>
+  <si>
+    <t>138020059</t>
+  </si>
+  <si>
+    <t>33547566</t>
+  </si>
+  <si>
+    <t>10363659</t>
+  </si>
+  <si>
+    <t>138020060</t>
   </si>
 </sst>
 </file>
@@ -6718,16 +6862,16 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>1557</v>
+        <v>1605</v>
       </c>
       <c r="C2" t="s">
-        <v>1558</v>
+        <v>1606</v>
       </c>
       <c r="D2" t="s">
-        <v>1559</v>
+        <v>1607</v>
       </c>
       <c r="E2" t="s">
-        <v>1560</v>
+        <v>1608</v>
       </c>
     </row>
   </sheetData>
@@ -6974,7 +7118,7 @@
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>613</v>
+        <v>184</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -6986,20 +7130,20 @@
         <v>157</v>
       </c>
       <c r="AF2" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>1550</v>
+        <v>1585</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>502</v>
+        <v>1584</v>
       </c>
       <c r="AJ2" t="s">
-        <v>502</v>
+        <v>1584</v>
       </c>
       <c r="AK2" t="s">
-        <v>502</v>
+        <v>1584</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -7086,7 +7230,7 @@
         <v>172</v>
       </c>
       <c r="AB3" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>173</v>
@@ -7096,20 +7240,20 @@
       </c>
       <c r="AE3" s="26"/>
       <c r="AF3" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>1552</v>
+        <v>1587</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>1551</v>
+        <v>1586</v>
       </c>
       <c r="AJ3" t="s">
-        <v>1551</v>
+        <v>1586</v>
       </c>
       <c r="AK3" t="s">
-        <v>1551</v>
+        <v>1586</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -7205,17 +7349,17 @@
         <v>184</v>
       </c>
       <c r="AG4" t="s">
-        <v>1549</v>
+        <v>1601</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>761</v>
+        <v>953</v>
       </c>
       <c r="AJ4" t="s">
-        <v>761</v>
+        <v>953</v>
       </c>
       <c r="AK4" t="s">
-        <v>761</v>
+        <v>953</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -7315,17 +7459,17 @@
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>1545</v>
+        <v>1588</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>1544</v>
+        <v>1121</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1544</v>
+        <v>1121</v>
       </c>
       <c r="AK5" t="s">
-        <v>1544</v>
+        <v>1121</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -7937,7 +8081,7 @@
         <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>1532</v>
+        <v>1592</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -7997,7 +8141,7 @@
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>1530</v>
+        <v>1589</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -8049,13 +8193,13 @@
         <v>232</v>
       </c>
       <c r="AD13" t="s">
-        <v>707</v>
+        <v>1562</v>
       </c>
       <c r="AF13" t="s">
         <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>1546</v>
+        <v>1590</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -8129,7 +8273,7 @@
         <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>1531</v>
+        <v>1591</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -8197,7 +8341,7 @@
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>1550</v>
+        <v>1585</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>253</v>
@@ -8395,7 +8539,7 @@
         <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>1552</v>
+        <v>1587</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>298</v>
